--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1235060931187572</v>
+        <v>0.123448692129632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01519693930501902</v>
+        <v>0.08751446486861349</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01670957891047133</v>
+        <v>0.004652525466471164</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03062642640157799</v>
+        <v>0.003093147569012825</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03470588454058638</v>
+        <v>0.0470902414585436</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05383435119757023</v>
+        <v>0.07670982230847119</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04829644877607745</v>
+        <v>0.00959919151293015</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003534751685880018</v>
+        <v>0.0540765943437163</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03328749798414065</v>
+        <v>0.03791435988477868</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03144849760766073</v>
+        <v>0.01285406175836858</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08510563013632903</v>
+        <v>0.06692324063353865</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06971757529495533</v>
+        <v>0.08724184304971623</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05430770313145015</v>
+        <v>0.007515510448272666</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0720709775256004</v>
+        <v>0.01221195755153985</v>
       </c>
       <c r="S2" t="n">
-        <v>0.063385373720213</v>
+        <v>0.06981592446230556</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001384314131008777</v>
+        <v>0.0008833760022103855</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0989662297540666</v>
+        <v>0.08019992411454671</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03262820137451299</v>
+        <v>0.005027534915224428</v>
       </c>
       <c r="W2" t="n">
-        <v>0.08599933386391041</v>
+        <v>0.0643157422705499</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0008900582005561307</v>
+        <v>0.05364265937784645</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02821154096245013</v>
+        <v>0.05201421529994168</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03093075081714902</v>
+        <v>0.08276538485474522</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.05581939053378264</v>
+        <v>0.04585125885414529</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05294254414503154</v>
+        <v>0.03808701899451104</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1006663882269175</v>
+        <v>0.08308931005344787</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1422724622775686</v>
+        <v>0.1363350920057368</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01338869772106894</v>
+        <v>0.02615272952840963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01467213545618761</v>
+        <v>0.006344543616290905</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03352537240926434</v>
+        <v>0.05675243903254144</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1158800997648375</v>
+        <v>0.09331375578266154</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004227058560175577</v>
+        <v>0.02205429204751442</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001191071951331267</v>
+        <v>0.03465448175136532</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0123276914054624</v>
+        <v>0.01135212393573424</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08454044991617428</v>
+        <v>0.07873087668012883</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005695629832756592</v>
+        <v>0.06664025993673796</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00682353664096527</v>
+        <v>0.0009213121628117728</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00689694886321033</v>
+        <v>0.08316369119215886</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02885948575356235</v>
+        <v>0.01683726983824743</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08785304117506464</v>
+        <v>0.00181306828867989</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1141214421046699</v>
+        <v>0.06536204964598213</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0187442767341122</v>
+        <v>0.009024790566806672</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05179420786425339</v>
+        <v>0.08343753271584722</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04962200013887495</v>
+        <v>0.06908294317121021</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03148724590422884</v>
+        <v>0.03378623580881027</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005115760870397525</v>
+        <v>0.009659466904175937</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.06800146657408514</v>
+        <v>0.0678302799064415</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1053471732518443</v>
+        <v>0.06718063068747734</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03731082208451509</v>
+        <v>0.002406821377941489</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1025743850229577</v>
+        <v>0.09349840542202521</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1088495069077123</v>
+        <v>0.09721960756864051</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1616710608946942</v>
+        <v>0.1602111655266611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09018918074331386</v>
+        <v>0.04077985496349695</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001500653490036175</v>
+        <v>0.04632161258475825</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09405244685111951</v>
+        <v>0.0899656394087083</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06296357931616423</v>
+        <v>0.07793370824486402</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07438637161887862</v>
+        <v>0.09947768358728191</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00558757834902564</v>
+        <v>0.02102583884550493</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001860100438830388</v>
+        <v>0.01156118739474813</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02682246831678551</v>
+        <v>0.005791689742136211</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04653009642699597</v>
+        <v>0.01763441720776846</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001205640435538955</v>
+        <v>0.01625314886333221</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05280535054694985</v>
+        <v>0.09659753647435022</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03522001429813802</v>
+        <v>0.04611447667250282</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01744976555329391</v>
+        <v>0.02705931433750339</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03920930347380366</v>
+        <v>0.02531570009581259</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04107039678430816</v>
+        <v>0.06117356212929221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06236990258078341</v>
+        <v>0.03096923527660542</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01600148666973765</v>
+        <v>0.00747627052878226</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05377769708231348</v>
+        <v>0.07895085711191645</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0885433016664348</v>
+        <v>0.06958425076767313</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08751842404374935</v>
+        <v>0.05581425468393308</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06306633139004909</v>
+        <v>0.03778858237553267</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02936277296036232</v>
+        <v>0.03157804765479222</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.008507136963387433</v>
+        <v>0.004833131048704223</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.01454505641650356</v>
+        <v>0.0004402103815455225</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1920295409065737</v>
+        <v>0.1735914890151523</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0422845003722226</v>
+        <v>0.02416778909884498</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00779619000325877</v>
+        <v>0.03254527601363502</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08809509826581011</v>
+        <v>0.05721490435245885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09052432956201327</v>
+        <v>0.08717088160959689</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08341225947942948</v>
+        <v>0.08793164901908027</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0009849556312815334</v>
+        <v>0.005912876818299278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001307465509755011</v>
+        <v>0.004847530938949141</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0354614523429625</v>
+        <v>0.03015418688782998</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01212147046877147</v>
+        <v>0.09157610690172176</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01520674088930245</v>
+        <v>0.02794802446794357</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0198705582685031</v>
+        <v>0.0116928826046797</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.06492248802651604</v>
+        <v>0.05889544581391909</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0395289519107853</v>
+        <v>0.003466218464586445</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09218783884219295</v>
+        <v>0.06550026009340952</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04288905754471948</v>
+        <v>0.05543396563336413</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04707424861921197</v>
+        <v>0.06578166891922918</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07004391422428831</v>
+        <v>0.06736148423175251</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01790776084138288</v>
+        <v>0.02350081557824223</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02188608592150073</v>
+        <v>0.0137541276335261</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.06800892192603639</v>
+        <v>0.07085220225084526</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06883897434597611</v>
+        <v>0.06608087088194421</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.04181505385118299</v>
+        <v>0.03449364808331536</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02783168315289669</v>
+        <v>0.01371718370282646</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.01193414846522749</v>
+        <v>-0.03320425156192901</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1329215587013419</v>
+        <v>0.130656995617989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0740481161739239</v>
+        <v>0.08744609723016637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03936915194977203</v>
+        <v>0.01674810913583056</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02055460798466925</v>
+        <v>0.001343428781765717</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04211102736702612</v>
+        <v>0.001837253706709587</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06681174708279577</v>
+        <v>0.08789239387659045</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02548053489639133</v>
+        <v>0.01109664765681627</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02377959859995301</v>
+        <v>0.04056388492966657</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01217345186787233</v>
+        <v>0.01059959902496891</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01243044613123571</v>
+        <v>0.01149444700221015</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05896330586799843</v>
+        <v>0.08234456994542959</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04021936086437834</v>
+        <v>0.04062726753921967</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03504717046414015</v>
+        <v>0.04648529199651948</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03623338685650679</v>
+        <v>0.08860744348693166</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07773316829098544</v>
+        <v>0.04914449796288929</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07119137326652324</v>
+        <v>0.003794957589452064</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0751226166148849</v>
+        <v>0.09113338650450052</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001652737106042728</v>
+        <v>0.03107740953294046</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04020783119462453</v>
+        <v>0.04073014340106519</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06032312336451935</v>
+        <v>0.09466486568547397</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07618090642668285</v>
+        <v>0.06199628693904009</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05151141535988368</v>
+        <v>0.075781691645863</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03085202008784782</v>
+        <v>0.02068788795750257</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02800290218134233</v>
+        <v>0.003902438468447791</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04810431691151296</v>
+        <v>0.0359111949920837</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.146158040413208</v>
+        <v>0.1455654914616717</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04043264233745954</v>
+        <v>0.09303849431140251</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04689480934820236</v>
+        <v>0.02843700399250035</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0214265964485801</v>
+        <v>0.02951013728996283</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08315997944578847</v>
+        <v>0.06154292088642281</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03818177733811194</v>
+        <v>0.0255126933524296</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002442255989850126</v>
+        <v>0.03887300694284884</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05481635776533994</v>
+        <v>0.03851797877523783</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04509573515094278</v>
+        <v>0.01077169645475289</v>
       </c>
       <c r="N7" t="n">
-        <v>0.08967783824256548</v>
+        <v>0.01237909025999534</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003531004657481106</v>
+        <v>0.01245963238450343</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03604067241732099</v>
+        <v>0.01659651160487376</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0815416514873229</v>
+        <v>0.09977734722992028</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07156204068020067</v>
+        <v>0.02748491808238069</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04842481964873061</v>
+        <v>0.06137150850930526</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07674861830971727</v>
+        <v>0.05599287758183599</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07343547711580095</v>
+        <v>0.04848340893238324</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03021052368519432</v>
+        <v>0.04487021904105806</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02233357101025282</v>
+        <v>0.07022008047044093</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01554717535882175</v>
+        <v>0.005080595815045568</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.008752907752426228</v>
+        <v>0.06311750580834724</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001955061897033031</v>
+        <v>0.01034786617511116</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0147463293674015</v>
+        <v>0.03028957236607438</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.09304215454545507</v>
+        <v>0.115324933733167</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.04957394342198294</v>
+        <v>0.04482208599052571</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.134350915007948</v>
+        <v>0.1354745275212708</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009787213746222479</v>
+        <v>0.06039440692224905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001444380705891496</v>
+        <v>0.06844799791904869</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01015867779903392</v>
+        <v>0.001383681869377105</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01375688252321949</v>
+        <v>0.0697309507069903</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09711220572528374</v>
+        <v>0.08028713440084893</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007946035837179552</v>
+        <v>0.00247233578030694</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001749956140603004</v>
+        <v>0.005530375778174089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02163574785034221</v>
+        <v>0.0172822363092613</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03355227441431199</v>
+        <v>0.0564918953294933</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09128196700581155</v>
+        <v>0.07460379611419607</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03994918628731053</v>
+        <v>0.07801012614779157</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06121303692189137</v>
+        <v>0.009028352459775407</v>
       </c>
       <c r="R8" t="n">
-        <v>0.08377559349634883</v>
+        <v>0.06828437553201176</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04663099323030693</v>
+        <v>0.07042280140510537</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07575160516024926</v>
+        <v>0.03839985007954657</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0947037329374711</v>
+        <v>0.06162171813307803</v>
       </c>
       <c r="V8" t="n">
-        <v>0.06127084835155465</v>
+        <v>0.03712737450274477</v>
       </c>
       <c r="W8" t="n">
-        <v>0.07168637649394927</v>
+        <v>0.05833271491358852</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02340359242847669</v>
+        <v>0.01542910160731314</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02468414881078426</v>
+        <v>0.03644060638243604</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0874677478637586</v>
+        <v>0.07109756621497211</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0122524308636955</v>
+        <v>0.00150372618736257</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02878536540630364</v>
+        <v>0.0176768753043284</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.132622697250849</v>
+        <v>-0.1377560757929763</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1510774515997506</v>
+        <v>0.1563514796770494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06089514192854222</v>
+        <v>0.04189208082029667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001746521533885054</v>
+        <v>0.01273781347188668</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04445771048913241</v>
+        <v>0.005649155975422791</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08517030382948745</v>
+        <v>0.1141897023306971</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03932342765441477</v>
+        <v>0.04848963036122906</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02488519636743595</v>
+        <v>0.02415873652699151</v>
       </c>
       <c r="L9" t="n">
-        <v>0.022200941818536</v>
+        <v>0.003389158251855815</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03998608254656875</v>
+        <v>0.001350250429406602</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008789378574768048</v>
+        <v>0.06026869355926517</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0187673288594771</v>
+        <v>0.0200317974727369</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07987189836741609</v>
+        <v>0.04138359345357705</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01945844049447946</v>
+        <v>0.07771484661466718</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02849346205915578</v>
+        <v>0.1039660582992056</v>
       </c>
       <c r="S9" t="n">
-        <v>0.08654126059792309</v>
+        <v>0.05420025986968039</v>
       </c>
       <c r="T9" t="n">
-        <v>0.003941366435056473</v>
+        <v>0.003487848338628113</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06306664180658637</v>
+        <v>0.04608383840524697</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04000227401220687</v>
+        <v>0.006424697892209994</v>
       </c>
       <c r="W9" t="n">
-        <v>0.08652697253030765</v>
+        <v>0.05034685632158404</v>
       </c>
       <c r="X9" t="n">
-        <v>0.009008890685995355</v>
+        <v>0.01786262132240836</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.06357157325062443</v>
+        <v>0.04067569048143402</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.007797712743964499</v>
+        <v>0.01501823612250149</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08877256280715005</v>
+        <v>0.09746788247499762</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.07672491060688627</v>
+        <v>0.1132105512040709</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1581925230471947</v>
+        <v>-0.1290507309984819</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1611062516401216</v>
+        <v>0.1593166819107719</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05109658321824328</v>
+        <v>0.06303242957826591</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000124723756618709</v>
+        <v>0.03991383112543787</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08977748071501605</v>
+        <v>0.06931534376523672</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06852237728267475</v>
+        <v>0.06458026807844558</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08646236370377446</v>
+        <v>0.001142044173067225</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01773142240457251</v>
+        <v>0.01548546416902844</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005382648317953092</v>
+        <v>0.009438316276753716</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006749153329252137</v>
+        <v>5.94050921474781e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03956774863683453</v>
+        <v>0.001839922180290207</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07211651441922808</v>
+        <v>0.09665775384053824</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03005661314693627</v>
+        <v>0.08279798798086839</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04009647640755352</v>
+        <v>0.02456178830967027</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08987018175553162</v>
+        <v>0.0695280922825631</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02682375641233859</v>
+        <v>0.03010677321752079</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01453855149316252</v>
+        <v>0.03961349687340378</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04036462415864329</v>
+        <v>0.01827794319596453</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03733332657752687</v>
+        <v>0.01832401949041501</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06326414762005685</v>
+        <v>0.07620909968212689</v>
       </c>
       <c r="X10" t="n">
-        <v>0.08145179088571362</v>
+        <v>0.07248014138110695</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01404256696235782</v>
+        <v>0.009212736126733562</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09045276922854738</v>
+        <v>0.07898492255304743</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.006770105677824796</v>
+        <v>0.02746486453968123</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0274040738896393</v>
+        <v>0.09097335608768649</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.08418473488525642</v>
+        <v>-0.07074049593626225</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1867729007488638</v>
+        <v>0.1788269966531702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02182846346148974</v>
+        <v>0.0469369822965927</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03634811136870628</v>
+        <v>0.02584929636213803</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08523782554125185</v>
+        <v>0.09850191199985159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08354788937172342</v>
+        <v>0.0926167124636544</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05525631320741724</v>
+        <v>0.0330003713205228</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04825911209495578</v>
+        <v>0.01973958394106704</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07868247326326371</v>
+        <v>0.02519537894383969</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01866579381100298</v>
+        <v>0.03387293106636892</v>
       </c>
       <c r="N11" t="n">
-        <v>0.009554136408951171</v>
+        <v>0.01395531633266575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001274819590121182</v>
+        <v>0.02964987952248433</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04437202808662143</v>
+        <v>0.03795025128283625</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.07065456293665047</v>
+        <v>0.005809702238233841</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03290284929748109</v>
+        <v>0.07326186640008223</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04899399651893559</v>
+        <v>0.07965776333190926</v>
       </c>
       <c r="T11" t="n">
-        <v>0.007847115668468531</v>
+        <v>0.02239918784499887</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008467735779041901</v>
+        <v>0.01137605102436102</v>
       </c>
       <c r="V11" t="n">
-        <v>0.007825810346245783</v>
+        <v>0.0112146091410431</v>
       </c>
       <c r="W11" t="n">
-        <v>0.07397223256338438</v>
+        <v>0.03542026157257203</v>
       </c>
       <c r="X11" t="n">
-        <v>0.05327511892635527</v>
+        <v>0.03010096310129558</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.06284313029981721</v>
+        <v>0.08310745848559863</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00303506090088414</v>
+        <v>0.002896357301072482</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.06260689199010749</v>
+        <v>0.09203315908837052</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08454852856712333</v>
+        <v>0.09545400493844092</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.09317239403050304</v>
+        <v>-0.07748507297376546</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1747156047617743</v>
+        <v>0.1751164027660095</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06631621717210448</v>
+        <v>0.02726057000800464</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0006650542835956242</v>
+        <v>0.01302736527522379</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08198584215222718</v>
+        <v>0.08710274778653759</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02564197152398066</v>
+        <v>0.01032644665772754</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0678006870803701</v>
+        <v>0.02226262263122838</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001555488325193087</v>
+        <v>0.01586504553778837</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06193601057738454</v>
+        <v>0.05091114376732027</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01365402372463625</v>
+        <v>0.005852169642552509</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06682386920636318</v>
+        <v>0.002884003104645061</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02120733706547015</v>
+        <v>0.02047565435400859</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08824897948969342</v>
+        <v>0.05443195900234531</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.009732258191702731</v>
+        <v>0.004969590944336027</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09075441074963347</v>
+        <v>0.09289027422399011</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02360114548637225</v>
+        <v>0.09876247863098313</v>
       </c>
       <c r="T12" t="n">
-        <v>0.009007155872366935</v>
+        <v>0.04457299101275949</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02449406186990766</v>
+        <v>0.05333461765900828</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00339047181953221</v>
+        <v>0.00160552722849711</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07634627051787687</v>
+        <v>0.0854074092275129</v>
       </c>
       <c r="X12" t="n">
-        <v>0.08233712039047326</v>
+        <v>0.03507198641448147</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07865569739733803</v>
+        <v>0.0955084538735219</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02975603812846795</v>
+        <v>0.1007472735151259</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04608362257753106</v>
+        <v>0.03664662923766428</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03000626639777886</v>
+        <v>0.04008304026473732</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.293370873404883</v>
+        <v>-0.334566248127576</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2377428230710906</v>
+        <v>0.2359255370148459</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08395332303384972</v>
+        <v>0.06926385743632912</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04827359708193465</v>
+        <v>0.02571506231787062</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03054883040990617</v>
+        <v>0.08100628060207772</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0839050362352375</v>
+        <v>0.05185668723242279</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01082396815241092</v>
+        <v>0.02703959246437744</v>
       </c>
       <c r="K13" t="n">
-        <v>0.009267048461076635</v>
+        <v>0.03628100517461474</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03340876844617574</v>
+        <v>0.08631331351031192</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01300933803606913</v>
+        <v>0.05399763518001483</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02683732547432604</v>
+        <v>0.00677252024500858</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02857576941632353</v>
+        <v>0.0002614713126297925</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01510217005970669</v>
+        <v>0.07064839343800831</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08351159497999384</v>
+        <v>0.06100748027194867</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05315659194529964</v>
+        <v>0.07579527834141424</v>
       </c>
       <c r="S13" t="n">
-        <v>0.009096734643331016</v>
+        <v>0.01613191471585682</v>
       </c>
       <c r="T13" t="n">
-        <v>0.04994122574502339</v>
+        <v>0.01654920798081209</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02201139029523457</v>
+        <v>0.004498908747906172</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02079808607269363</v>
+        <v>0.002948008021527247</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08115637180583697</v>
+        <v>0.01175618021490644</v>
       </c>
       <c r="X13" t="n">
-        <v>0.006555746430432564</v>
+        <v>0.05772714376616208</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.09375637839255324</v>
+        <v>0.01301991479079656</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.02373231173464112</v>
+        <v>0.06196140240012617</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.08959742780339361</v>
+        <v>0.07937527715736854</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0829809653445495</v>
+        <v>0.09007346467750919</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.4213197318068663</v>
+        <v>-0.3830627980425494</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2570760223010121</v>
+        <v>0.2580810880096887</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05160161583502372</v>
+        <v>0.03532732014958035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04138896629287329</v>
+        <v>0.008392305442473618</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07230942592146831</v>
+        <v>0.07332587459773419</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03398399159367096</v>
+        <v>0.01487093639780537</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07472881518417752</v>
+        <v>0.08814005438585468</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009629023312981084</v>
+        <v>0.05127940113879807</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004348084574562695</v>
+        <v>0.04636579642233234</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0006603706311576609</v>
+        <v>0.01237576000985039</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001708598454571272</v>
+        <v>0.004277224393016366</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01029209371467532</v>
+        <v>0.05579037669782791</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07474378157507017</v>
+        <v>0.0701116026187788</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01516063987503735</v>
+        <v>0.01555250815011342</v>
       </c>
       <c r="R14" t="n">
-        <v>0.05601771792101756</v>
+        <v>0.07599401459863132</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06437869149541099</v>
+        <v>0.04565748469404527</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07406770584756196</v>
+        <v>0.02878132468010005</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08250191603689287</v>
+        <v>0.07277798067201348</v>
       </c>
       <c r="V14" t="n">
-        <v>0.03004346982124246</v>
+        <v>0.001161694261369625</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07278862839740896</v>
+        <v>0.08628167478280295</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0538864006664586</v>
+        <v>0.07453503670209738</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07292239959820322</v>
+        <v>0.02184078111691318</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.07179897793829078</v>
+        <v>0.06941407266605276</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.005461302082315213</v>
+        <v>0.004847611516823381</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0255773832299279</v>
+        <v>0.04289916390498506</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.03037939241599816</v>
+        <v>-0.05920624720701838</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3127988563958015</v>
+        <v>0.3559173815401072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05269219336083131</v>
+        <v>0.01729870863407824</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03615605868762962</v>
+        <v>0.03656974788621755</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06429169932806132</v>
+        <v>0.08005552884513116</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06813023671929523</v>
+        <v>0.04076529501763883</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08360989175042016</v>
+        <v>0.0958690734243044</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01296459404353406</v>
+        <v>0.01540014191886933</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07471838283442685</v>
+        <v>0.06157149645907325</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02545847725355756</v>
+        <v>0.07233793225921421</v>
       </c>
       <c r="N15" t="n">
-        <v>0.06158791873781509</v>
+        <v>0.02911805143471498</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02779559955595132</v>
+        <v>0.01696503956260292</v>
       </c>
       <c r="P15" t="n">
-        <v>0.008774677434887163</v>
+        <v>0.0105762715143181</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00802147005612542</v>
+        <v>0.02423859892871726</v>
       </c>
       <c r="R15" t="n">
-        <v>0.09310745138099891</v>
+        <v>0.0974604870727228</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0003805334178373889</v>
+        <v>0.009144615964907661</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001625986404918172</v>
+        <v>0.002116180871538825</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004887993537211863</v>
+        <v>0.01374526538920659</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0646695356954242</v>
+        <v>0.1134586011544551</v>
       </c>
       <c r="W15" t="n">
-        <v>0.07513924267995696</v>
+        <v>0.01020105231260757</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02254897830698933</v>
+        <v>0.01527672742112836</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.003056522585136749</v>
+        <v>0.01635001090603445</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.09050807417168533</v>
+        <v>0.04824173757143578</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.039197331868658</v>
+        <v>0.08447223807556083</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.08067715018864811</v>
+        <v>0.08876719737552208</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.05868124104185791</v>
+        <v>0.07339804979268105</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2762418801430589</v>
+        <v>0.2787510452212245</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04743475933660329</v>
+        <v>0.0328764614890598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02471475193562064</v>
+        <v>0.07044868908042631</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04041931177851192</v>
+        <v>0.05348577623402808</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02388772657507239</v>
+        <v>0.07458040244338282</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02289294209685351</v>
+        <v>0.01301851481547867</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02861457856198679</v>
+        <v>0.02741057802369658</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0404920338952548</v>
+        <v>0.002301562327832673</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00489429782466058</v>
+        <v>0.03369234197250463</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0008685589390443749</v>
+        <v>0.01524545172864375</v>
       </c>
       <c r="O16" t="n">
-        <v>7.052568937183577e-06</v>
+        <v>0.06460067704035831</v>
       </c>
       <c r="P16" t="n">
-        <v>0.07375750265384984</v>
+        <v>0.06232688942028099</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04057013870562944</v>
+        <v>0.001586411459592696</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0822031644864958</v>
+        <v>0.08208547444817402</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05579994342224913</v>
+        <v>0.07339886152176615</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02252254938196668</v>
+        <v>0.02561472037929271</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07316818257884013</v>
+        <v>0.06571757201999419</v>
       </c>
       <c r="V16" t="n">
-        <v>0.002118244103232505</v>
+        <v>0.005734506646370659</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06968889713677717</v>
+        <v>0.03153149015329411</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03693853789686667</v>
+        <v>0.07680055071585193</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07153309337528833</v>
+        <v>0.08052453877083507</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07649860698317867</v>
+        <v>0.08208239373004741</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0817006087248143</v>
+        <v>0.002639482974252242</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.07927451703826582</v>
+        <v>0.02229665260483612</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1184983753046452</v>
+        <v>0.110920695791647</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4362337470392025</v>
+        <v>0.4288232680960488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001313414501208761</v>
+        <v>0.006785018881978507</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03509569903139252</v>
+        <v>0.0420369744565644</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03059525088052716</v>
+        <v>0.07473575160804925</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0581238762872416</v>
+        <v>0.06574395868402286</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00379737140985603</v>
+        <v>0.03551441485020637</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04719703377463365</v>
+        <v>0.0651531568482687</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05438489023204814</v>
+        <v>0.1196118027312491</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06731878390032438</v>
+        <v>0.01827340291331079</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02900791368639935</v>
+        <v>0.01311283481738217</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1022839273250988</v>
+        <v>0.006777247165617158</v>
       </c>
       <c r="P17" t="n">
-        <v>0.04094582236365258</v>
+        <v>0.03526842059048958</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04014268847779838</v>
+        <v>0.04816731481768054</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03569417744342599</v>
+        <v>0.01749630627227771</v>
       </c>
       <c r="S17" t="n">
-        <v>0.006555067863066547</v>
+        <v>0.006308003462826725</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03601106067890292</v>
+        <v>0.01575738088418764</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03815386353861791</v>
+        <v>0.0191150185997391</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1524001061230549</v>
+        <v>0.1430872233604738</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02849280198286986</v>
+        <v>0.1089819326976312</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01079176528526801</v>
+        <v>0.01366388860849322</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.05026044895704523</v>
+        <v>0.01608011623767159</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.06920582561036989</v>
+        <v>0.07120839740378533</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03940766375888843</v>
+        <v>0.002166083170020578</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02282054688830923</v>
+        <v>0.05495535093807373</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.187276434725548</v>
+        <v>0.1817090918880243</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3056887667421547</v>
+        <v>0.2924518397716784</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07505354271073042</v>
+        <v>0.04288396138848768</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004905933940273941</v>
+        <v>0.0219090408479078</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03311469218646621</v>
+        <v>0.02526876353493039</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0738765890541806</v>
+        <v>0.07128745310296432</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04567441494141033</v>
+        <v>0.02374823074751455</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04524977391237211</v>
+        <v>0.01109586434990883</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01430279180597731</v>
+        <v>0.03322815688336458</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03740318952542672</v>
+        <v>0.0196997887013728</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001898326577300092</v>
+        <v>0.007916493675182648</v>
       </c>
       <c r="O18" t="n">
-        <v>0.06330251988653382</v>
+        <v>0.0006808947627578169</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02489871047989406</v>
+        <v>0.07781043873931952</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.07887512168143128</v>
+        <v>0.005154351717988899</v>
       </c>
       <c r="R18" t="n">
-        <v>0.07620759390941513</v>
+        <v>0.1246725813243776</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08134713664741904</v>
+        <v>0.01063578426849983</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001775370072330084</v>
+        <v>0.07304681349248736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05483142004861393</v>
+        <v>0.0091542711009158</v>
       </c>
       <c r="V18" t="n">
-        <v>0.005703492269561725</v>
+        <v>0.007455336504298974</v>
       </c>
       <c r="W18" t="n">
-        <v>0.04741788686565859</v>
+        <v>0.1218450561333999</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0441141838979938</v>
+        <v>0.07935520049498587</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07680483935486569</v>
+        <v>0.04572171269500362</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.03655945608752477</v>
+        <v>0.1012477297551028</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04461311809707699</v>
+        <v>0.04738887689722495</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.03377838996711324</v>
+        <v>0.03879319888200375</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1444858909575375</v>
+        <v>0.1224566233151485</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3822308716605025</v>
+        <v>0.4293983595388382</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003653057281765345</v>
+        <v>0.03361950236280278</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01534824102557075</v>
+        <v>0.03619998581872899</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09030404189389374</v>
+        <v>0.009554819953189728</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005943254504065276</v>
+        <v>0.03302707404750483</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04445094487577032</v>
+        <v>0.06436824209883768</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01665809376545679</v>
+        <v>0.01880636909950248</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03311770709742424</v>
+        <v>0.02370344228565501</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04083212382768652</v>
+        <v>0.0105839232917372</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05233790087307273</v>
+        <v>0.09413760194299385</v>
       </c>
       <c r="O19" t="n">
-        <v>0.009749047943072443</v>
+        <v>0.06433645548725264</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0712703060403711</v>
+        <v>0.0289930690413763</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.007912251663791163</v>
+        <v>0.0277281450341086</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02702259016880897</v>
+        <v>0.06321613038580143</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06264124383866469</v>
+        <v>0.0119433198427021</v>
       </c>
       <c r="T19" t="n">
-        <v>0.005354483732331408</v>
+        <v>0.03096451706941193</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01474428528744171</v>
+        <v>0.03868266225555039</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1261636183293452</v>
+        <v>0.1326194686010531</v>
       </c>
       <c r="W19" t="n">
-        <v>0.09749261903253609</v>
+        <v>0.01356998136443427</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02896717048111915</v>
+        <v>0.09667056186551676</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02971341334581454</v>
+        <v>0.03206649116800803</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1215934360547782</v>
+        <v>0.09449217399271388</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.05406190088373994</v>
+        <v>0.01827517849005313</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.04066826805347967</v>
+        <v>0.02244088450106508</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.0978960728521598</v>
+        <v>0.1094309667565323</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.281338223502229</v>
+        <v>0.2799060044202127</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0347678222331529</v>
+        <v>0.04067433320850857</v>
       </c>
       <c r="G20" t="n">
-        <v>0.005068844791752679</v>
+        <v>0.02621642085586877</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002841170768788876</v>
+        <v>0.02444988270509257</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03080422301302433</v>
+        <v>0.06919993943546821</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07654715746297822</v>
+        <v>0.02814127565371709</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03018308081065151</v>
+        <v>0.001894432273566482</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0369608762979038</v>
+        <v>0.01695347502698894</v>
       </c>
       <c r="M20" t="n">
-        <v>0.05881499151146993</v>
+        <v>0.0006126349994440787</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01892826689985585</v>
+        <v>0.02895212782639974</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01296342718044199</v>
+        <v>0.007085955570323031</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01651167422694224</v>
+        <v>0.07449739609391633</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.06328067021740245</v>
+        <v>0.09822478926889579</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0663165899833528</v>
+        <v>0.08372688184723109</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06645015429544129</v>
+        <v>0.05757119585226169</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0147394434615878</v>
+        <v>0.009354304689823855</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02427169240813969</v>
+        <v>0.06544913429133865</v>
       </c>
       <c r="V20" t="n">
-        <v>0.007517535308736335</v>
+        <v>0.01591475583573037</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08646883423273008</v>
+        <v>0.07294310962764608</v>
       </c>
       <c r="X20" t="n">
-        <v>0.09064891634532074</v>
+        <v>0.05286790397082027</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.07567557131572097</v>
+        <v>0.02529269375142562</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.05585246808110197</v>
+        <v>0.03670056602311848</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.02720297380744297</v>
+        <v>0.0718021336265921</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.09718361534606072</v>
+        <v>0.0914746575658221</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03753479810293035</v>
+        <v>0.02966964178956582</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3626088910876409</v>
+        <v>0.3513800216762443</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06498025128013325</v>
+        <v>0.02387398445225085</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09001432709588099</v>
+        <v>0.02242592084739186</v>
       </c>
       <c r="H21" t="n">
-        <v>0.030221989956756</v>
+        <v>0.1233887651080953</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01214171330825456</v>
+        <v>0.08039566879418103</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1020111801050495</v>
+        <v>0.09179579261104136</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02437882638618747</v>
+        <v>0.02490856256745263</v>
       </c>
       <c r="L21" t="n">
-        <v>0.04183784588686398</v>
+        <v>0.005726137078720528</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008209380176068549</v>
+        <v>0.1166314492179119</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08631328626694278</v>
+        <v>0.02125424371749234</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01498026778249331</v>
+        <v>0.003172234416045728</v>
       </c>
       <c r="P21" t="n">
-        <v>0.009563963559280448</v>
+        <v>0.06460067837110388</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01435434683945023</v>
+        <v>0.002061216160262759</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01000411243637162</v>
+        <v>0.0151007306975632</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02760445561404785</v>
+        <v>0.003839488759291634</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02071373594507568</v>
+        <v>0.008109957365587672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02274568847751033</v>
+        <v>0.03845794944340827</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1236084044571807</v>
+        <v>0.1297665340429766</v>
       </c>
       <c r="W21" t="n">
-        <v>0.06468669460438288</v>
+        <v>0.008087048694055807</v>
       </c>
       <c r="X21" t="n">
-        <v>0.02130221258871506</v>
+        <v>0.08939791458210372</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04908822091324486</v>
+        <v>0.009326020442606334</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.03208068425076639</v>
+        <v>0.01513331758437361</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01048613847627856</v>
+        <v>0.003913998301206172</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.1186722735930651</v>
+        <v>0.09863238674487675</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.07242248116066134</v>
+        <v>0.04921715202759135</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.296718279232691</v>
+        <v>0.3001210365658845</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002694560854454479</v>
+        <v>0.009363342334488045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04439128463344236</v>
+        <v>0.05985410539254316</v>
       </c>
       <c r="H22" t="n">
-        <v>0.007221849599413245</v>
+        <v>0.02706051118404968</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08725245338858786</v>
+        <v>0.06811579208057859</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02030338766494615</v>
+        <v>0.05526956675454566</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04560754162477035</v>
+        <v>0.02843522178774662</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02272352110845878</v>
+        <v>0.001817200485681179</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04709420430114213</v>
+        <v>0.02593435483343851</v>
       </c>
       <c r="N22" t="n">
-        <v>0.008593557213993835</v>
+        <v>0.007704082734337119</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008714379704927942</v>
+        <v>0.04504369357493301</v>
       </c>
       <c r="P22" t="n">
-        <v>0.06191758599058015</v>
+        <v>0.07000266890158849</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01031659806195744</v>
+        <v>0.07331315670997142</v>
       </c>
       <c r="R22" t="n">
-        <v>0.09249167965317881</v>
+        <v>0.1078448876243338</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02418776786734951</v>
+        <v>0.07027324162927956</v>
       </c>
       <c r="T22" t="n">
-        <v>0.07906328296263468</v>
+        <v>0.06618996903580589</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07468937051381724</v>
+        <v>0.1019697615479512</v>
       </c>
       <c r="V22" t="n">
-        <v>0.006763812933100841</v>
+        <v>0.02781925539699406</v>
       </c>
       <c r="W22" t="n">
-        <v>0.08730116805632994</v>
+        <v>0.01396611007091368</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06119319665274903</v>
+        <v>0.06343771652215793</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07859103846036866</v>
+        <v>0.03475106685138967</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03353313680180443</v>
+        <v>0.02182022159226641</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02662103861387202</v>
+        <v>0.01841142082883011</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.06873358333811994</v>
+        <v>0.001602652126176044</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3295992791132618</v>
+        <v>0.3846809181616228</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04335015087513164</v>
+        <v>0.0106083954701015</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03806609557745676</v>
+        <v>0.01979908046065095</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009732992024365401</v>
+        <v>0.005213801816348577</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04872005828056835</v>
+        <v>0.05922755370535023</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02611479819727754</v>
+        <v>0.01479481065551428</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00139042371330596</v>
+        <v>0.004894322720673357</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006740745384112483</v>
+        <v>0.02020480818720588</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09557438981041803</v>
+        <v>2.028387691114426e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>0.03224359745182918</v>
+        <v>0.07838422259839463</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01115441657295645</v>
+        <v>0.08263118571712952</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1025278587137818</v>
+        <v>0.04640052745091788</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04055094667962643</v>
+        <v>0.02212365729060066</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05829243566440672</v>
+        <v>0.04560527658674324</v>
       </c>
       <c r="S23" t="n">
-        <v>0.07999053692502338</v>
+        <v>0.002027620818705518</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01857387268877913</v>
+        <v>0.1125109285005925</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1159037212188514</v>
+        <v>0.0922270006337193</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1146773229927882</v>
+        <v>0.1074797030282278</v>
       </c>
       <c r="W23" t="n">
-        <v>0.03795600947908172</v>
+        <v>0.004896040993521959</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02462789126471958</v>
+        <v>0.01905252348265804</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.03223175955210009</v>
+        <v>0.05282971475265428</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.004866498816937515</v>
+        <v>0.07816680184752239</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03880857218042991</v>
+        <v>0.04340555084541928</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.01790490593605238</v>
+        <v>0.0774961885604372</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2709463380473012</v>
+        <v>0.2742290971310604</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02220815324103056</v>
+        <v>0.007714749246762326</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01667926473162459</v>
+        <v>0.0384724708497765</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03864836188751084</v>
+        <v>0.01963967003296755</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09064522404781865</v>
+        <v>0.08625567626761665</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01830872832260538</v>
+        <v>0.00906608815758269</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005400286246498123</v>
+        <v>0.02782044001895078</v>
       </c>
       <c r="L24" t="n">
-        <v>0.03174805677308176</v>
+        <v>0.01581531946326324</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06902255235395609</v>
+        <v>0.01800101699692802</v>
       </c>
       <c r="N24" t="n">
-        <v>0.006479912680955173</v>
+        <v>0.005201148623505719</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01603468237920407</v>
+        <v>0.008784632383158662</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1014129035605464</v>
+        <v>0.08708053547845838</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.0647441995608961</v>
+        <v>0.03316156289860878</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1000098165376744</v>
+        <v>0.02933994647259965</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04263214662210484</v>
+        <v>0.04217089007659008</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01404180284594559</v>
+        <v>0.002577818094560088</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07136905287101721</v>
+        <v>0.1176537861377804</v>
       </c>
       <c r="V24" t="n">
-        <v>0.001811200716542793</v>
+        <v>0.003958639949685866</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01227196600703321</v>
+        <v>0.08308143139229221</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1018686442124884</v>
+        <v>0.04983440706139753</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.09103184421896361</v>
+        <v>0.0717294696897274</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.05352572805125647</v>
+        <v>0.06748299237192505</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01094819535411159</v>
+        <v>0.07730888876822534</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01915727677713406</v>
+        <v>0.09784841956763714</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.07411466217259353</v>
+        <v>0.1051369062798152</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3250715496052314</v>
+        <v>0.3336828487448932</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04020723336501758</v>
+        <v>0.00294780694995873</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004067028116466017</v>
+        <v>0.01618274319122271</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07554732496017122</v>
+        <v>0.05608666950508368</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0013471220803179</v>
+        <v>0.04575819008865686</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007362564416646475</v>
+        <v>0.03386104713283333</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07854878333244192</v>
+        <v>0.07671134272956873</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03553965240415981</v>
+        <v>0.05451139666326558</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03783159138330106</v>
+        <v>0.05061025523364351</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02561900487882786</v>
+        <v>0.007614396008213466</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007089306878066109</v>
+        <v>0.04380010726068737</v>
       </c>
       <c r="P25" t="n">
-        <v>0.009937479941804713</v>
+        <v>0.05489157943954405</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.06118145032529565</v>
+        <v>0.01012700812758908</v>
       </c>
       <c r="R25" t="n">
-        <v>0.07588921057674437</v>
+        <v>0.0833783371602856</v>
       </c>
       <c r="S25" t="n">
-        <v>0.09294648058151576</v>
+        <v>0.03027224948717105</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02530245845740497</v>
+        <v>0.04838839097677866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08033492699041493</v>
+        <v>0.1029358311100026</v>
       </c>
       <c r="V25" t="n">
-        <v>0.09717754042859833</v>
+        <v>0.1194756090295328</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0003335355598056227</v>
+        <v>0.01040504021559086</v>
       </c>
       <c r="X25" t="n">
-        <v>0.075573070227013</v>
+        <v>0.0127533751051586</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.006437257507602138</v>
+        <v>0.01270135279918026</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08183609560741445</v>
+        <v>0.06608578782686078</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01393399766037077</v>
+        <v>0.0006366791340917517</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.06595688432059932</v>
+        <v>0.05986480482507985</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1696218099245593</v>
+        <v>0.1715619139815756</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1946425423077001</v>
+        <v>0.1991284261676724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03521713550761684</v>
+        <v>0.01162791439010515</v>
       </c>
       <c r="G26" t="n">
-        <v>0.05849436785678836</v>
+        <v>0.08942905915575802</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05816875908136742</v>
+        <v>0.036252232706668</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01590742818561496</v>
+        <v>0.04828665010153017</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03624623619695357</v>
+        <v>0.02880637691208533</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002859157339748841</v>
+        <v>0.01070289580095295</v>
       </c>
       <c r="L26" t="n">
-        <v>0.005683284376799735</v>
+        <v>0.043380603271768</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0697925594163204</v>
+        <v>0.03367546419238684</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01643085633389725</v>
+        <v>0.006402964280374915</v>
       </c>
       <c r="O26" t="n">
-        <v>0.05700317289172075</v>
+        <v>0.01339145060914565</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07524175665324798</v>
+        <v>0.07703871751301646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.07173419312690471</v>
+        <v>0.05515619438431747</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08593620492032578</v>
+        <v>0.05914043902402176</v>
       </c>
       <c r="S26" t="n">
-        <v>0.08008152650718087</v>
+        <v>0.06000163180959612</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01195967496234263</v>
+        <v>0.009095697336447913</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0724938140428863</v>
+        <v>0.0632472287619042</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01364579729897</v>
+        <v>0.006143147443050155</v>
       </c>
       <c r="W26" t="n">
-        <v>0.07699421633006431</v>
+        <v>0.09183446792872435</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02205485231324001</v>
+        <v>0.06203640372917095</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.03459859387125439</v>
+        <v>0.04687082372521553</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07519573163811377</v>
+        <v>0.07655669997693416</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01594185592663857</v>
+        <v>0.0271332121544085</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.008318825222002751</v>
+        <v>0.04378972479241752</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.08964463439122666</v>
+        <v>0.08305732824973198</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2647166771054746</v>
+        <v>0.2485845629825574</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1073448208953619</v>
+        <v>0.04790270886462467</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02835462144418464</v>
+        <v>0.07868961492489265</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01238722447924202</v>
+        <v>0.05998602037143331</v>
       </c>
       <c r="I27" t="n">
-        <v>0.008492867368950401</v>
+        <v>0.03800354347055279</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1264321796017976</v>
+        <v>0.09377313118887486</v>
       </c>
       <c r="K27" t="n">
-        <v>0.009096079391669067</v>
+        <v>0.01944321347323627</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001855384940905817</v>
+        <v>0.03597187603700757</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01176586706794593</v>
+        <v>0.05049519318277509</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0245179875129073</v>
+        <v>0.004063887998456705</v>
       </c>
       <c r="O27" t="n">
-        <v>0.002849305952753889</v>
+        <v>0.02060113365169169</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03686248600977782</v>
+        <v>0.02210005712761238</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0188798786520749</v>
+        <v>0.02542360493532653</v>
       </c>
       <c r="R27" t="n">
-        <v>0.004583533270790472</v>
+        <v>0.07227537867632571</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05538617548381636</v>
+        <v>0.07464296712600453</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02584843539650231</v>
+        <v>0.02561786788136631</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07974087843873942</v>
+        <v>0.03134473818247725</v>
       </c>
       <c r="V27" t="n">
-        <v>0.09386057332071243</v>
+        <v>0.05050124997481288</v>
       </c>
       <c r="W27" t="n">
-        <v>0.06918341551467097</v>
+        <v>0.001410987871283158</v>
       </c>
       <c r="X27" t="n">
-        <v>0.04471642267624171</v>
+        <v>0.02978827026498158</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.007194062702305251</v>
+        <v>0.001988013194087325</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.09492178730922857</v>
+        <v>0.07155750262268454</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1010360126620946</v>
+        <v>0.06037807500965661</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.03468999990732671</v>
+        <v>0.08404096396983546</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.06792249637535988</v>
+        <v>0.08376346503756751</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.162956551278763</v>
+        <v>0.1670394486488656</v>
       </c>
       <c r="F28" t="n">
-        <v>0.008310177502171671</v>
+        <v>0.03389162870254497</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03362036201214027</v>
+        <v>0.01189865064773891</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01021309535541758</v>
+        <v>0.0009464106413833204</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01937574508932078</v>
+        <v>0.01421579948097894</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01882655065803297</v>
+        <v>0.02693103436123213</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01662729171611279</v>
+        <v>0.02090009687676304</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04864650375330431</v>
+        <v>0.02102112051350666</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0254938699529797</v>
+        <v>0.0315848849363787</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01608805967226955</v>
+        <v>0.02717318561478451</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07709483850924365</v>
+        <v>0.03722621649603635</v>
       </c>
       <c r="P28" t="n">
-        <v>0.09118541305999998</v>
+        <v>0.08749189932685021</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05648125728203333</v>
+        <v>0.03788744520179324</v>
       </c>
       <c r="R28" t="n">
-        <v>0.07754148529326357</v>
+        <v>0.06742537510671311</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08703192863792779</v>
+        <v>0.07415752883766734</v>
       </c>
       <c r="T28" t="n">
-        <v>0.006878604782377344</v>
+        <v>0.003657233124462085</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04915887414184114</v>
+        <v>0.06506332492358993</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01273535330958079</v>
+        <v>0.05409686007339055</v>
       </c>
       <c r="W28" t="n">
-        <v>0.08827361377759006</v>
+        <v>0.05394674157548402</v>
       </c>
       <c r="X28" t="n">
-        <v>0.08462277491169837</v>
+        <v>0.09192300561555172</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0502809388574347</v>
+        <v>0.1080428477522747</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.07230459626953735</v>
+        <v>0.08044404593892139</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0467367828310894</v>
+        <v>0.02611159646107238</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.002471882624632836</v>
+        <v>0.02396306779088178</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.2278162625546136</v>
+        <v>-0.233730528774444</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2051394124484451</v>
+        <v>0.1803847434662617</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07151081044542053</v>
+        <v>0.05289299748497351</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05770215841246095</v>
+        <v>0.005505261667513972</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04193475396729769</v>
+        <v>0.02549417732569847</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01709014778193445</v>
+        <v>0.05253668302524917</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07525334645625631</v>
+        <v>0.09416101124463555</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05679380560294396</v>
+        <v>0.004885411386799809</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02149463957737351</v>
+        <v>0.03709625447446702</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01477119016093041</v>
+        <v>0.04208201262049735</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03698971749183991</v>
+        <v>0.00348922091581913</v>
       </c>
       <c r="O29" t="n">
-        <v>0.001074629375506191</v>
+        <v>0.01860379512344855</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01166733242605246</v>
+        <v>0.05095257995747285</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01609790070545362</v>
+        <v>0.009506676928216709</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09069154226913527</v>
+        <v>0.08606940676492277</v>
       </c>
       <c r="S29" t="n">
-        <v>0.05236744394786792</v>
+        <v>0.09788097468186459</v>
       </c>
       <c r="T29" t="n">
-        <v>0.02442698717383266</v>
+        <v>0.03748514455533125</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08485739312319035</v>
+        <v>0.0992787956866578</v>
       </c>
       <c r="V29" t="n">
-        <v>0.06584296451028195</v>
+        <v>0.1004937715792454</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04912038163264703</v>
+        <v>0.03260657781793443</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02490552537566722</v>
+        <v>0.01930660267052262</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.0002721402223288683</v>
+        <v>0.03533949881929056</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.05231183013807052</v>
+        <v>0.07564583751970475</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.09171322053991099</v>
+        <v>0.007039776584317079</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04111013866359714</v>
+        <v>0.01164753116541658</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2155834434228696</v>
+        <v>-0.1971505117558983</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2014866776259444</v>
+        <v>0.1983118739310271</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0662627591129427</v>
+        <v>0.07819282161786145</v>
       </c>
       <c r="G30" t="n">
-        <v>0.002436943449188946</v>
+        <v>0.01724444328948766</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01401588753358738</v>
+        <v>0.03524783631081607</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07004280045438924</v>
+        <v>0.002332933309363968</v>
       </c>
       <c r="J30" t="n">
-        <v>0.009574337257847728</v>
+        <v>0.0300967895833389</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03824662376449453</v>
+        <v>0.03926704738489104</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0001665144015029841</v>
+        <v>0.02340583516560816</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03087137995543552</v>
+        <v>0.01736265319720904</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01108549318842523</v>
+        <v>0.08977722842549332</v>
       </c>
       <c r="O30" t="n">
-        <v>0.08636610169120888</v>
+        <v>0.07052190421436663</v>
       </c>
       <c r="P30" t="n">
-        <v>0.08660278100666531</v>
+        <v>0.08702769524891873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.04516979280183405</v>
+        <v>0.06390996082343509</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0005361467205724236</v>
+        <v>0.06555989137539331</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0726376721358256</v>
+        <v>0.03445176228120068</v>
       </c>
       <c r="T30" t="n">
-        <v>0.002027155103352252</v>
+        <v>0.001415266343951849</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03264432815116507</v>
+        <v>0.05097395802253327</v>
       </c>
       <c r="V30" t="n">
-        <v>0.05010184001837873</v>
+        <v>0.00827428795708662</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05546428018565717</v>
+        <v>0.08555477213593787</v>
       </c>
       <c r="X30" t="n">
-        <v>0.08486456865614682</v>
+        <v>0.01293284845085982</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07244830743534829</v>
+        <v>0.01689228523051126</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.06577843308412616</v>
+        <v>0.09895142923953093</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.02190959905828577</v>
+        <v>0.001350602211427347</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.08074625483361927</v>
+        <v>0.06925574818077676</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.05272349169606273</v>
+        <v>0.0595841106792093</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2401736602682052</v>
+        <v>0.2529694451394082</v>
       </c>
       <c r="F31" t="n">
-        <v>0.009049599596159771</v>
+        <v>0.02084824778946602</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03862996694836083</v>
+        <v>0.05600827709336122</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01524601303748345</v>
+        <v>0.0430214106353849</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02537244468958238</v>
+        <v>0.01442560587704387</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1091300758569525</v>
+        <v>0.09934977716828311</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04625432661556077</v>
+        <v>0.06228265810613771</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0496061297376728</v>
+        <v>0.04093993053199451</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03060305063861531</v>
+        <v>0.006884276785022242</v>
       </c>
       <c r="N31" t="n">
-        <v>0.005533041360291716</v>
+        <v>0.03077785608849354</v>
       </c>
       <c r="O31" t="n">
-        <v>0.005957958425876037</v>
+        <v>0.000246330771345096</v>
       </c>
       <c r="P31" t="n">
-        <v>0.07155617881160184</v>
+        <v>0.02326672648991743</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.003613422825334958</v>
+        <v>0.01062307567722025</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01019133879000389</v>
+        <v>0.01587534825214221</v>
       </c>
       <c r="S31" t="n">
-        <v>0.09130381623045331</v>
+        <v>0.03850553213997012</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02893118183753985</v>
+        <v>0.01011010622768978</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01163693647770932</v>
+        <v>0.04925745310495402</v>
       </c>
       <c r="V31" t="n">
-        <v>0.05071790170022168</v>
+        <v>0.08281063222131657</v>
       </c>
       <c r="W31" t="n">
-        <v>0.09664136875933636</v>
+        <v>0.07101982319555122</v>
       </c>
       <c r="X31" t="n">
-        <v>0.04559724195123137</v>
+        <v>0.02171730831117368</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02042285605805006</v>
+        <v>0.03318608271823677</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.04250861564961705</v>
+        <v>0.08405542060032063</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.1033263300974631</v>
+        <v>0.08476280088305531</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0881702039048817</v>
+        <v>0.1000253193319196</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02393536751111986</v>
+        <v>0.02919475751384818</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1982346961189782</v>
+        <v>0.1967067754074104</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09167417866417579</v>
+        <v>0.06076338168506245</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01225754835085824</v>
+        <v>0.08104366468005732</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00465940695868283</v>
+        <v>0.01249567184845931</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02579836014347032</v>
+        <v>0.0766649281095486</v>
       </c>
       <c r="J32" t="n">
-        <v>0.003127058170058182</v>
+        <v>0.008817452891941245</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02105220271885585</v>
+        <v>0.001534678002583946</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04293027685654345</v>
+        <v>0.00497761082855409</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08839794855139604</v>
+        <v>0.01888168118324991</v>
       </c>
       <c r="N32" t="n">
-        <v>0.009324394029325713</v>
+        <v>0.00496598808635039</v>
       </c>
       <c r="O32" t="n">
-        <v>0.07157569103738988</v>
+        <v>0.05950345205529144</v>
       </c>
       <c r="P32" t="n">
-        <v>0.03383379288296103</v>
+        <v>0.03299163245154089</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01922532164233658</v>
+        <v>0.05073341591219064</v>
       </c>
       <c r="R32" t="n">
-        <v>0.07368755597856429</v>
+        <v>0.02021192506939376</v>
       </c>
       <c r="S32" t="n">
-        <v>0.07205074924186566</v>
+        <v>0.08867945930813922</v>
       </c>
       <c r="T32" t="n">
-        <v>0.007451681309943834</v>
+        <v>0.002628070694694707</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08109289716779193</v>
+        <v>0.08429980528918053</v>
       </c>
       <c r="V32" t="n">
-        <v>0.06572336798575304</v>
+        <v>0.01981603306043524</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07093748093878323</v>
+        <v>0.08890757209430349</v>
       </c>
       <c r="X32" t="n">
-        <v>0.03436126007358144</v>
+        <v>0.08152718940324295</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.04267974684160718</v>
+        <v>0.07439860953872773</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.09201271124363655</v>
+        <v>0.07988999975859443</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01556924410051186</v>
+        <v>0.02333139164780371</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.02057712511190694</v>
+        <v>0.02293638640065397</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1215314132242846</v>
+        <v>0.1019404045227539</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2197906092737711</v>
+        <v>0.2192328127869305</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0517863187113777</v>
+        <v>0.02548813495477657</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07002054794987984</v>
+        <v>0.05270664939982855</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02106501213885724</v>
+        <v>0.02895197772354265</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04404454325185723</v>
+        <v>0.04653405386831744</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01816110238646858</v>
+        <v>0.003211191687057355</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08470727841816343</v>
+        <v>0.08777143557338406</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01245007505284553</v>
+        <v>0.01854280457095118</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01776664193251912</v>
+        <v>0.01476725338640805</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01387418489759789</v>
+        <v>0.08073186023097227</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0789863966521626</v>
+        <v>0.07981144427143813</v>
       </c>
       <c r="P33" t="n">
-        <v>0.001642189832804234</v>
+        <v>0.06800222937378024</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01733959351055249</v>
+        <v>0.003743630815532315</v>
       </c>
       <c r="R33" t="n">
-        <v>0.02384004413280105</v>
+        <v>0.01169719840126425</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08976627161342848</v>
+        <v>0.04103989319599463</v>
       </c>
       <c r="T33" t="n">
-        <v>0.05014859637658637</v>
+        <v>0.0009313936120060163</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07505260822439713</v>
+        <v>0.08587156384583117</v>
       </c>
       <c r="V33" t="n">
-        <v>0.003506875770157991</v>
+        <v>0.005675229604763242</v>
       </c>
       <c r="W33" t="n">
-        <v>0.06477994377419988</v>
+        <v>0.07647571376709998</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01971684650782114</v>
+        <v>0.003326285618614412</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.03893449679150368</v>
+        <v>0.04989834273466351</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.03813988453465934</v>
+        <v>0.0918122963005182</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.07362014251674512</v>
+        <v>0.05886039778359387</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.09065040502261397</v>
+        <v>0.06414901927966218</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1322141649565844</v>
+        <v>0.1220068671131412</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2057527142680473</v>
+        <v>0.2019045864311294</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02353950845614301</v>
+        <v>0.04816466046332432</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001164435825164736</v>
+        <v>0.03106396374006088</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04074129254982935</v>
+        <v>0.01110881058810894</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07376198086631162</v>
+        <v>0.04442432810154121</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01511088404294532</v>
+        <v>0.05950945649081599</v>
       </c>
       <c r="K34" t="n">
-        <v>0.05244098684272609</v>
+        <v>0.007865992868217557</v>
       </c>
       <c r="L34" t="n">
-        <v>0.001651393077426552</v>
+        <v>0.03137680307585212</v>
       </c>
       <c r="M34" t="n">
-        <v>0.05989649206416491</v>
+        <v>0.06076146552599162</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01422270481753815</v>
+        <v>0.01621277785355939</v>
       </c>
       <c r="O34" t="n">
-        <v>0.07076461402883426</v>
+        <v>0.05390998790364795</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1052610305879018</v>
+        <v>0.09430263318400847</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02033034563355622</v>
+        <v>0.06703532738626251</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02493112066945072</v>
+        <v>0.1091793594178301</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1038697994648082</v>
+        <v>0.09802636044897901</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02180403357715293</v>
+        <v>0.008496151077090487</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0001353841887835109</v>
+        <v>0.02752640372424223</v>
       </c>
       <c r="V34" t="n">
-        <v>0.008184553752497326</v>
+        <v>0.01691004612523015</v>
       </c>
       <c r="W34" t="n">
-        <v>0.04841285548031033</v>
+        <v>0.08807002122150258</v>
       </c>
       <c r="X34" t="n">
-        <v>0.07505536187306859</v>
+        <v>0.03699693137698636</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0571363875153383</v>
+        <v>0.01315025683097038</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.07448635629595911</v>
+        <v>0.04539658481345634</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.07515427884240047</v>
+        <v>0.02728820446037721</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.03194419954768821</v>
+        <v>0.003223473321944124</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05053610911586332</v>
+        <v>0.03202622149736225</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2499743878885032</v>
+        <v>0.2449809106487154</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04245925350187045</v>
+        <v>0.09468036919743711</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02066965606833319</v>
+        <v>0.01366865635048327</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04146858657110603</v>
+        <v>0.07766461456906908</v>
       </c>
       <c r="I35" t="n">
-        <v>0.005347041926228096</v>
+        <v>0.06030867764012894</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09405047128896658</v>
+        <v>0.04258052027361158</v>
       </c>
       <c r="K35" t="n">
-        <v>0.08598598254618577</v>
+        <v>0.09200174037641387</v>
       </c>
       <c r="L35" t="n">
-        <v>0.005704226042764367</v>
+        <v>0.008853748307023217</v>
       </c>
       <c r="M35" t="n">
-        <v>0.00321434249688576</v>
+        <v>0.009752490088308051</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02388603595590207</v>
+        <v>0.003374522513196914</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03263540600401233</v>
+        <v>0.0034888545426853</v>
       </c>
       <c r="P35" t="n">
-        <v>0.04345859344885165</v>
+        <v>0.02551415367145</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01388416643358714</v>
+        <v>0.01923607412475661</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09854217702908763</v>
+        <v>0.07220639993289209</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1025735215271345</v>
+        <v>0.06046463678429687</v>
       </c>
       <c r="T35" t="n">
-        <v>0.001913993120023519</v>
+        <v>0.03927555668683014</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09567470815901205</v>
+        <v>0.1178257893307816</v>
       </c>
       <c r="V35" t="n">
-        <v>0.09796449739435609</v>
+        <v>0.06186848241899524</v>
       </c>
       <c r="W35" t="n">
-        <v>0.006845872037243398</v>
+        <v>0.06309695735782737</v>
       </c>
       <c r="X35" t="n">
-        <v>0.07345993495744166</v>
+        <v>0.09841456771125193</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.03639116666093298</v>
+        <v>0.01774168543053417</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01449492462475278</v>
+        <v>0.0002715159497033213</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.007831703954100051</v>
+        <v>0.001589631087055135</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.05154373825122186</v>
+        <v>0.01612035565526793</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.007594605357125859</v>
+        <v>0.01875051956423416</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2007060080134953</v>
+        <v>0.2060446967519287</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07302238997462607</v>
+        <v>0.04227241264039135</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007885013586317458</v>
+        <v>0.05906766758194824</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0713983923238497</v>
+        <v>0.06274272265417517</v>
       </c>
       <c r="I36" t="n">
-        <v>0.005794288221468743</v>
+        <v>0.004105002661182572</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01241152274400169</v>
+        <v>0.001310438345336565</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003884457600593971</v>
+        <v>0.02938234631372799</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02546951526560871</v>
+        <v>0.01036842478916429</v>
       </c>
       <c r="M36" t="n">
-        <v>0.03547406830181338</v>
+        <v>0.09080703822332671</v>
       </c>
       <c r="N36" t="n">
-        <v>0.00730712251005727</v>
+        <v>0.03483668062782627</v>
       </c>
       <c r="O36" t="n">
-        <v>0.02597248168201248</v>
+        <v>0.08415895363910576</v>
       </c>
       <c r="P36" t="n">
-        <v>0.05752486771670112</v>
+        <v>0.03917355056786644</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.0847640716150697</v>
+        <v>0.07977749904295693</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08636691920521401</v>
+        <v>0.09060341862271247</v>
       </c>
       <c r="S36" t="n">
-        <v>0.07267918743847081</v>
+        <v>0.09396404865363527</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0003928303304987283</v>
+        <v>0.003577491019039263</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04948483883143711</v>
+        <v>0.03124207466497381</v>
       </c>
       <c r="V36" t="n">
-        <v>0.05485051289106767</v>
+        <v>0.02860874268411286</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02454977090937007</v>
+        <v>0.02121158127344063</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08812325384318345</v>
+        <v>0.06330215705384123</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.06217301573365393</v>
+        <v>0.02847619008602057</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.04031297611169909</v>
+        <v>0.005326213737401784</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.09136783422789341</v>
+        <v>0.0784457026146748</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01879066893539139</v>
+        <v>0.01723964250313923</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.02552229117295405</v>
+        <v>0.03583629231362796</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2536728534751221</v>
+        <v>0.2352737120253012</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0776610692189378</v>
+        <v>0.02066674669628924</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04085758023738052</v>
+        <v>0.0002271830654591006</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01451273580922899</v>
+        <v>0.03571042720939954</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04027755475683033</v>
+        <v>0.01865072546826127</v>
       </c>
       <c r="J37" t="n">
-        <v>0.05869517396280206</v>
+        <v>0.02227127257925268</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1130427600875709</v>
+        <v>0.1015164666016678</v>
       </c>
       <c r="L37" t="n">
-        <v>0.03407561354354418</v>
+        <v>0.0141181793896661</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03212984928992629</v>
+        <v>0.001770852672289669</v>
       </c>
       <c r="N37" t="n">
-        <v>0.01029728580957615</v>
+        <v>0.001953119449134216</v>
       </c>
       <c r="O37" t="n">
-        <v>0.02490294932066899</v>
+        <v>0.05985893733512018</v>
       </c>
       <c r="P37" t="n">
-        <v>0.000297130735775545</v>
+        <v>0.006219518365345375</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.04789117983776821</v>
+        <v>0.02080317923575193</v>
       </c>
       <c r="R37" t="n">
-        <v>0.001183982114614464</v>
+        <v>0.05058429054583678</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08285642038985984</v>
+        <v>0.1061635699699317</v>
       </c>
       <c r="T37" t="n">
-        <v>0.09238191866087539</v>
+        <v>0.07618836788274662</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1014326858182926</v>
+        <v>0.02938964629694591</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0312223146017792</v>
+        <v>0.1164703591728726</v>
       </c>
       <c r="W37" t="n">
-        <v>0.06540218428126626</v>
+        <v>0.1093537742021918</v>
       </c>
       <c r="X37" t="n">
-        <v>0.003667330158384118</v>
+        <v>0.05824240376920325</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02024691869644288</v>
+        <v>0.01372858681577048</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.07547183736413013</v>
+        <v>0.08420419391701818</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.008193283678948369</v>
+        <v>0.009775029730262353</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02330024162539684</v>
+        <v>0.04213316962958299</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.07797331435594218</v>
+        <v>0.0796809695944509</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2119135245771961</v>
+        <v>0.2087359147706264</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07384594992391265</v>
+        <v>0.06135527428623283</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005399910066540767</v>
+        <v>0.01282893437236167</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03878603246680599</v>
+        <v>0.01422181273871151</v>
       </c>
       <c r="I38" t="n">
-        <v>0.008213805406402487</v>
+        <v>0.04825163085276361</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02425242721431823</v>
+        <v>0.06194181365593619</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02750315981516742</v>
+        <v>0.03854804495832533</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02999590537922458</v>
+        <v>0.02865438878407592</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05465521746027376</v>
+        <v>0.05020898209158842</v>
       </c>
       <c r="N38" t="n">
-        <v>0.06232399770410749</v>
+        <v>0.01248167940143777</v>
       </c>
       <c r="O38" t="n">
-        <v>0.004728761343283653</v>
+        <v>0.001071389350279141</v>
       </c>
       <c r="P38" t="n">
-        <v>0.07385628438310257</v>
+        <v>0.08928797671199011</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.1041312170127034</v>
+        <v>0.06009013934186747</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09421953196346174</v>
+        <v>0.1042179099633476</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08631557961396825</v>
+        <v>0.0847207039963284</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01314673562409325</v>
+        <v>0.01880559056604324</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08256688947817889</v>
+        <v>0.04511931094437328</v>
       </c>
       <c r="V38" t="n">
-        <v>0.05142276924033296</v>
+        <v>0.02734695573252755</v>
       </c>
       <c r="W38" t="n">
-        <v>0.008633917278953331</v>
+        <v>0.01542053799813334</v>
       </c>
       <c r="X38" t="n">
-        <v>0.02045538922825361</v>
+        <v>0.05460834394573656</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01615779367123049</v>
+        <v>0.03197687294206585</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.04369632727005466</v>
+        <v>0.04551241505741974</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.05462169993825129</v>
+        <v>0.08249057914478919</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.02107069851737843</v>
+        <v>0.01083871316366521</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.01961178260759253</v>
+        <v>0.01947192313576913</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2383911497963068</v>
+        <v>0.2426275393755239</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09777298328874826</v>
+        <v>0.1020877620076879</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03794902995606453</v>
+        <v>0.02084235005717125</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08888794253810835</v>
+        <v>0.003154103262851195</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06405135755226433</v>
+        <v>0.01848241705067244</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05681248333704159</v>
+        <v>0.0936399201983428</v>
       </c>
       <c r="K39" t="n">
-        <v>0.09390269393674383</v>
+        <v>0.08470381785022352</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1020654110863604</v>
+        <v>0.07524578760511542</v>
       </c>
       <c r="M39" t="n">
-        <v>0.01416419904810397</v>
+        <v>0.004554485619927084</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01174240987019697</v>
+        <v>0.01665384726429385</v>
       </c>
       <c r="O39" t="n">
-        <v>0.03209004638846667</v>
+        <v>0.003878376522073427</v>
       </c>
       <c r="P39" t="n">
-        <v>0.04008813602866189</v>
+        <v>0.06344605168524943</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0004313596963674102</v>
+        <v>0.003250026236865459</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0454877358800037</v>
+        <v>0.02540433220781236</v>
       </c>
       <c r="S39" t="n">
-        <v>0.06610896143076861</v>
+        <v>0.08611535721813948</v>
       </c>
       <c r="T39" t="n">
-        <v>0.008351598200804491</v>
+        <v>0.04183157640249561</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07556353677384113</v>
+        <v>0.08374303455693972</v>
       </c>
       <c r="V39" t="n">
-        <v>0.001793276132457215</v>
+        <v>0.0009739635768841079</v>
       </c>
       <c r="W39" t="n">
-        <v>0.05267574661607789</v>
+        <v>0.1000776252785274</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0417767195200943</v>
+        <v>0.02368590388581468</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.01831627501831853</v>
+        <v>0.0354044834279145</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.02554955926965699</v>
+        <v>0.06521102920961989</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.01502254104542465</v>
+        <v>0.02966816827839073</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.009395997385424293</v>
+        <v>0.01794558059698771</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.04054941337803891</v>
+        <v>0.04145177265878834</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2059063980395493</v>
+        <v>0.2036865783685637</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03668804199680617</v>
+        <v>0.05404961249407365</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01034281024926085</v>
+        <v>0.02386954297095572</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07562725642984733</v>
+        <v>0.007288427592884676</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0191571700611206</v>
+        <v>0.01735121148908539</v>
       </c>
       <c r="J40" t="n">
-        <v>0.02718422382508134</v>
+        <v>0.0003981107300421691</v>
       </c>
       <c r="K40" t="n">
-        <v>0.002250663777492837</v>
+        <v>0.00902517625743687</v>
       </c>
       <c r="L40" t="n">
-        <v>0.04677379888441565</v>
+        <v>0.02581282578284987</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05396283269986239</v>
+        <v>0.07552279649196061</v>
       </c>
       <c r="N40" t="n">
-        <v>0.008485465555437945</v>
+        <v>0.02231406587013828</v>
       </c>
       <c r="O40" t="n">
-        <v>0.004442451977295999</v>
+        <v>0.08331808072553588</v>
       </c>
       <c r="P40" t="n">
-        <v>0.05876312834849955</v>
+        <v>0.01902108310973255</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03552811970015757</v>
+        <v>0.07197265080124368</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07927217409017941</v>
+        <v>0.07917896144104183</v>
       </c>
       <c r="S40" t="n">
-        <v>0.09084201761302182</v>
+        <v>0.09539952499702604</v>
       </c>
       <c r="T40" t="n">
-        <v>0.001433229436246487</v>
+        <v>0.02768122793898101</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01755849012857521</v>
+        <v>0.03370692224039647</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06661035401738617</v>
+        <v>0.004688216186483335</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06980794666757327</v>
+        <v>0.08537570701760104</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1085494680744612</v>
+        <v>0.01275076391997338</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0731971996363959</v>
+        <v>0.04659982508098428</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.06943162227947078</v>
+        <v>0.0750320863515587</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.04070451450555827</v>
+        <v>0.07475204528576701</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.003387020045853062</v>
+        <v>0.05489113522424754</v>
       </c>
       <c r="AC40" t="n">
-        <v>-0.02668366977876445</v>
+        <v>0.001528791498733965</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2594780654462884</v>
+        <v>0.2613083359980815</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0832783744637822</v>
+        <v>0.02913489016594172</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003487770365392695</v>
+        <v>0.004865041253842056</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1003872498982827</v>
+        <v>0.007752829272101453</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07440595919359186</v>
+        <v>0.08492446697783848</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03815227778100125</v>
+        <v>0.07233899225991748</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03460241195077439</v>
+        <v>0.06188553122303486</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1006908823946619</v>
+        <v>0.08447867168450941</v>
       </c>
       <c r="M41" t="n">
-        <v>0.008351342138951261</v>
+        <v>0.01952201857672104</v>
       </c>
       <c r="N41" t="n">
-        <v>0.004503318372401604</v>
+        <v>0.004825341079089948</v>
       </c>
       <c r="O41" t="n">
-        <v>0.07117702974949479</v>
+        <v>0.07606513484006229</v>
       </c>
       <c r="P41" t="n">
-        <v>0.05458322939763463</v>
+        <v>0.04012224642810525</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01090610451511482</v>
+        <v>0.008146762045248579</v>
       </c>
       <c r="R41" t="n">
-        <v>6.49263660100959e-06</v>
+        <v>0.02154983804417757</v>
       </c>
       <c r="S41" t="n">
-        <v>0.03254777919653345</v>
+        <v>0.06893469713963511</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03405336826902403</v>
+        <v>0.07208331766146243</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0005629398761580771</v>
+        <v>0.08858564297260442</v>
       </c>
       <c r="V41" t="n">
-        <v>0.008064838114280399</v>
+        <v>0.008510333932284739</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1025215521437579</v>
+        <v>0.09333244802372206</v>
       </c>
       <c r="X41" t="n">
-        <v>0.04449533518272238</v>
+        <v>0.01643324989242883</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01198875732432765</v>
+        <v>0.01403435080862574</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.05822355616000733</v>
+        <v>0.04047498030986831</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.02566949410713036</v>
+        <v>0.07997619984474183</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.09733993676837327</v>
+        <v>0.002023015564036384</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.03976566771676057</v>
+        <v>0.04397859405781077</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1923296704621137</v>
+        <v>0.1833322861526108</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03977079861784209</v>
+        <v>0.06322961261800399</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0126571634700606</v>
+        <v>0.0103791369302163</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08936755163149135</v>
+        <v>0.06549262241584712</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03314729991263646</v>
+        <v>0.04477822470542434</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02038703690642852</v>
+        <v>0.02554192547613153</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03178710045042427</v>
+        <v>0.006733095066052405</v>
       </c>
       <c r="L42" t="n">
-        <v>0.017416559200121</v>
+        <v>0.02455533908492045</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0945708847048088</v>
+        <v>0.04113330936939209</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0004652969251051993</v>
+        <v>0.02150003510722808</v>
       </c>
       <c r="O42" t="n">
-        <v>0.002530480468982042</v>
+        <v>0.06591665382994458</v>
       </c>
       <c r="P42" t="n">
-        <v>0.06560379477315433</v>
+        <v>0.09416380226816866</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.03789070444013185</v>
+        <v>0.07045179493329669</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0779337574340332</v>
+        <v>0.08994876318750696</v>
       </c>
       <c r="S42" t="n">
-        <v>0.03696007279142466</v>
+        <v>0.07083394192029328</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01791188629362393</v>
+        <v>0.006353822671694046</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09499899073169107</v>
+        <v>0.008804332442348847</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01395875118313382</v>
+        <v>0.04341324536718379</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06858580918888779</v>
+        <v>0.07973041000236558</v>
       </c>
       <c r="X42" t="n">
-        <v>0.04994061056759831</v>
+        <v>0.0188009777771708</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.03892200064735992</v>
+        <v>0.0003669028952272336</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.08751904695691058</v>
+        <v>0.0765266713645482</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.06077290965202992</v>
+        <v>0.07129449705208842</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.006901493052120262</v>
+        <v>5.088351494653253e-05</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1417037447097018</v>
+        <v>0.1393982780589933</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2382700320439298</v>
+        <v>0.2325914311150186</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06066521899612207</v>
+        <v>0.01119288982759285</v>
       </c>
       <c r="G43" t="n">
-        <v>0.005664349105341453</v>
+        <v>0.007562039909575752</v>
       </c>
       <c r="H43" t="n">
-        <v>0.01284346281771841</v>
+        <v>0.03237278869232517</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06978020431161186</v>
+        <v>0.1042066637091948</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1075692868725905</v>
+        <v>0.02925433774742738</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03199236363457788</v>
+        <v>0.0745575581612655</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03904884702217644</v>
+        <v>0.1052118629191703</v>
       </c>
       <c r="M43" t="n">
-        <v>0.007641091849050796</v>
+        <v>0.02250943668251355</v>
       </c>
       <c r="N43" t="n">
-        <v>0.04674520485945657</v>
+        <v>0.007750719169069211</v>
       </c>
       <c r="O43" t="n">
-        <v>0.09524574287440608</v>
+        <v>0.1053510989705793</v>
       </c>
       <c r="P43" t="n">
-        <v>0.001340101601241231</v>
+        <v>0.03327255311118668</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01048827099494973</v>
+        <v>0.02137496024029436</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0002380723083581659</v>
+        <v>0.04350679568433241</v>
       </c>
       <c r="S43" t="n">
-        <v>0.03575614505544693</v>
+        <v>0.06037300150527796</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1090315664870806</v>
+        <v>0.03992268207897513</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1250336858696558</v>
+        <v>0.03808122062562372</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0004859944986388283</v>
+        <v>0.0003369815915030044</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002883742868992477</v>
+        <v>0.0141589215405542</v>
       </c>
       <c r="X43" t="n">
-        <v>0.09585986690029567</v>
+        <v>0.07448630493331186</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.01756776915905467</v>
+        <v>0.00585071166433545</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.09478019026209089</v>
+        <v>0.08322646613851968</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.002910984776549828</v>
+        <v>0.01557312447916855</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02642783687459338</v>
+        <v>0.06986688061820323</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.1332923099599416</v>
+        <v>0.155103938355132</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1519936958503367</v>
+        <v>0.151616611355456</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07859541129577553</v>
+        <v>0.02011184423932017</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01361995700087002</v>
+        <v>0.008717617498781013</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01395653081397713</v>
+        <v>0.09141451359748443</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03388480345648927</v>
+        <v>0.01360945312404259</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02512362201848356</v>
+        <v>0.04022151974558907</v>
       </c>
       <c r="K44" t="n">
-        <v>0.001745930836643408</v>
+        <v>0.01714493508631862</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02247845408900277</v>
+        <v>0.0002505984070831035</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04442725424985404</v>
+        <v>0.06607631671655215</v>
       </c>
       <c r="N44" t="n">
-        <v>0.03636052773050091</v>
+        <v>0.03251558010959584</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05092148817425061</v>
+        <v>0.06153263392222728</v>
       </c>
       <c r="P44" t="n">
-        <v>0.05687689105916659</v>
+        <v>0.05257705429617583</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.07708459962594652</v>
+        <v>0.08630295431403469</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07158059586964573</v>
+        <v>0.08356385071988964</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06786320159058799</v>
+        <v>0.06092527203964736</v>
       </c>
       <c r="T44" t="n">
-        <v>0.05513133588089931</v>
+        <v>0.006205809122002037</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0848221955004313</v>
+        <v>0.07972800797185584</v>
       </c>
       <c r="V44" t="n">
-        <v>0.00117955327760979</v>
+        <v>0.04673687037465936</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07118704161532841</v>
+        <v>0.07413296778139065</v>
       </c>
       <c r="X44" t="n">
-        <v>0.01928600998547307</v>
+        <v>0.002836349696080826</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.06152084802533155</v>
+        <v>0.04781705847542548</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.04237741952991578</v>
+        <v>0.05837378941037732</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.05303903748795519</v>
+        <v>0.04569567862520924</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0169372908858616</v>
+        <v>0.003509324726257641</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.01280079403787955</v>
+        <v>-0.001080474771814749</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1800368997027736</v>
+        <v>0.1739025188074419</v>
       </c>
       <c r="F45" t="n">
-        <v>0.03964336378420568</v>
+        <v>0.01974104776042775</v>
       </c>
       <c r="G45" t="n">
-        <v>0.009179219509275305</v>
+        <v>0.04626795426065794</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02749837706318263</v>
+        <v>0.0442295150902312</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05298494854688744</v>
+        <v>0.02091190384851223</v>
       </c>
       <c r="J45" t="n">
-        <v>0.07948880746043246</v>
+        <v>0.03416885854256657</v>
       </c>
       <c r="K45" t="n">
-        <v>0.07496202708866033</v>
+        <v>0.04335623924071896</v>
       </c>
       <c r="L45" t="n">
-        <v>0.08770163919675907</v>
+        <v>0.09727957511326962</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04635375120957307</v>
+        <v>0.02539171025252531</v>
       </c>
       <c r="N45" t="n">
-        <v>0.00984802148507145</v>
+        <v>0.02010467619021675</v>
       </c>
       <c r="O45" t="n">
-        <v>0.09412255987939</v>
+        <v>0.05713112564450752</v>
       </c>
       <c r="P45" t="n">
-        <v>0.07922605166354912</v>
+        <v>0.09396294848063637</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.06891012860479798</v>
+        <v>0.00485527232481885</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03476205375377313</v>
+        <v>0.007715502406415809</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0601493513346793</v>
+        <v>0.09409097228481225</v>
       </c>
       <c r="T45" t="n">
-        <v>0.04965792222090126</v>
+        <v>0.07994370473043225</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05083426428256514</v>
+        <v>0.04758102758576281</v>
       </c>
       <c r="V45" t="n">
-        <v>0.01446398402593413</v>
+        <v>0.06395444244332904</v>
       </c>
       <c r="W45" t="n">
-        <v>0.005732985051695863</v>
+        <v>0.02961778667559851</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01209360707161465</v>
+        <v>0.01312995313534655</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.002795840376936994</v>
+        <v>0.01934856949977434</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.01099541811303971</v>
+        <v>0.04731324983703893</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.06492302358513606</v>
+        <v>0.08768351437086104</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.02367265469193918</v>
+        <v>0.002220450281539221</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.01575214715668236</v>
+        <v>0.01716171329284391</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1455026915922937</v>
+        <v>0.1409672569271837</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02308610055134691</v>
+        <v>0.03152509376413184</v>
       </c>
       <c r="G46" t="n">
-        <v>0.003779188286845328</v>
+        <v>0.02037809930900325</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06364142687527581</v>
+        <v>0.04116424624540357</v>
       </c>
       <c r="I46" t="n">
-        <v>0.02211547196487828</v>
+        <v>0.01098564054205344</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001948311203894637</v>
+        <v>0.0022363942655932</v>
       </c>
       <c r="K46" t="n">
-        <v>0.003455414389990816</v>
+        <v>0.009528264697473322</v>
       </c>
       <c r="L46" t="n">
-        <v>0.004717630818750415</v>
+        <v>0.0098741670442061</v>
       </c>
       <c r="M46" t="n">
-        <v>0.09937043588483711</v>
+        <v>0.08708843029015853</v>
       </c>
       <c r="N46" t="n">
-        <v>0.04314857623093662</v>
+        <v>0.01237595796711422</v>
       </c>
       <c r="O46" t="n">
-        <v>0.008942698669550083</v>
+        <v>0.0720010770985304</v>
       </c>
       <c r="P46" t="n">
-        <v>0.06040246851452775</v>
+        <v>0.06399930280712354</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01067540389395369</v>
+        <v>0.04479156602515413</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09703724213254748</v>
+        <v>0.0873850581984682</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08542102445951963</v>
+        <v>0.08206957945474265</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0417730534398984</v>
+        <v>0.03137509143489469</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07565994014146897</v>
+        <v>0.0613176636972329</v>
       </c>
       <c r="V46" t="n">
-        <v>0.03852370664319767</v>
+        <v>0.003282621561045621</v>
       </c>
       <c r="W46" t="n">
-        <v>0.05665769331468934</v>
+        <v>0.001610504100258179</v>
       </c>
       <c r="X46" t="n">
-        <v>0.02264403840862727</v>
+        <v>0.0315812075632394</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.06475156542838822</v>
+        <v>0.09424795149083554</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.05939321401056579</v>
+        <v>0.1013385762369453</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.04291649823878987</v>
+        <v>0.06842281519001468</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.06993889649751975</v>
+        <v>0.03142069101637734</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.0005890248491784572</v>
+        <v>-4.895700407074686e-05</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1981790597769242</v>
+        <v>0.175476733511765</v>
       </c>
       <c r="F47" t="n">
-        <v>0.004103443381233442</v>
+        <v>0.02467209697953948</v>
       </c>
       <c r="G47" t="n">
-        <v>0.08086169205805598</v>
+        <v>0.07201264157865882</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04099263030663974</v>
+        <v>0.01400704958085261</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01741151048633552</v>
+        <v>0.07311648694029059</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04743038441247072</v>
+        <v>0.03535544647810927</v>
       </c>
       <c r="K47" t="n">
-        <v>0.09076426304071383</v>
+        <v>0.03222260082431328</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1201451412598901</v>
+        <v>0.08867987768219812</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08664212066868085</v>
+        <v>0.08903433755851968</v>
       </c>
       <c r="N47" t="n">
-        <v>0.01385436493394271</v>
+        <v>0.02223158814278554</v>
       </c>
       <c r="O47" t="n">
-        <v>0.1281114426408425</v>
+        <v>0.06251399872530633</v>
       </c>
       <c r="P47" t="n">
-        <v>0.08873754520948383</v>
+        <v>0.0712786706307707</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03452744837469775</v>
+        <v>0.005208160814690387</v>
       </c>
       <c r="R47" t="n">
-        <v>0.03320270867550691</v>
+        <v>0.002457918481653992</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04408569312214421</v>
+        <v>0.07653699983868317</v>
       </c>
       <c r="T47" t="n">
-        <v>0.04692111677821768</v>
+        <v>0.04055608089155746</v>
       </c>
       <c r="U47" t="n">
-        <v>0.04397382114462755</v>
+        <v>0.05443043826420507</v>
       </c>
       <c r="V47" t="n">
-        <v>0.02543928697831211</v>
+        <v>0.03110831897548701</v>
       </c>
       <c r="W47" t="n">
-        <v>0.005626269873665175</v>
+        <v>0.08279414519224891</v>
       </c>
       <c r="X47" t="n">
-        <v>0.008418727997686263</v>
+        <v>0.04951059195895088</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.02298161586076365</v>
+        <v>0.03762915909460754</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.003502321821997999</v>
+        <v>0.002738105800073594</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0069456115888518</v>
+        <v>0.0239462310201466</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.005320839385239652</v>
+        <v>0.007959054546351025</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.01915475551027062</v>
+        <v>-0.007454725501208303</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1249604686098086</v>
+        <v>0.127824218684534</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05696695956633738</v>
+        <v>0.0280301324951801</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04732846075966872</v>
+        <v>0.07565280045451392</v>
       </c>
       <c r="H48" t="n">
-        <v>0.001725218038455458</v>
+        <v>0.0005448422234265464</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0002825422586326108</v>
+        <v>0.02018692187092979</v>
       </c>
       <c r="J48" t="n">
-        <v>0.000830454066885632</v>
+        <v>0.01264430120713731</v>
       </c>
       <c r="K48" t="n">
-        <v>0.003920691473293254</v>
+        <v>0.005620164569405128</v>
       </c>
       <c r="L48" t="n">
-        <v>0.03966216413838482</v>
+        <v>0.07873221522893947</v>
       </c>
       <c r="M48" t="n">
-        <v>0.09292360866697097</v>
+        <v>0.0383410234001796</v>
       </c>
       <c r="N48" t="n">
-        <v>0.003988170452922117</v>
+        <v>0.009255405102949033</v>
       </c>
       <c r="O48" t="n">
-        <v>0.003818354217141977</v>
+        <v>0.003057004568368512</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08600733303984151</v>
+        <v>0.04487509681393371</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.0520424886647659</v>
+        <v>0.08996346311650782</v>
       </c>
       <c r="R48" t="n">
-        <v>0.08670649713252371</v>
+        <v>0.08449759647699749</v>
       </c>
       <c r="S48" t="n">
-        <v>0.06168743348193065</v>
+        <v>0.05865308712353414</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01946678726375117</v>
+        <v>0.01668413084584295</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07408368063868236</v>
+        <v>0.08091810646822624</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0137977973233457</v>
+        <v>0.0199528185190946</v>
       </c>
       <c r="W48" t="n">
-        <v>0.08697430430955935</v>
+        <v>0.06621119160833647</v>
       </c>
       <c r="X48" t="n">
-        <v>0.03464275800013785</v>
+        <v>0.0876882523126198</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.07723009880798586</v>
+        <v>0.0444610022746656</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.02592490867602951</v>
+        <v>0.07683473966947453</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.05326257985719692</v>
+        <v>0.04890727235480528</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.07672670916555643</v>
+        <v>0.008288431294932072</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06793262089196281</v>
+        <v>0.06560275335127853</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1650219417791771</v>
+        <v>0.1586906658794719</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01713238979679644</v>
+        <v>0.002163014607644018</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02697855884837841</v>
+        <v>0.07262737636594717</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02135386432974146</v>
+        <v>0.02129687620470927</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01094421717949583</v>
+        <v>0.06913292786394405</v>
       </c>
       <c r="J49" t="n">
-        <v>0.002881993730616753</v>
+        <v>0.02138689782945195</v>
       </c>
       <c r="K49" t="n">
-        <v>0.07798767391801027</v>
+        <v>0.04345164422710687</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1097793444441686</v>
+        <v>0.07550372186750197</v>
       </c>
       <c r="M49" t="n">
-        <v>0.06858444738608144</v>
+        <v>0.0851228620414697</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01218589167225666</v>
+        <v>0.001284349762864483</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02153212130482397</v>
+        <v>0.08875007887010321</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1265156728469691</v>
+        <v>0.06631536477506313</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01611034340198144</v>
+        <v>0.01341781330878012</v>
       </c>
       <c r="R49" t="n">
-        <v>0.004169210191980115</v>
+        <v>0.01776065145631333</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1086448739570546</v>
+        <v>0.07516959015636737</v>
       </c>
       <c r="T49" t="n">
-        <v>0.04437262298307871</v>
+        <v>0.03410384162350415</v>
       </c>
       <c r="U49" t="n">
-        <v>0.006013614765117047</v>
+        <v>0.04197330630481092</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07620112428201936</v>
+        <v>0.02439323867352354</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03398358816058562</v>
+        <v>0.05722525711333109</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04146341144084352</v>
+        <v>0.01988746694179698</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.01540486542973776</v>
+        <v>0.02245500433881611</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.1102618062137816</v>
+        <v>0.02997635232106301</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01568455992971911</v>
+        <v>0.07523081121438306</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.03181380378676214</v>
+        <v>0.04137155213150434</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.06813730013979931</v>
+        <v>0.07225207098022501</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1385332456852813</v>
+        <v>0.1385229462022051</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07025417917680594</v>
+        <v>0.05410790441989226</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04905796026725293</v>
+        <v>0.07648799229846064</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03740937616325685</v>
+        <v>0.03262269175198403</v>
       </c>
       <c r="I50" t="n">
-        <v>0.003060403805000633</v>
+        <v>0.002858649315069294</v>
       </c>
       <c r="J50" t="n">
-        <v>0.001316521791312121</v>
+        <v>0.05092417935822029</v>
       </c>
       <c r="K50" t="n">
-        <v>0.02306638998961818</v>
+        <v>0.01446793077250182</v>
       </c>
       <c r="L50" t="n">
-        <v>0.04341837361307941</v>
+        <v>0.01521856828057879</v>
       </c>
       <c r="M50" t="n">
-        <v>0.08032828258458982</v>
+        <v>0.06680359376663823</v>
       </c>
       <c r="N50" t="n">
-        <v>0.007049925046429551</v>
+        <v>0.02955164712394146</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0233995113720083</v>
+        <v>0.0407879109670567</v>
       </c>
       <c r="P50" t="n">
-        <v>0.05115437849983823</v>
+        <v>0.0708641464223608</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.05907544462830779</v>
+        <v>0.0664642294738995</v>
       </c>
       <c r="R50" t="n">
-        <v>0.04127929408722112</v>
+        <v>0.04736294701995536</v>
       </c>
       <c r="S50" t="n">
-        <v>0.06800531153638407</v>
+        <v>0.07585966698282108</v>
       </c>
       <c r="T50" t="n">
-        <v>0.08130263030429677</v>
+        <v>0.04777203947960222</v>
       </c>
       <c r="U50" t="n">
-        <v>0.08162507651875213</v>
+        <v>0.07496250249956746</v>
       </c>
       <c r="V50" t="n">
-        <v>0.003700656983514961</v>
+        <v>0.007836818437876545</v>
       </c>
       <c r="W50" t="n">
-        <v>0.02355697339075149</v>
+        <v>0.02511041299714352</v>
       </c>
       <c r="X50" t="n">
-        <v>0.01978987997673665</v>
+        <v>0.03778077551658093</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.04191205699899135</v>
+        <v>0.03631419577475143</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.06908325362788659</v>
+        <v>0.06168460910191613</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.08449631197821969</v>
+        <v>0.06326351508746868</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.03665780765974538</v>
+        <v>0.0008930731517129037</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1558878492707324</v>
+        <v>0.1491166654601824</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1436712353736292</v>
+        <v>0.150083680708969</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04237888211135072</v>
+        <v>0.00612115147393762</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05433647657289239</v>
+        <v>0.06315052729475967</v>
       </c>
       <c r="H51" t="n">
-        <v>0.05434500445706603</v>
+        <v>0.007614444008458197</v>
       </c>
       <c r="I51" t="n">
-        <v>0.006520388112098148</v>
+        <v>0.02174946794154418</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0323997271729598</v>
+        <v>0.08957317452227602</v>
       </c>
       <c r="K51" t="n">
-        <v>0.007554277913339107</v>
+        <v>0.08951243928989623</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1169304770283068</v>
+        <v>0.06765914363141624</v>
       </c>
       <c r="M51" t="n">
-        <v>0.002142009403291901</v>
+        <v>0.04954658545234306</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0276553553326332</v>
+        <v>0.01880289136826494</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02082472942288464</v>
+        <v>0.06254966185907739</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01854210167899114</v>
+        <v>0.01719740271016321</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01257801836654394</v>
+        <v>0.07489787488063904</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1211442670106528</v>
+        <v>0.04914686811562177</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09870020059754346</v>
+        <v>0.09238088631603757</v>
       </c>
       <c r="T51" t="n">
-        <v>0.05271512154486399</v>
+        <v>0.04190356974675747</v>
       </c>
       <c r="U51" t="n">
-        <v>0.04505085604184104</v>
+        <v>0.05140620391920604</v>
       </c>
       <c r="V51" t="n">
-        <v>0.07628532473106121</v>
+        <v>0.02886129192932087</v>
       </c>
       <c r="W51" t="n">
-        <v>0.04616421179861658</v>
+        <v>0.0809928193143768</v>
       </c>
       <c r="X51" t="n">
-        <v>0.03716726286986682</v>
+        <v>0.01226684999818736</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.09112088256059921</v>
+        <v>0.04050269996202282</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0202210194053495</v>
+        <v>0.0130481693461307</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0125793283408689</v>
+        <v>0.02021441479694633</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.002644077526378449</v>
+        <v>0.0009014621226163935</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1573267911426965</v>
+        <v>0.1543562298775933</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.150661904324989</v>
+        <v>0.1513952638954733</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08589704221019175</v>
+        <v>0.08620429307669708</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05188022259579464</v>
+        <v>0.06711958745047032</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01560013399656913</v>
+        <v>0.00153837984594518</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05806819642555111</v>
+        <v>0.004571862044044872</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0127222971620852</v>
+        <v>0.05113761036077985</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02415513598002997</v>
+        <v>0.04006151276838644</v>
       </c>
       <c r="L52" t="n">
-        <v>0.004032641986466155</v>
+        <v>0.04019677363528727</v>
       </c>
       <c r="M52" t="n">
-        <v>0.07684539105335604</v>
+        <v>0.06532290390032322</v>
       </c>
       <c r="N52" t="n">
-        <v>0.02719026760199615</v>
+        <v>0.03553193163607671</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0202433951291096</v>
+        <v>0.07162145015024697</v>
       </c>
       <c r="P52" t="n">
-        <v>0.02127919352971945</v>
+        <v>0.02367621411349711</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.06718718545989529</v>
+        <v>0.08082024177923412</v>
       </c>
       <c r="R52" t="n">
-        <v>0.09515854159998619</v>
+        <v>0.07584939186764517</v>
       </c>
       <c r="S52" t="n">
-        <v>0.07566888407717123</v>
+        <v>0.07807009880410995</v>
       </c>
       <c r="T52" t="n">
-        <v>0.01330003532933393</v>
+        <v>0.04498900067573061</v>
       </c>
       <c r="U52" t="n">
-        <v>0.02959967306395447</v>
+        <v>0.07940797965732521</v>
       </c>
       <c r="V52" t="n">
-        <v>0.008085394851953974</v>
+        <v>0.0153007893896789</v>
       </c>
       <c r="W52" t="n">
-        <v>0.006291235112850958</v>
+        <v>0.009981455442503673</v>
       </c>
       <c r="X52" t="n">
-        <v>0.05100913772709344</v>
+        <v>0.01893029510101888</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.06577099445869583</v>
+        <v>0.02862568350189084</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.04932431075362691</v>
+        <v>0.0113867616156974</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.07365390405803861</v>
+        <v>0.04994461077127172</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.06703678583652997</v>
+        <v>0.01971117241213862</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1588711166105074</v>
+        <v>-0.1509688960628118</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1693808839109572</v>
+        <v>0.1693393841152943</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001973207773133843</v>
+        <v>0.005470414243363884</v>
       </c>
       <c r="G53" t="n">
-        <v>0.002936191236389932</v>
+        <v>0.004557610573257501</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01511283351975484</v>
+        <v>0.05485705863636776</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09621574848834105</v>
+        <v>0.06656724991948422</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01176876393919523</v>
+        <v>0.02110862898737696</v>
       </c>
       <c r="K53" t="n">
-        <v>0.07955341866111004</v>
+        <v>0.02446441445265216</v>
       </c>
       <c r="L53" t="n">
-        <v>0.07583780303884745</v>
+        <v>0.05962768206090487</v>
       </c>
       <c r="M53" t="n">
-        <v>0.05469295082444951</v>
+        <v>0.09140439027278005</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0252362055342806</v>
+        <v>0.00393111914680605</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0254427270120723</v>
+        <v>0.06809230239952652</v>
       </c>
       <c r="P53" t="n">
-        <v>0.03914800134468439</v>
+        <v>0.04998270341690147</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02600131977877335</v>
+        <v>0.01573536651505886</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08578971286796408</v>
+        <v>0.08174170854368953</v>
       </c>
       <c r="S53" t="n">
-        <v>0.08688562948314721</v>
+        <v>0.02758060214740584</v>
       </c>
       <c r="T53" t="n">
-        <v>0.09708810956897834</v>
+        <v>0.04570188305100426</v>
       </c>
       <c r="U53" t="n">
-        <v>0.01787502987128187</v>
+        <v>0.08421322133369748</v>
       </c>
       <c r="V53" t="n">
-        <v>0.07529693453553733</v>
+        <v>0.08035789703677428</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01083874075916709</v>
+        <v>0.0414193599128703</v>
       </c>
       <c r="X53" t="n">
-        <v>0.06284844100640621</v>
+        <v>0.06475477480424359</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.03253433497356215</v>
+        <v>0.016748701031213</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.005252557871562426</v>
+        <v>0.00800992269704558</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.03559316585287846</v>
+        <v>0.03221536575892871</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.03607817205848245</v>
+        <v>0.0514576230586473</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1313942657383795</v>
+        <v>-0.1483788605184203</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1683701336512519</v>
+        <v>0.1725241709439152</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08712660420132719</v>
+        <v>0.08628456101124779</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02957233814689897</v>
+        <v>0.09744107649280567</v>
       </c>
       <c r="H54" t="n">
-        <v>0.06933075580338649</v>
+        <v>0.01951859289814591</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01246553407055477</v>
+        <v>0.03761410798062581</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01516849725911709</v>
+        <v>0.0149202826200532</v>
       </c>
       <c r="K54" t="n">
-        <v>0.05727948229720636</v>
+        <v>0.05535851205549303</v>
       </c>
       <c r="L54" t="n">
-        <v>0.008330825233525019</v>
+        <v>0.005203233933583394</v>
       </c>
       <c r="M54" t="n">
-        <v>0.04892539813311678</v>
+        <v>0.01147908420861081</v>
       </c>
       <c r="N54" t="n">
-        <v>0.08522389106172261</v>
+        <v>0.06793846696499831</v>
       </c>
       <c r="O54" t="n">
-        <v>0.07391173746924473</v>
+        <v>0.02471628477652155</v>
       </c>
       <c r="P54" t="n">
-        <v>0.01618304911052757</v>
+        <v>0.0145170709503157</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02545531680039725</v>
+        <v>0.02998496955372357</v>
       </c>
       <c r="R54" t="n">
-        <v>0.01626115533253536</v>
+        <v>0.04770056413241816</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08761057098021996</v>
+        <v>0.0937584607560184</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0115219800677734</v>
+        <v>0.002967513540238505</v>
       </c>
       <c r="U54" t="n">
-        <v>0.0828056642830021</v>
+        <v>0.06214967252716334</v>
       </c>
       <c r="V54" t="n">
-        <v>0.012409530677217</v>
+        <v>0.001847039266294422</v>
       </c>
       <c r="W54" t="n">
-        <v>0.01857452589673069</v>
+        <v>0.03925837478988634</v>
       </c>
       <c r="X54" t="n">
-        <v>0.06933583640260955</v>
+        <v>0.04167928123832193</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.006195572097582728</v>
+        <v>0.03242077366400525</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.06396997938899548</v>
+        <v>0.06834610632313862</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.08328321834526368</v>
+        <v>0.04653278362342061</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01905853694104518</v>
+        <v>0.09836318669296987</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.09128977412737938</v>
+        <v>0.07250486921533379</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1926177571912345</v>
+        <v>0.1994180069142301</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0393847964424</v>
+        <v>0.07454133471794153</v>
       </c>
       <c r="G55" t="n">
-        <v>0.006314235141163914</v>
+        <v>0.0474092922332151</v>
       </c>
       <c r="H55" t="n">
-        <v>0.04364675666455395</v>
+        <v>0.03133190819392803</v>
       </c>
       <c r="I55" t="n">
-        <v>0.08862090504622126</v>
+        <v>0.0836768555865646</v>
       </c>
       <c r="J55" t="n">
-        <v>0.08478127393541814</v>
+        <v>0.04891080910240806</v>
       </c>
       <c r="K55" t="n">
-        <v>0.06597860909201525</v>
+        <v>0.07745286486011363</v>
       </c>
       <c r="L55" t="n">
-        <v>0.007461171936212155</v>
+        <v>0.01416822915642858</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0824505769515778</v>
+        <v>0.01967818936264612</v>
       </c>
       <c r="N55" t="n">
-        <v>6.243628899956997e-05</v>
+        <v>0.02689716947493727</v>
       </c>
       <c r="O55" t="n">
-        <v>0.04295020634665761</v>
+        <v>0.04024900883850407</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02358067270222608</v>
+        <v>0.01037691694544685</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.0187065872677033</v>
+        <v>0.005705461627699498</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0355053428705107</v>
+        <v>0.08085722904061704</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1028839191878791</v>
+        <v>0.07659644591811147</v>
       </c>
       <c r="T55" t="n">
-        <v>0.08695271626547917</v>
+        <v>0.06260224735498082</v>
       </c>
       <c r="U55" t="n">
-        <v>0.08390676488289744</v>
+        <v>0.07066203701125971</v>
       </c>
       <c r="V55" t="n">
-        <v>0.03168171699545075</v>
+        <v>0.04804200180788933</v>
       </c>
       <c r="W55" t="n">
-        <v>0.02988918700345616</v>
+        <v>0.07485946306309949</v>
       </c>
       <c r="X55" t="n">
-        <v>0.04914016022332929</v>
+        <v>0.08415576112294013</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.001300921116023927</v>
+        <v>0.0005937194528867217</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.002698748522496747</v>
+        <v>0.001047743926580536</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.05614120391313544</v>
+        <v>0.01177428954601983</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.01596109120419215</v>
+        <v>0.008411021655781581</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1045214707103489</v>
+        <v>0.1247223725649556</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1815063168396955</v>
+        <v>0.18201487839506</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05815369692013211</v>
+        <v>0.02080763898408539</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07461825857855844</v>
+        <v>0.07958267944156645</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02635719345120073</v>
+        <v>0.04807651769153539</v>
       </c>
       <c r="I56" t="n">
-        <v>0.002007759774651999</v>
+        <v>0.03282440124284882</v>
       </c>
       <c r="J56" t="n">
-        <v>0.009933948822355196</v>
+        <v>0.01530894633526666</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01231904029579954</v>
+        <v>0.0213536242150988</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01341175951443726</v>
+        <v>0.005244178136023326</v>
       </c>
       <c r="M56" t="n">
-        <v>0.08089404420381671</v>
+        <v>0.07922319115207256</v>
       </c>
       <c r="N56" t="n">
-        <v>0.006774896482565401</v>
+        <v>0.05378325807567295</v>
       </c>
       <c r="O56" t="n">
-        <v>0.08207878611325792</v>
+        <v>0.07808078243988051</v>
       </c>
       <c r="P56" t="n">
-        <v>0.006214313064919571</v>
+        <v>0.04584446886648805</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.00620366358990927</v>
+        <v>0.0242570238560984</v>
       </c>
       <c r="R56" t="n">
-        <v>0.03838132051584999</v>
+        <v>0.01072537282185349</v>
       </c>
       <c r="S56" t="n">
-        <v>0.01474144244676866</v>
+        <v>0.02111219055872182</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1020717954112974</v>
+        <v>0.03271327992834829</v>
       </c>
       <c r="U56" t="n">
-        <v>0.04541870381781619</v>
+        <v>0.05520048962044553</v>
       </c>
       <c r="V56" t="n">
-        <v>0.04775517173955147</v>
+        <v>0.03513986297772097</v>
       </c>
       <c r="W56" t="n">
-        <v>0.06150419210234641</v>
+        <v>0.08060987095671206</v>
       </c>
       <c r="X56" t="n">
-        <v>0.08396049157135918</v>
+        <v>0.07581600839573492</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.005007116636397563</v>
+        <v>0.04074579883062598</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07570662493756758</v>
+        <v>0.06623066858260712</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.09074426538656734</v>
+        <v>0.05325147339875717</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.05574151462287394</v>
+        <v>0.02406827349183515</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.003821646258753155</v>
+        <v>-0.02662127725650913</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.1944962265485196</v>
+        <v>0.2048327562800995</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02119869563133958</v>
+        <v>0.08838306371538085</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01163520354033213</v>
+        <v>0.002508583138352578</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04594256252938469</v>
+        <v>0.02962465250883542</v>
       </c>
       <c r="I57" t="n">
-        <v>0.003917900301168698</v>
+        <v>0.0801618796061032</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01245890430225257</v>
+        <v>0.0427312811461994</v>
       </c>
       <c r="K57" t="n">
-        <v>0.09084827017320619</v>
+        <v>0.09752701718152376</v>
       </c>
       <c r="L57" t="n">
-        <v>0.005331770768323057</v>
+        <v>0.006171914933355196</v>
       </c>
       <c r="M57" t="n">
-        <v>0.05382151016593462</v>
+        <v>0.09212745769295502</v>
       </c>
       <c r="N57" t="n">
-        <v>0.02466844240194291</v>
+        <v>0.01451442688593524</v>
       </c>
       <c r="O57" t="n">
-        <v>0.07319190762019759</v>
+        <v>0.003981361042883299</v>
       </c>
       <c r="P57" t="n">
-        <v>0.06407811780202065</v>
+        <v>0.09279230447160965</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.005266829879535414</v>
+        <v>0.02430772953732359</v>
       </c>
       <c r="R57" t="n">
-        <v>0.09212856455160781</v>
+        <v>0.05413313025122558</v>
       </c>
       <c r="S57" t="n">
-        <v>0.09215219594743035</v>
+        <v>0.06267493840172084</v>
       </c>
       <c r="T57" t="n">
-        <v>0.07086833605897244</v>
+        <v>0.0313077757228397</v>
       </c>
       <c r="U57" t="n">
-        <v>0.08236430048912684</v>
+        <v>0.03941851508883444</v>
       </c>
       <c r="V57" t="n">
-        <v>0.04044953182364328</v>
+        <v>0.09857762915004943</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0883244531212585</v>
+        <v>0.01237832127652614</v>
       </c>
       <c r="X57" t="n">
-        <v>0.01324160310502746</v>
+        <v>0.001002911061975395</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.005814076693733376</v>
+        <v>0.01932294924109591</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.08040670409295808</v>
+        <v>0.07714526311519471</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.01689605710181643</v>
+        <v>0.00351094720203731</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.004994061898787357</v>
+        <v>0.02569594762804349</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.02012184789147809</v>
+        <v>-0.01757826866368061</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1900416100787166</v>
+        <v>0.1857800302122416</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09437375204074573</v>
+        <v>0.06027255493004617</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07551678972976447</v>
+        <v>0.08858026491886904</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01216105398022155</v>
+        <v>0.003649903106684323</v>
       </c>
       <c r="I58" t="n">
-        <v>0.006529431041294502</v>
+        <v>0.01944631374687132</v>
       </c>
       <c r="J58" t="n">
-        <v>0.05912695827033834</v>
+        <v>0.0006497162105423351</v>
       </c>
       <c r="K58" t="n">
-        <v>0.001387016011996212</v>
+        <v>0.03799564109075258</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0202466202785779</v>
+        <v>0.01884209884456434</v>
       </c>
       <c r="M58" t="n">
-        <v>0.03099506635968392</v>
+        <v>0.04987786088601401</v>
       </c>
       <c r="N58" t="n">
-        <v>0.008546816412944844</v>
+        <v>0.01508468991976842</v>
       </c>
       <c r="O58" t="n">
-        <v>0.004644294472727689</v>
+        <v>0.06243483990028539</v>
       </c>
       <c r="P58" t="n">
-        <v>0.03607581061688248</v>
+        <v>0.02516935488911719</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.003744013981830666</v>
+        <v>0.003646764894004912</v>
       </c>
       <c r="R58" t="n">
-        <v>0.09685356421182424</v>
+        <v>0.04573373821342094</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1038797232426014</v>
+        <v>0.04139928989626042</v>
       </c>
       <c r="T58" t="n">
-        <v>0.09649934591306747</v>
+        <v>0.08135359581459918</v>
       </c>
       <c r="U58" t="n">
-        <v>0.07727453166259583</v>
+        <v>0.0903227213790837</v>
       </c>
       <c r="V58" t="n">
-        <v>0.02828014600841755</v>
+        <v>0.01146361946041482</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01400232440799296</v>
+        <v>0.08941455066360664</v>
       </c>
       <c r="X58" t="n">
-        <v>0.09834318568910455</v>
+        <v>0.1002470185968785</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.004678277219866428</v>
+        <v>0.02150556965428887</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.01585434761688417</v>
+        <v>0.06352177460298093</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.09751924924786617</v>
+        <v>0.06821680006315395</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.01346768158277099</v>
+        <v>0.001171318317792008</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.0517868471358122</v>
+        <v>0.05956295177973664</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1981670245584577</v>
+        <v>0.1982963610530919</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1107735729011466</v>
+        <v>0.08336619097581301</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1015084183717195</v>
+        <v>0.0103115630254094</v>
       </c>
       <c r="H59" t="n">
-        <v>0.003746630507897873</v>
+        <v>0.003078739964462784</v>
       </c>
       <c r="I59" t="n">
-        <v>1.68709497792696e-05</v>
+        <v>0.01244550575668338</v>
       </c>
       <c r="J59" t="n">
-        <v>0.03442102878550504</v>
+        <v>0.0154572569666124</v>
       </c>
       <c r="K59" t="n">
-        <v>0.05430590279914536</v>
+        <v>0.03711507047232322</v>
       </c>
       <c r="L59" t="n">
-        <v>0.001894441504332711</v>
+        <v>0.07896592751893231</v>
       </c>
       <c r="M59" t="n">
-        <v>0.06746013024600726</v>
+        <v>0.05843449788764406</v>
       </c>
       <c r="N59" t="n">
-        <v>0.01917134634591</v>
+        <v>0.01243924352407689</v>
       </c>
       <c r="O59" t="n">
-        <v>0.01005126601197094</v>
+        <v>0.02258003877732088</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0383798128990995</v>
+        <v>0.03121835656536984</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02945198783916428</v>
+        <v>0.03400250993917809</v>
       </c>
       <c r="R59" t="n">
-        <v>0.04405574857980962</v>
+        <v>0.02963567123118468</v>
       </c>
       <c r="S59" t="n">
-        <v>0.02448191850210225</v>
+        <v>0.1005887802738972</v>
       </c>
       <c r="T59" t="n">
-        <v>0.1007481177651465</v>
+        <v>0.08676484836465301</v>
       </c>
       <c r="U59" t="n">
-        <v>0.06544902191078625</v>
+        <v>0.06001678849494005</v>
       </c>
       <c r="V59" t="n">
-        <v>0.09903476423525094</v>
+        <v>0.1024436848779371</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03768016728829321</v>
+        <v>0.08095597861917296</v>
       </c>
       <c r="X59" t="n">
-        <v>0.003875871543498271</v>
+        <v>0.01811062757449943</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.01852299108254256</v>
+        <v>0.0008865091301437321</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.1181298560084823</v>
+        <v>0.06779433770281536</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.008561712637843168</v>
+        <v>0.03188455763772791</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.008278421284566854</v>
+        <v>0.02150331471920246</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.06529688705114811</v>
+        <v>0.07195277985126823</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2052271524912483</v>
+        <v>0.2065891966505045</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02713440301326876</v>
+        <v>0.03855352391158599</v>
       </c>
       <c r="G60" t="n">
-        <v>0.07933746581554063</v>
+        <v>0.0702902965859433</v>
       </c>
       <c r="H60" t="n">
-        <v>0.04945635887691507</v>
+        <v>0.0147438617657524</v>
       </c>
       <c r="I60" t="n">
-        <v>0.06106363044634777</v>
+        <v>0.04295072158922781</v>
       </c>
       <c r="J60" t="n">
-        <v>0.05244759459192899</v>
+        <v>0.0151733945348553</v>
       </c>
       <c r="K60" t="n">
-        <v>0.01033468769365031</v>
+        <v>0.01368819821544157</v>
       </c>
       <c r="L60" t="n">
-        <v>0.03052099456701293</v>
+        <v>0.02893682842016359</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09177932330089152</v>
+        <v>0.06201028533188701</v>
       </c>
       <c r="N60" t="n">
-        <v>0.0143825277823769</v>
+        <v>0.01736702923838618</v>
       </c>
       <c r="O60" t="n">
-        <v>0.003768823923846437</v>
+        <v>0.01889430209646189</v>
       </c>
       <c r="P60" t="n">
-        <v>0.007249462555575607</v>
+        <v>0.06191301678779659</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.008160590034983652</v>
+        <v>0.06146546041779465</v>
       </c>
       <c r="R60" t="n">
-        <v>0.07177630092291622</v>
+        <v>0.05896316633787294</v>
       </c>
       <c r="S60" t="n">
-        <v>0.05804451042213286</v>
+        <v>0.06038872490934895</v>
       </c>
       <c r="T60" t="n">
-        <v>0.02983826914551899</v>
+        <v>0.02635583971583496</v>
       </c>
       <c r="U60" t="n">
-        <v>0.09663811617299636</v>
+        <v>0.08336335089367279</v>
       </c>
       <c r="V60" t="n">
-        <v>0.002012337992677136</v>
+        <v>0.008420602507013089</v>
       </c>
       <c r="W60" t="n">
-        <v>0.07105677839025254</v>
+        <v>0.08302901087836409</v>
       </c>
       <c r="X60" t="n">
-        <v>0.07136099117935069</v>
+        <v>0.08303462757271972</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.05889052061852761</v>
+        <v>0.04398554625302932</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.0518696552526534</v>
+        <v>0.05165550453362804</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.03620850912166702</v>
+        <v>0.02796471368389726</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.01666814817896851</v>
+        <v>0.02685199381932253</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.06420974242855361</v>
+        <v>0.05707781072202085</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2179922093592599</v>
+        <v>0.225898832366339</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08068775363539236</v>
+        <v>0.1126597383688319</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04689970449662745</v>
+        <v>0.06767739155868562</v>
       </c>
       <c r="H61" t="n">
-        <v>0.05179348122801045</v>
+        <v>0.04314086091745006</v>
       </c>
       <c r="I61" t="n">
-        <v>0.02616131812437486</v>
+        <v>0.06174726775774142</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01742429131760974</v>
+        <v>0.01609113076061691</v>
       </c>
       <c r="K61" t="n">
-        <v>0.04231692216601068</v>
+        <v>0.04051326186745778</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0202590643728505</v>
+        <v>0.02771917236901475</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03805379471621533</v>
+        <v>0.09565496196688089</v>
       </c>
       <c r="N61" t="n">
-        <v>0.03517350978186143</v>
+        <v>0.03719780567304499</v>
       </c>
       <c r="O61" t="n">
-        <v>0.04975198931575465</v>
+        <v>0.004929305504401066</v>
       </c>
       <c r="P61" t="n">
-        <v>0.08099124140514032</v>
+        <v>0.01442534640738502</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.0012197768012497</v>
+        <v>0.0153682022416203</v>
       </c>
       <c r="R61" t="n">
-        <v>0.01359111187225331</v>
+        <v>0.009867953803667682</v>
       </c>
       <c r="S61" t="n">
-        <v>0.08656834207747541</v>
+        <v>0.1082271410259763</v>
       </c>
       <c r="T61" t="n">
-        <v>0.05697319036952427</v>
+        <v>0.06044152372576255</v>
       </c>
       <c r="U61" t="n">
-        <v>0.03042315698109096</v>
+        <v>0.05437482722634822</v>
       </c>
       <c r="V61" t="n">
-        <v>0.06337172068047525</v>
+        <v>0.04925815286754395</v>
       </c>
       <c r="W61" t="n">
-        <v>0.002043814922597226</v>
+        <v>0.02161719956662812</v>
       </c>
       <c r="X61" t="n">
-        <v>0.07171706975625926</v>
+        <v>0.005402821307027974</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.01268144574736395</v>
+        <v>0.0174093915024211</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.08732505147662294</v>
+        <v>0.03421821012760737</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.07743006052516462</v>
+        <v>0.07862999563610637</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.007142188230075152</v>
+        <v>0.02342833781777976</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.08659582728408616</v>
+        <v>0.07656541886714123</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2035939941916355</v>
+        <v>0.203573621554149</v>
       </c>
       <c r="F62" t="n">
-        <v>0.006202606434722402</v>
+        <v>0.03523875027076441</v>
       </c>
       <c r="G62" t="n">
-        <v>0.02981769171110044</v>
+        <v>0.05512253735320945</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01071115505789384</v>
+        <v>0.08478894286398991</v>
       </c>
       <c r="I62" t="n">
-        <v>0.04534361540974472</v>
+        <v>0.009760892425074011</v>
       </c>
       <c r="J62" t="n">
-        <v>0.006491360693365886</v>
+        <v>0.003864063056634044</v>
       </c>
       <c r="K62" t="n">
-        <v>0.05010681487665201</v>
+        <v>0.06140176681944977</v>
       </c>
       <c r="L62" t="n">
-        <v>0.003241442269888959</v>
+        <v>0.02285657114193539</v>
       </c>
       <c r="M62" t="n">
-        <v>0.07693257375495796</v>
+        <v>0.0833329229768749</v>
       </c>
       <c r="N62" t="n">
-        <v>0.008679384993075677</v>
+        <v>0.00438357500270981</v>
       </c>
       <c r="O62" t="n">
-        <v>0.05833413728940307</v>
+        <v>0.03229126547186456</v>
       </c>
       <c r="P62" t="n">
-        <v>0.07091318194373095</v>
+        <v>0.01132847578289332</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.060919672096792</v>
+        <v>0.003724942228812729</v>
       </c>
       <c r="R62" t="n">
-        <v>0.06045543172138378</v>
+        <v>0.03270660362093102</v>
       </c>
       <c r="S62" t="n">
-        <v>0.0380802535980973</v>
+        <v>0.071407796375195</v>
       </c>
       <c r="T62" t="n">
-        <v>0.03062662288314113</v>
+        <v>0.04995525213881193</v>
       </c>
       <c r="U62" t="n">
-        <v>0.02989813917051544</v>
+        <v>0.06980482038008512</v>
       </c>
       <c r="V62" t="n">
-        <v>0.03439781731903124</v>
+        <v>0.03690335470136535</v>
       </c>
       <c r="W62" t="n">
-        <v>0.08632053696007055</v>
+        <v>0.07725262781822778</v>
       </c>
       <c r="X62" t="n">
-        <v>0.1060457063868644</v>
+        <v>0.08497505712435327</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.02718742084272315</v>
+        <v>0.008774866721855731</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.08277961114614561</v>
+        <v>0.07103510072500419</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.05816296664497245</v>
+        <v>0.0594208160375746</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.01835185679572705</v>
+        <v>0.02966899896238361</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.06083048072802939</v>
+        <v>0.0617214268314288</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2224143619825588</v>
+        <v>0.2103781818570098</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1155796339463558</v>
+        <v>0.08498060185846019</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02030031430200295</v>
+        <v>0.002615350325760843</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1184098744925701</v>
+        <v>0.06736319365824762</v>
       </c>
       <c r="I63" t="n">
-        <v>0.05555363647621559</v>
+        <v>0.04541187783487534</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04045759466666819</v>
+        <v>0.01427244270446693</v>
       </c>
       <c r="K63" t="n">
-        <v>0.002108870834453776</v>
+        <v>0.03186381985087623</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01727730499875701</v>
+        <v>0.01663507334579283</v>
       </c>
       <c r="M63" t="n">
-        <v>0.013638975307034</v>
+        <v>0.07825922474741219</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0009746971750873539</v>
+        <v>0.0008173480001509058</v>
       </c>
       <c r="O63" t="n">
-        <v>0.03436787316490204</v>
+        <v>0.003969015772367056</v>
       </c>
       <c r="P63" t="n">
-        <v>0.01383906539480794</v>
+        <v>0.04283981045565895</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.002350658562980175</v>
+        <v>0.01346221659618812</v>
       </c>
       <c r="R63" t="n">
-        <v>0.04188027337193695</v>
+        <v>0.01154003659704112</v>
       </c>
       <c r="S63" t="n">
-        <v>0.05574610955410259</v>
+        <v>0.05759520279098227</v>
       </c>
       <c r="T63" t="n">
-        <v>0.01092384158704727</v>
+        <v>0.06073745478722026</v>
       </c>
       <c r="U63" t="n">
-        <v>0.09854634577670565</v>
+        <v>0.04278187907689559</v>
       </c>
       <c r="V63" t="n">
-        <v>0.07659380644969913</v>
+        <v>0.03743428359969603</v>
       </c>
       <c r="W63" t="n">
-        <v>0.002743106185362275</v>
+        <v>0.008045641170064786</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0007894320199958363</v>
+        <v>0.07631116955009533</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.07964040428446242</v>
+        <v>0.09744292585817715</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.1009807012755326</v>
+        <v>0.09227393963460913</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.09258044489769165</v>
+        <v>0.08992311547645475</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.004717035275628588</v>
+        <v>0.02342437630850631</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.09124272666496094</v>
+        <v>0.0836561780572119</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1936632160121852</v>
+        <v>0.1954226310661108</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08919206854105069</v>
+        <v>0.07149066138949838</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08194359212390162</v>
+        <v>0.01109526161464159</v>
       </c>
       <c r="H64" t="n">
-        <v>0.01696624882283341</v>
+        <v>0.04056489205605716</v>
       </c>
       <c r="I64" t="n">
-        <v>0.04489467135250953</v>
+        <v>0.08761258389858097</v>
       </c>
       <c r="J64" t="n">
-        <v>0.03469535290624548</v>
+        <v>0.03009324479926058</v>
       </c>
       <c r="K64" t="n">
-        <v>0.06356844501235689</v>
+        <v>0.08715305936358107</v>
       </c>
       <c r="L64" t="n">
-        <v>0.06701737112755736</v>
+        <v>0.01221725902961472</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03164009852471263</v>
+        <v>0.05688047867059122</v>
       </c>
       <c r="N64" t="n">
-        <v>0.007846166581828672</v>
+        <v>0.02413707774242087</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0005208571652448814</v>
+        <v>0.03480749408838817</v>
       </c>
       <c r="P64" t="n">
-        <v>0.06157817390203357</v>
+        <v>0.02659444236973224</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.002758212072236329</v>
+        <v>0.05735390506487806</v>
       </c>
       <c r="R64" t="n">
-        <v>0.06844202432116846</v>
+        <v>0.02423016258060161</v>
       </c>
       <c r="S64" t="n">
-        <v>0.03348326769439864</v>
+        <v>0.06480682607064503</v>
       </c>
       <c r="T64" t="n">
-        <v>0.0003377078071733526</v>
+        <v>0.06785819354951107</v>
       </c>
       <c r="U64" t="n">
-        <v>0.07829702509175629</v>
+        <v>0.07870087832115427</v>
       </c>
       <c r="V64" t="n">
-        <v>0.01059063627084522</v>
+        <v>0.01456294935768021</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1088508056672934</v>
+        <v>0.09364428120680354</v>
       </c>
       <c r="X64" t="n">
-        <v>0.1099989747584259</v>
+        <v>0.08786786483409621</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.02213284830288247</v>
+        <v>0.005605174374370544</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.008515400550362043</v>
+        <v>0.0005315514628745382</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.04760662674702847</v>
+        <v>0.01835868141305425</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.009123424656154872</v>
+        <v>0.00383307674196375</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.05196702917285204</v>
+        <v>-0.03516173844187129</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2083548488005578</v>
+        <v>0.2215112983058938</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1010588256414035</v>
+        <v>0.07587743204024751</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04755056711431883</v>
+        <v>0.07163857063388984</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03454530951682107</v>
+        <v>0.03722289867150916</v>
       </c>
       <c r="I65" t="n">
-        <v>0.006909839875271118</v>
+        <v>0.002659285959132</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0006244116181400169</v>
+        <v>0.03432665041524762</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0157009040119638</v>
+        <v>0.01940550586059016</v>
       </c>
       <c r="L65" t="n">
-        <v>0.006463462906854206</v>
+        <v>0.008162422251137934</v>
       </c>
       <c r="M65" t="n">
-        <v>0.06744970230493605</v>
+        <v>0.003145726075497827</v>
       </c>
       <c r="N65" t="n">
-        <v>0.006587544831816612</v>
+        <v>0.01533040410497535</v>
       </c>
       <c r="O65" t="n">
-        <v>0.072833123232865</v>
+        <v>0.09390878851454229</v>
       </c>
       <c r="P65" t="n">
-        <v>0.06731038016467637</v>
+        <v>0.005599149720867272</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.07095658514940016</v>
+        <v>0.03484820849998489</v>
       </c>
       <c r="R65" t="n">
-        <v>0.05446702794602536</v>
+        <v>0.05918308582026641</v>
       </c>
       <c r="S65" t="n">
-        <v>0.08906268061959534</v>
+        <v>0.01065263514385025</v>
       </c>
       <c r="T65" t="n">
-        <v>0.01690096204224688</v>
+        <v>0.00721949448521379</v>
       </c>
       <c r="U65" t="n">
-        <v>0.007830283456272</v>
+        <v>0.08673024908894872</v>
       </c>
       <c r="V65" t="n">
-        <v>0.02709413666858275</v>
+        <v>0.0843301975264589</v>
       </c>
       <c r="W65" t="n">
-        <v>0.04893112622817888</v>
+        <v>0.05702129135057694</v>
       </c>
       <c r="X65" t="n">
-        <v>0.006083447794201115</v>
+        <v>0.03043106545977122</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1041181034355059</v>
+        <v>0.1067859621793238</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.04006413767053294</v>
+        <v>0.08899534248792959</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.06378582019557844</v>
+        <v>0.01837396213835103</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.04367161757481355</v>
+        <v>0.04815167157168752</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.0176291888079048</v>
+        <v>0.01207258244740115</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1718668589341603</v>
+        <v>0.1737594384900138</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04701171083243041</v>
+        <v>0.008685027425878516</v>
       </c>
       <c r="G66" t="n">
-        <v>0.004890784695920325</v>
+        <v>0.02912504359503853</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0540677553018375</v>
+        <v>0.03154451348674648</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06530806805780667</v>
+        <v>0.1034362904209003</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01966068862500027</v>
+        <v>0.03160114177373462</v>
       </c>
       <c r="K66" t="n">
-        <v>0.01933987595957259</v>
+        <v>0.02873807114109528</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0371415926421261</v>
+        <v>0.03017631575367546</v>
       </c>
       <c r="M66" t="n">
-        <v>0.07597604418278163</v>
+        <v>0.05017952632647445</v>
       </c>
       <c r="N66" t="n">
-        <v>0.004870876978775011</v>
+        <v>0.004074566064974859</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0007334078515590039</v>
+        <v>0.01686327817819661</v>
       </c>
       <c r="P66" t="n">
-        <v>0.08153437992365688</v>
+        <v>0.100972628128136</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.02501733392200141</v>
+        <v>0.003590319000664033</v>
       </c>
       <c r="R66" t="n">
-        <v>0.07007576245009595</v>
+        <v>0.03155386101560528</v>
       </c>
       <c r="S66" t="n">
-        <v>0.02665448645893107</v>
+        <v>0.05096022698432558</v>
       </c>
       <c r="T66" t="n">
-        <v>0.0749073786613183</v>
+        <v>0.04780771310695532</v>
       </c>
       <c r="U66" t="n">
-        <v>0.01990182854362188</v>
+        <v>0.04297159229895756</v>
       </c>
       <c r="V66" t="n">
-        <v>0.03498640286066623</v>
+        <v>0.04078021405440998</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08177453886189573</v>
+        <v>0.1208347182518982</v>
       </c>
       <c r="X66" t="n">
-        <v>0.06026704504689796</v>
+        <v>0.01695726049793013</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.009358402162078144</v>
+        <v>0.01108920945958085</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.07747811106251185</v>
+        <v>0.1196521687587585</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.08399116477511945</v>
+        <v>0.06143419314794744</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.02505236014339564</v>
+        <v>0.01697212112811604</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.0399203431092487</v>
+        <v>0.03227019044896895</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.1893930599098886</v>
+        <v>0.1960488020331074</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02398452646566968</v>
+        <v>0.04874039882544439</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08528556431430551</v>
+        <v>0.0566165263384062</v>
       </c>
       <c r="H67" t="n">
-        <v>0.022435839331777</v>
+        <v>0.09570995967053451</v>
       </c>
       <c r="I67" t="n">
-        <v>0.006078389680032997</v>
+        <v>0.01079848035747576</v>
       </c>
       <c r="J67" t="n">
-        <v>0.009735825848342044</v>
+        <v>0.0082862293952562</v>
       </c>
       <c r="K67" t="n">
-        <v>0.08747625992367777</v>
+        <v>0.0140053186785291</v>
       </c>
       <c r="L67" t="n">
-        <v>0.003717140769925997</v>
+        <v>0.0455361440959982</v>
       </c>
       <c r="M67" t="n">
-        <v>0.09311036886996261</v>
+        <v>0.02410438163827225</v>
       </c>
       <c r="N67" t="n">
-        <v>0.009337108015933999</v>
+        <v>0.002851041784196266</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0945931539761367</v>
+        <v>0.02170950786944104</v>
       </c>
       <c r="P67" t="n">
-        <v>0.05299184829192545</v>
+        <v>0.09894024438573805</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.03939275330298405</v>
+        <v>0.04925966314074631</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0258292549246846</v>
+        <v>0.108527440366681</v>
       </c>
       <c r="S67" t="n">
-        <v>0.02622098935543857</v>
+        <v>0.01650139047362298</v>
       </c>
       <c r="T67" t="n">
-        <v>0.00918514132487396</v>
+        <v>0.04128148602233755</v>
       </c>
       <c r="U67" t="n">
-        <v>0.01270041595145312</v>
+        <v>0.01113838708002483</v>
       </c>
       <c r="V67" t="n">
-        <v>0.0745570360114805</v>
+        <v>0.1075760044654011</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0224719892655417</v>
+        <v>0.00259492127868387</v>
       </c>
       <c r="X67" t="n">
-        <v>0.05569480122258118</v>
+        <v>0.0176541854318152</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.08800070863624847</v>
+        <v>0.1061339561037738</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.05371525397630428</v>
+        <v>0.02195520482881776</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.08479348308496827</v>
+        <v>0.02213443296938539</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.01869214745575152</v>
+        <v>0.06794469479941823</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.04185341011314967</v>
+        <v>0.04354543449811828</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1482796153680717</v>
+        <v>0.1482469167897835</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002122228585300058</v>
+        <v>0.001670352289191309</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0129302371122885</v>
+        <v>0.006430562144923822</v>
       </c>
       <c r="H68" t="n">
-        <v>0.019641152508894</v>
+        <v>0.005744343715467498</v>
       </c>
       <c r="I68" t="n">
-        <v>0.001360489546372916</v>
+        <v>0.03847945390620162</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02920816370169211</v>
+        <v>0.01871916781583283</v>
       </c>
       <c r="K68" t="n">
-        <v>0.04701766041593147</v>
+        <v>0.05538051573262319</v>
       </c>
       <c r="L68" t="n">
-        <v>0.09750116608147888</v>
+        <v>0.02595484719894506</v>
       </c>
       <c r="M68" t="n">
-        <v>0.03346334759936379</v>
+        <v>0.08991068775947016</v>
       </c>
       <c r="N68" t="n">
-        <v>0.006862792885359966</v>
+        <v>0.0008767361323668852</v>
       </c>
       <c r="O68" t="n">
-        <v>0.002724059139326883</v>
+        <v>0.00703465112232385</v>
       </c>
       <c r="P68" t="n">
-        <v>0.08743952665306816</v>
+        <v>0.05004787176475999</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02054691950868155</v>
+        <v>0.02056165129760043</v>
       </c>
       <c r="R68" t="n">
-        <v>0.08209893737110817</v>
+        <v>0.05944656992495009</v>
       </c>
       <c r="S68" t="n">
-        <v>0.08678250142151608</v>
+        <v>0.09469479489390992</v>
       </c>
       <c r="T68" t="n">
-        <v>0.04497681470407881</v>
+        <v>0.0891446360474725</v>
       </c>
       <c r="U68" t="n">
-        <v>0.04780373043204811</v>
+        <v>0.07949005800287214</v>
       </c>
       <c r="V68" t="n">
-        <v>0.01553698994779977</v>
+        <v>0.0243032761849994</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08571869324038849</v>
+        <v>0.07087198501662439</v>
       </c>
       <c r="X68" t="n">
-        <v>0.08178694973796995</v>
+        <v>0.08098318857249751</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.04180998420158365</v>
+        <v>0.03094235694974188</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.08994023586577557</v>
+        <v>0.03688447638431495</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.04392184267928705</v>
+        <v>0.0872580303893835</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.0188055766606863</v>
+        <v>0.02516978675352732</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.01964275312616718</v>
+        <v>-0.01379107852146539</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1687063389878484</v>
+        <v>0.1714834623158591</v>
       </c>
       <c r="F69" t="n">
-        <v>0.01301304350034414</v>
+        <v>0.008160276233346066</v>
       </c>
       <c r="G69" t="n">
-        <v>0.07001291791515107</v>
+        <v>0.05728119070298764</v>
       </c>
       <c r="H69" t="n">
-        <v>0.05657355051319157</v>
+        <v>0.1181895264682781</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02897951598121383</v>
+        <v>0.01279581535252076</v>
       </c>
       <c r="J69" t="n">
-        <v>0.00465517483249689</v>
+        <v>0.0142846652103178</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0954415537356212</v>
+        <v>0.09365430439290327</v>
       </c>
       <c r="L69" t="n">
-        <v>0.04249222775115138</v>
+        <v>0.04678132178660516</v>
       </c>
       <c r="M69" t="n">
-        <v>0.09686601437388785</v>
+        <v>0.1080980498805749</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0001141903310319195</v>
+        <v>0.006964259475223848</v>
       </c>
       <c r="O69" t="n">
-        <v>0.04104329033928334</v>
+        <v>0.01168329320338313</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0692191444000196</v>
+        <v>0.03008150043749148</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.08956861182887366</v>
+        <v>0.1062752192530029</v>
       </c>
       <c r="R69" t="n">
-        <v>0.01302468881241865</v>
+        <v>0.03217266530520834</v>
       </c>
       <c r="S69" t="n">
-        <v>0.01157698674414167</v>
+        <v>0.02579348718067822</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01349269016925993</v>
+        <v>0.05110900461018864</v>
       </c>
       <c r="U69" t="n">
-        <v>0.000837521493411919</v>
+        <v>0.04008265055411702</v>
       </c>
       <c r="V69" t="n">
-        <v>0.0582426332071606</v>
+        <v>0.04223629583315573</v>
       </c>
       <c r="W69" t="n">
-        <v>0.06098694437418625</v>
+        <v>0.02524994130556304</v>
       </c>
       <c r="X69" t="n">
-        <v>0.007747229853160719</v>
+        <v>0.001224589686511005</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.09044374518818077</v>
+        <v>0.07353043779599551</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.09646490354463359</v>
+        <v>0.03473184529216326</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.03556102374783337</v>
+        <v>0.03377725593507148</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.003642397363346071</v>
+        <v>0.02584240410471268</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.001329125511249451</v>
+        <v>-0.002034783304107808</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.137849200055491</v>
+        <v>0.1362000789127649</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0502361896759533</v>
+        <v>0.0186767924402502</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0199399821704846</v>
+        <v>0.004452678763514939</v>
       </c>
       <c r="H70" t="n">
-        <v>0.009408192498749982</v>
+        <v>0.008688857113295577</v>
       </c>
       <c r="I70" t="n">
-        <v>0.09128407758264041</v>
+        <v>0.03386666896732785</v>
       </c>
       <c r="J70" t="n">
-        <v>0.05159963076526386</v>
+        <v>0.06160063570244333</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01725427633152831</v>
+        <v>0.06028039277852892</v>
       </c>
       <c r="L70" t="n">
-        <v>0.03913298976845462</v>
+        <v>0.01134426461345714</v>
       </c>
       <c r="M70" t="n">
-        <v>0.009266837508115879</v>
+        <v>0.03434286199046647</v>
       </c>
       <c r="N70" t="n">
-        <v>0.01771727818571629</v>
+        <v>0.01140148720333663</v>
       </c>
       <c r="O70" t="n">
-        <v>0.04798667670298701</v>
+        <v>0.1014588539163681</v>
       </c>
       <c r="P70" t="n">
-        <v>0.08691249700760383</v>
+        <v>0.07521947053863075</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01361201336193734</v>
+        <v>0.0422759388627605</v>
       </c>
       <c r="R70" t="n">
-        <v>0.09223942451372058</v>
+        <v>0.0512726314987216</v>
       </c>
       <c r="S70" t="n">
-        <v>0.02308235055952087</v>
+        <v>0.0268072264079734</v>
       </c>
       <c r="T70" t="n">
-        <v>0.06565395059211382</v>
+        <v>0.04801050958179992</v>
       </c>
       <c r="U70" t="n">
-        <v>0.08799771246660383</v>
+        <v>0.1054211397826262</v>
       </c>
       <c r="V70" t="n">
-        <v>0.0006969042829551553</v>
+        <v>0.044760634707572</v>
       </c>
       <c r="W70" t="n">
-        <v>0.06519980503563645</v>
+        <v>0.09328912472431418</v>
       </c>
       <c r="X70" t="n">
-        <v>0.05156018811260318</v>
+        <v>0.06831428072641538</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.002939533713423413</v>
+        <v>0.04140449987476424</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.09865906562711478</v>
+        <v>0.04228985276173193</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.01880487633410432</v>
+        <v>0.01244794976745345</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.03881554720276804</v>
+        <v>0.002373247276247264</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.05131915201323299</v>
+        <v>-0.04569912583616392</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1599128931746192</v>
+        <v>0.1522808884700707</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02797769937575108</v>
+        <v>0.05510598814327787</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05619517356315334</v>
+        <v>0.01778722346571589</v>
       </c>
       <c r="H71" t="n">
-        <v>0.03258716856399862</v>
+        <v>0.01152782904553329</v>
       </c>
       <c r="I71" t="n">
-        <v>0.002683121653083092</v>
+        <v>0.03161263649015821</v>
       </c>
       <c r="J71" t="n">
-        <v>0.06055840792477504</v>
+        <v>0.02131743824402103</v>
       </c>
       <c r="K71" t="n">
-        <v>0.09729824253053661</v>
+        <v>0.07553104671467629</v>
       </c>
       <c r="L71" t="n">
-        <v>0.02981397719195866</v>
+        <v>0.06187519173519528</v>
       </c>
       <c r="M71" t="n">
-        <v>0.08848423855474845</v>
+        <v>0.09468373611156414</v>
       </c>
       <c r="N71" t="n">
-        <v>0.00650539182522034</v>
+        <v>0.009606780162681247</v>
       </c>
       <c r="O71" t="n">
-        <v>0.05989952821859069</v>
+        <v>0.02362938609715982</v>
       </c>
       <c r="P71" t="n">
-        <v>0.05271301920807982</v>
+        <v>0.01984835567433668</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.07736975268624553</v>
+        <v>0.06711451719536264</v>
       </c>
       <c r="R71" t="n">
-        <v>0.007723803930792526</v>
+        <v>0.07421593842980784</v>
       </c>
       <c r="S71" t="n">
-        <v>0.02489410590984596</v>
+        <v>0.004399906676648396</v>
       </c>
       <c r="T71" t="n">
-        <v>0.03164564320001516</v>
+        <v>0.01522233628952292</v>
       </c>
       <c r="U71" t="n">
-        <v>0.01785598321689826</v>
+        <v>0.05836776138447849</v>
       </c>
       <c r="V71" t="n">
-        <v>0.09629935971139278</v>
+        <v>8.990409701525589e-05</v>
       </c>
       <c r="W71" t="n">
-        <v>0.0231819632638393</v>
+        <v>0.004976452883486161</v>
       </c>
       <c r="X71" t="n">
-        <v>0.02975304378129814</v>
+        <v>0.06907043329675241</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1217082395773922</v>
+        <v>0.09478398727486875</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.03959241740207776</v>
+        <v>0.05426438985956953</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.00329549266832352</v>
+        <v>0.06051699935100738</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.01196422604198346</v>
+        <v>0.07445176137716052</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.05771244082022583</v>
+        <v>-0.05436816255833979</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.115974099328634</v>
+        <v>0.1149397600928134</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0089610708329592</v>
+        <v>0.01609542597118242</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0236698149610006</v>
+        <v>0.04339745047164375</v>
       </c>
       <c r="H72" t="n">
-        <v>0.04991744122201665</v>
+        <v>0.03896652324169465</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01467825303306273</v>
+        <v>0.08095346552530257</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0829508229119363</v>
+        <v>0.05170998268071253</v>
       </c>
       <c r="K72" t="n">
-        <v>0.07125501399122587</v>
+        <v>0.0391429899244688</v>
       </c>
       <c r="L72" t="n">
-        <v>0.08079977344360657</v>
+        <v>0.08108608001069882</v>
       </c>
       <c r="M72" t="n">
-        <v>0.03578619084921614</v>
+        <v>0.05473402606896004</v>
       </c>
       <c r="N72" t="n">
-        <v>0.01529172649833843</v>
+        <v>0.008805061267858285</v>
       </c>
       <c r="O72" t="n">
-        <v>0.01052969398501799</v>
+        <v>0.03698621454287961</v>
       </c>
       <c r="P72" t="n">
-        <v>0.08554732065784426</v>
+        <v>0.05902189459402538</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01279039471954579</v>
+        <v>0.02281129659284979</v>
       </c>
       <c r="R72" t="n">
-        <v>0.04600108540765044</v>
+        <v>0.02517593179503384</v>
       </c>
       <c r="S72" t="n">
-        <v>0.001249513225347689</v>
+        <v>0.0001718344416556314</v>
       </c>
       <c r="T72" t="n">
-        <v>0.04023962258296727</v>
+        <v>0.03722473671384315</v>
       </c>
       <c r="U72" t="n">
-        <v>0.08474026556824785</v>
+        <v>0.05426427527122538</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02566609427466322</v>
+        <v>0.008721993835251763</v>
       </c>
       <c r="W72" t="n">
-        <v>0.06642119269797954</v>
+        <v>0.06992590079688568</v>
       </c>
       <c r="X72" t="n">
-        <v>0.08441329232882111</v>
+        <v>0.08421042161775591</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.01599048951628954</v>
+        <v>0.02450238284494914</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.04339266924946966</v>
+        <v>0.07548269764797677</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.03069009817998468</v>
+        <v>0.06515818636330244</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.06901815986280839</v>
+        <v>0.02145122777984347</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1363872239099648</v>
+        <v>-0.1438912651322277</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.140061934392309</v>
+        <v>0.1308497119412441</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08480833787122881</v>
+        <v>0.05978097977301226</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0848838579194177</v>
+        <v>0.0749225723738248</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03414968707127058</v>
+        <v>0.08781924188375852</v>
       </c>
       <c r="I73" t="n">
-        <v>0.005908288744528685</v>
+        <v>0.001061449690888079</v>
       </c>
       <c r="J73" t="n">
-        <v>0.06598467078891534</v>
+        <v>0.02704753943848002</v>
       </c>
       <c r="K73" t="n">
-        <v>0.002753698281277352</v>
+        <v>0.0032087725949214</v>
       </c>
       <c r="L73" t="n">
-        <v>0.03063504115777075</v>
+        <v>0.03036427639550969</v>
       </c>
       <c r="M73" t="n">
-        <v>0.02685168916089335</v>
+        <v>0.07413545358397784</v>
       </c>
       <c r="N73" t="n">
-        <v>0.01608008025802485</v>
+        <v>0.005750709110048991</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0290739529284142</v>
+        <v>0.006348326930229076</v>
       </c>
       <c r="P73" t="n">
-        <v>0.03697809257374145</v>
+        <v>0.06622391936000208</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.05075450923456757</v>
+        <v>0.06502380096083459</v>
       </c>
       <c r="R73" t="n">
-        <v>0.004784076093762356</v>
+        <v>0.05832467336278006</v>
       </c>
       <c r="S73" t="n">
-        <v>0.004706932291337742</v>
+        <v>0.001068586062808129</v>
       </c>
       <c r="T73" t="n">
-        <v>0.02615391002136856</v>
+        <v>0.005721117442874311</v>
       </c>
       <c r="U73" t="n">
-        <v>0.06974369213391649</v>
+        <v>0.05543164316069353</v>
       </c>
       <c r="V73" t="n">
-        <v>0.07651199215121358</v>
+        <v>0.01661134721578381</v>
       </c>
       <c r="W73" t="n">
-        <v>0.06548913776501784</v>
+        <v>0.05806874813597302</v>
       </c>
       <c r="X73" t="n">
-        <v>0.04091738072281934</v>
+        <v>0.05034805980363545</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.09013074466886913</v>
+        <v>0.09307630717956487</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.04602628330043923</v>
+        <v>0.08183697688060934</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.02198567515746224</v>
+        <v>0.01375772174795205</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.08468826970374289</v>
+        <v>0.06406777691183811</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1261255629415453</v>
+        <v>-0.1301897856422098</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1266429355164875</v>
+        <v>0.1254357689959006</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03941144853073923</v>
+        <v>0.01190368817922041</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0602769156093273</v>
+        <v>0.08003229627750739</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04681550168754106</v>
+        <v>0.008706787162108133</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02692487150249719</v>
+        <v>0.03591320746701038</v>
       </c>
       <c r="J74" t="n">
-        <v>0.08230226996150251</v>
+        <v>0.06950656749992423</v>
       </c>
       <c r="K74" t="n">
-        <v>0.001682608255377922</v>
+        <v>0.005579109322741962</v>
       </c>
       <c r="L74" t="n">
-        <v>0.01387374959738353</v>
+        <v>0.0001535681035367569</v>
       </c>
       <c r="M74" t="n">
-        <v>0.07233518458186751</v>
+        <v>0.07421150765820729</v>
       </c>
       <c r="N74" t="n">
-        <v>0.001002324027336445</v>
+        <v>8.470358298794264e-05</v>
       </c>
       <c r="O74" t="n">
-        <v>0.004457257133550876</v>
+        <v>0.07730268762663921</v>
       </c>
       <c r="P74" t="n">
-        <v>0.08346175939243666</v>
+        <v>0.07544757599615963</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.0265249594689684</v>
+        <v>0.07086166800081507</v>
       </c>
       <c r="R74" t="n">
-        <v>0.03418327754696635</v>
+        <v>0.006092205366309709</v>
       </c>
       <c r="S74" t="n">
-        <v>0.006104606537790274</v>
+        <v>0.02893720420707507</v>
       </c>
       <c r="T74" t="n">
-        <v>0.02046238226703193</v>
+        <v>0.02060436805015083</v>
       </c>
       <c r="U74" t="n">
-        <v>0.07072572854585528</v>
+        <v>0.05602753962049917</v>
       </c>
       <c r="V74" t="n">
-        <v>0.03652450011777856</v>
+        <v>0.02816157484189426</v>
       </c>
       <c r="W74" t="n">
-        <v>0.05162223824496298</v>
+        <v>0.08010955600094322</v>
       </c>
       <c r="X74" t="n">
-        <v>0.07351969590691913</v>
+        <v>0.07421868421670745</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.03802473111244216</v>
+        <v>0.05971401070529406</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.0866129347097348</v>
+        <v>0.0009038863839806294</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.03959914369260302</v>
+        <v>0.07803736114465229</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.08355191156938671</v>
+        <v>0.05749024258563507</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1295753823749504</v>
+        <v>0.1154120390248443</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.130183059376745</v>
+        <v>0.1409958103421459</v>
       </c>
       <c r="F75" t="n">
-        <v>0.08802559130960766</v>
+        <v>0.07608037703617092</v>
       </c>
       <c r="G75" t="n">
-        <v>0.073738060852506</v>
+        <v>0.04291853226299897</v>
       </c>
       <c r="H75" t="n">
-        <v>0.02535735807577525</v>
+        <v>0.07704384849390943</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0126014206049616</v>
+        <v>0.00969464022931958</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03998955682284664</v>
+        <v>0.009293438240756598</v>
       </c>
       <c r="K75" t="n">
-        <v>0.01947187791943857</v>
+        <v>0.02687037202366499</v>
       </c>
       <c r="L75" t="n">
-        <v>0.07754540715226038</v>
+        <v>0.01064705678840165</v>
       </c>
       <c r="M75" t="n">
-        <v>0.06650149969085088</v>
+        <v>0.06758403108692848</v>
       </c>
       <c r="N75" t="n">
-        <v>0.004808289855144874</v>
+        <v>0.006211454143651747</v>
       </c>
       <c r="O75" t="n">
-        <v>0.008079180157392146</v>
+        <v>0.03058313278007651</v>
       </c>
       <c r="P75" t="n">
-        <v>0.002509565901235155</v>
+        <v>0.03445782081859265</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.07914295627959086</v>
+        <v>0.08051840331384512</v>
       </c>
       <c r="R75" t="n">
-        <v>0.04371670675812842</v>
+        <v>0.04803256532383047</v>
       </c>
       <c r="S75" t="n">
-        <v>0.01226483760144408</v>
+        <v>0.0170808690500389</v>
       </c>
       <c r="T75" t="n">
-        <v>0.00462642350880075</v>
+        <v>0.01326568418246839</v>
       </c>
       <c r="U75" t="n">
-        <v>0.01468879847111173</v>
+        <v>0.01889193227939811</v>
       </c>
       <c r="V75" t="n">
-        <v>0.01580353166283386</v>
+        <v>0.102292185618039</v>
       </c>
       <c r="W75" t="n">
-        <v>0.09383287598844854</v>
+        <v>0.06409664593381947</v>
       </c>
       <c r="X75" t="n">
-        <v>0.09880560728538977</v>
+        <v>0.03082230404330779</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.09922556335737197</v>
+        <v>0.09074808999940487</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.008813084857164278</v>
+        <v>0.01860885316582365</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.09525685635238791</v>
+        <v>0.07854828865686213</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.01519494953530856</v>
+        <v>0.04570947452869056</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1483130021135209</v>
+        <v>0.1482974668979755</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1222805136486034</v>
+        <v>0.1255531794197395</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01174003661226682</v>
+        <v>0.07272563792453411</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1061864748827858</v>
+        <v>0.06455738412490677</v>
       </c>
       <c r="H76" t="n">
-        <v>0.003706749209222034</v>
+        <v>0.02590431430991617</v>
       </c>
       <c r="I76" t="n">
-        <v>0.004058249351346866</v>
+        <v>0.02331203137203038</v>
       </c>
       <c r="J76" t="n">
-        <v>0.07417628926114771</v>
+        <v>0.04509773367812427</v>
       </c>
       <c r="K76" t="n">
-        <v>0.03185886480017695</v>
+        <v>0.005805972014729066</v>
       </c>
       <c r="L76" t="n">
-        <v>0.02163330322919318</v>
+        <v>0.0352883869307924</v>
       </c>
       <c r="M76" t="n">
-        <v>0.09980864832022615</v>
+        <v>0.07779608445172255</v>
       </c>
       <c r="N76" t="n">
-        <v>0.04877462986126608</v>
+        <v>0.03866724006893591</v>
       </c>
       <c r="O76" t="n">
-        <v>6.063755761615243e-05</v>
+        <v>0.0489781385298398</v>
       </c>
       <c r="P76" t="n">
-        <v>0.1134121619943245</v>
+        <v>0.07401042591149647</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.03511124726957666</v>
+        <v>0.05291991557455324</v>
       </c>
       <c r="R76" t="n">
-        <v>0.01548652551129158</v>
+        <v>0.06517308744200641</v>
       </c>
       <c r="S76" t="n">
-        <v>0.0270226386960028</v>
+        <v>0.009362027100497088</v>
       </c>
       <c r="T76" t="n">
-        <v>0.004944573778518736</v>
+        <v>0.01001631138830711</v>
       </c>
       <c r="U76" t="n">
-        <v>0.07273856506266493</v>
+        <v>0.06067243286626666</v>
       </c>
       <c r="V76" t="n">
-        <v>0.02089278549099583</v>
+        <v>0.03141631774557529</v>
       </c>
       <c r="W76" t="n">
-        <v>0.07122533949508898</v>
+        <v>0.07796368245715937</v>
       </c>
       <c r="X76" t="n">
-        <v>0.04344466968370161</v>
+        <v>0.06439521131486621</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.01790851509092715</v>
+        <v>0.02842231339049775</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.05802163100855927</v>
+        <v>0.01104487605293004</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.087167916883689</v>
+        <v>0.04429536953326554</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.03061954694941112</v>
+        <v>0.03217510581704731</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.06068158500008113</v>
+        <v>-0.04732524988124832</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.133882519110126</v>
+        <v>0.1267348232091295</v>
       </c>
       <c r="F77" t="n">
-        <v>0.09032451512204359</v>
+        <v>0.05324962590639257</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01494388707630677</v>
+        <v>0.06163991322491213</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03199878057966323</v>
+        <v>0.00339120308498848</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02810133284680929</v>
+        <v>0.02011762642008013</v>
       </c>
       <c r="J77" t="n">
-        <v>0.05029047352978169</v>
+        <v>0.06583307042155538</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0356624105994535</v>
+        <v>0.009050626425911309</v>
       </c>
       <c r="L77" t="n">
-        <v>0.01977101843351269</v>
+        <v>0.06306278533873413</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1002714937710835</v>
+        <v>0.06998388375915095</v>
       </c>
       <c r="N77" t="n">
-        <v>0.005138064337060364</v>
+        <v>0.007909835693039711</v>
       </c>
       <c r="O77" t="n">
-        <v>0.05756039167156266</v>
+        <v>0.03906958869344494</v>
       </c>
       <c r="P77" t="n">
-        <v>0.04120709059058816</v>
+        <v>0.06291425058263127</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.06422092615188556</v>
+        <v>0.06590487897913681</v>
       </c>
       <c r="R77" t="n">
-        <v>0.02167312720793031</v>
+        <v>0.01074224739626779</v>
       </c>
       <c r="S77" t="n">
-        <v>0.008018388029314856</v>
+        <v>0.003282905134050534</v>
       </c>
       <c r="T77" t="n">
-        <v>0.06239037813408203</v>
+        <v>0.05007742937782618</v>
       </c>
       <c r="U77" t="n">
-        <v>0.0193062524410962</v>
+        <v>0.04003836808036901</v>
       </c>
       <c r="V77" t="n">
-        <v>0.06400740621531784</v>
+        <v>0.005463163418854321</v>
       </c>
       <c r="W77" t="n">
-        <v>0.03782686026079442</v>
+        <v>0.03800931382964396</v>
       </c>
       <c r="X77" t="n">
-        <v>0.06789871516831487</v>
+        <v>0.07394346935026809</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.0895740276636581</v>
+        <v>0.07052906543991777</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.0591342953731488</v>
+        <v>0.06753223859621899</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.002589242706352844</v>
+        <v>0.04167963056100672</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.02809092209023871</v>
+        <v>0.07657488028559881</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.03747358582460086</v>
+        <v>-0.04623846173601148</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1258444314800038</v>
+        <v>0.1263867477989807</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06481478430911329</v>
+        <v>0.04268823464023048</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08448661162641262</v>
+        <v>0.06726577020590249</v>
       </c>
       <c r="H78" t="n">
-        <v>0.008151372483482787</v>
+        <v>0.0633323485809647</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01679515874745905</v>
+        <v>0.01360513789316089</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02313878201617935</v>
+        <v>0.02562042268182291</v>
       </c>
       <c r="K78" t="n">
-        <v>0.03033474539764455</v>
+        <v>0.01431776713915593</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03515991362582234</v>
+        <v>0.01367623198302366</v>
       </c>
       <c r="M78" t="n">
-        <v>0.05488881058212416</v>
+        <v>0.04360216165060203</v>
       </c>
       <c r="N78" t="n">
-        <v>0.001637807432480958</v>
+        <v>0.003587156506836686</v>
       </c>
       <c r="O78" t="n">
-        <v>0.001087675143928045</v>
+        <v>0.07648337614717891</v>
       </c>
       <c r="P78" t="n">
-        <v>0.07530402069324474</v>
+        <v>0.06956399688925648</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.07837466245594907</v>
+        <v>0.07249291158969455</v>
       </c>
       <c r="R78" t="n">
-        <v>0.02258720040355817</v>
+        <v>0.005877585769647523</v>
       </c>
       <c r="S78" t="n">
-        <v>0.03303887108977804</v>
+        <v>0.02454474307890422</v>
       </c>
       <c r="T78" t="n">
-        <v>0.02077706942820381</v>
+        <v>0.07997085756556065</v>
       </c>
       <c r="U78" t="n">
-        <v>0.08795792217422532</v>
+        <v>0.08118815677792773</v>
       </c>
       <c r="V78" t="n">
-        <v>0.02166981940329048</v>
+        <v>0.02058798014727983</v>
       </c>
       <c r="W78" t="n">
-        <v>0.08225958027574971</v>
+        <v>0.06962502369997475</v>
       </c>
       <c r="X78" t="n">
-        <v>0.04485204186637141</v>
+        <v>0.06856149421773579</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.03509168390569203</v>
+        <v>0.02793500345203197</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.06392936125363227</v>
+        <v>0.03243303040286218</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.08175198441753251</v>
+        <v>0.03626130829713788</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.03191012126812545</v>
+        <v>0.04677930068310775</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.09243805366819538</v>
+        <v>0.09126079131787335</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1285208205327254</v>
+        <v>0.1319522850018807</v>
       </c>
       <c r="F79" t="n">
-        <v>0.05002494517925397</v>
+        <v>0.08302768330451707</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07069116310009771</v>
+        <v>0.07849063574904201</v>
       </c>
       <c r="H79" t="n">
-        <v>0.003603016054302204</v>
+        <v>0.02127753798383764</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01200245395614435</v>
+        <v>0.0319905687217828</v>
       </c>
       <c r="J79" t="n">
-        <v>0.003403577588342253</v>
+        <v>0.008517511570735723</v>
       </c>
       <c r="K79" t="n">
-        <v>0.00799072193191647</v>
+        <v>0.02678946634781719</v>
       </c>
       <c r="L79" t="n">
-        <v>0.01490823958464621</v>
+        <v>0.07107104906135096</v>
       </c>
       <c r="M79" t="n">
-        <v>0.08340128732979417</v>
+        <v>0.09022240551770079</v>
       </c>
       <c r="N79" t="n">
-        <v>0.002010529677929818</v>
+        <v>0.008940351733636153</v>
       </c>
       <c r="O79" t="n">
-        <v>0.03155953368040568</v>
+        <v>0.03540230477465121</v>
       </c>
       <c r="P79" t="n">
-        <v>0.02977198593996129</v>
+        <v>0.07235894456481333</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.07113683715873653</v>
+        <v>0.0106605629223326</v>
       </c>
       <c r="R79" t="n">
-        <v>0.08557086518421955</v>
+        <v>0.05205985005192922</v>
       </c>
       <c r="S79" t="n">
-        <v>0.01448216545619605</v>
+        <v>0.04344981580066729</v>
       </c>
       <c r="T79" t="n">
-        <v>0.005920053505388471</v>
+        <v>0.01505005005381614</v>
       </c>
       <c r="U79" t="n">
-        <v>0.06154828058749549</v>
+        <v>0.02248344579341881</v>
       </c>
       <c r="V79" t="n">
-        <v>0.04016994097742907</v>
+        <v>0.01207521064027461</v>
       </c>
       <c r="W79" t="n">
-        <v>0.07934840798991462</v>
+        <v>0.08095354495326688</v>
       </c>
       <c r="X79" t="n">
-        <v>0.08431941158282565</v>
+        <v>0.07881796506976545</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.08608888894354254</v>
+        <v>0.0792999188719275</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.05729258620553214</v>
+        <v>0.04508162696033238</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.0847880952386143</v>
+        <v>0.01263195904410209</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.01996701314731157</v>
+        <v>0.01934759050828214</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.09944829556240205</v>
+        <v>0.08140226813580359</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1391940297730757</v>
+        <v>0.1411642021443159</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01862842229906641</v>
+        <v>0.006328818874357441</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1062620020543177</v>
+        <v>0.07923990441265095</v>
       </c>
       <c r="H80" t="n">
-        <v>0.04470762734625963</v>
+        <v>0.0111283741187127</v>
       </c>
       <c r="I80" t="n">
-        <v>0.06881860291418568</v>
+        <v>0.05176809724567887</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02019670385743744</v>
+        <v>0.07455062457722829</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01044781516989383</v>
+        <v>0.04615878968378811</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01098090878810325</v>
+        <v>0.01191431926812017</v>
       </c>
       <c r="M80" t="n">
-        <v>0.001079924089552811</v>
+        <v>0.0003193964486614259</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04911440204762994</v>
+        <v>0.008551470168725371</v>
       </c>
       <c r="O80" t="n">
-        <v>0.101692088489634</v>
+        <v>0.07482519233933627</v>
       </c>
       <c r="P80" t="n">
-        <v>0.02681309222494134</v>
+        <v>0.03490247214270672</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.05012078955239106</v>
+        <v>0.0817663886840926</v>
       </c>
       <c r="R80" t="n">
-        <v>0.06158611346873345</v>
+        <v>0.05968885224650267</v>
       </c>
       <c r="S80" t="n">
-        <v>0.01040526144088141</v>
+        <v>0.05044113975997001</v>
       </c>
       <c r="T80" t="n">
-        <v>0.0001497647561850343</v>
+        <v>0.07806457410613479</v>
       </c>
       <c r="U80" t="n">
-        <v>0.08911304892671361</v>
+        <v>0.07973689033376831</v>
       </c>
       <c r="V80" t="n">
-        <v>0.02780433028082418</v>
+        <v>0.04327588164450635</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0968724026667127</v>
+        <v>0.0591093873393992</v>
       </c>
       <c r="X80" t="n">
-        <v>0.05857139312850259</v>
+        <v>0.0793672676309764</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.02371133053970123</v>
+        <v>0.02929109969294651</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.06199628387530039</v>
+        <v>0.01077107938011688</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.05947955666475382</v>
+        <v>0.0148394266465304</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.001448135418278545</v>
+        <v>0.01396055325508948</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.17199120916369</v>
+        <v>-0.2023979000045702</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1391940297730757</v>
+        <v>0.1570531764279238</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01862842229906641</v>
+        <v>0.07683933259039231</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1062620020543177</v>
+        <v>0.01594106875947108</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04470762734625963</v>
+        <v>0.06048294240254423</v>
       </c>
       <c r="I81" t="n">
-        <v>0.06881860291418568</v>
+        <v>0.04149205838908571</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02019670385743744</v>
+        <v>0.005378625606465222</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01044781516989383</v>
+        <v>0.003819458464488119</v>
       </c>
       <c r="L81" t="n">
-        <v>0.01098090878810325</v>
+        <v>0.03879527529800212</v>
       </c>
       <c r="M81" t="n">
-        <v>0.001079924089552811</v>
+        <v>0.001901029881551227</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04911440204762994</v>
+        <v>0.07481428534979068</v>
       </c>
       <c r="O81" t="n">
-        <v>0.101692088489634</v>
+        <v>0.03065542231145445</v>
       </c>
       <c r="P81" t="n">
-        <v>0.02681309222494134</v>
+        <v>0.05711858072168797</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.05012078955239106</v>
+        <v>0.02258995322742943</v>
       </c>
       <c r="R81" t="n">
-        <v>0.06158611346873345</v>
+        <v>0.07857156754563167</v>
       </c>
       <c r="S81" t="n">
-        <v>0.01040526144088141</v>
+        <v>0.01102034768078166</v>
       </c>
       <c r="T81" t="n">
-        <v>0.0001497647561850343</v>
+        <v>0.06233808401754637</v>
       </c>
       <c r="U81" t="n">
-        <v>0.08911304892671361</v>
+        <v>0.01461692032350873</v>
       </c>
       <c r="V81" t="n">
-        <v>0.02780433028082418</v>
+        <v>0.009182488499493605</v>
       </c>
       <c r="W81" t="n">
-        <v>0.0968724026667127</v>
+        <v>0.08527486357110736</v>
       </c>
       <c r="X81" t="n">
-        <v>0.05857139312850259</v>
+        <v>0.08741167219430665</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.02371133053970123</v>
+        <v>0.0792728225206052</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.06199628387530039</v>
+        <v>0.07637770873974163</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.05947955666475382</v>
+        <v>0.0336853567867518</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.001448135418278545</v>
+        <v>0.03242013511816274</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.17199120916369</v>
+        <v>-0.1846293498475134</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2017294164194287</v>
+        <v>0.1976333177206726</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07154744454839261</v>
+        <v>0.05733638349225846</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05265573141726891</v>
+        <v>0.04265452885101557</v>
       </c>
       <c r="H82" t="n">
-        <v>0.02255627626533852</v>
+        <v>0.06277172763013301</v>
       </c>
       <c r="I82" t="n">
-        <v>0.02749663019474299</v>
+        <v>0.06022229695387346</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02861438242790382</v>
+        <v>0.03751900962759525</v>
       </c>
       <c r="K82" t="n">
-        <v>0.05608842338800219</v>
+        <v>0.03208613757724658</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0002349224853170586</v>
+        <v>0.002210553507439787</v>
       </c>
       <c r="M82" t="n">
-        <v>0.05910593881529679</v>
+        <v>0.06151969701397849</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02965553889551602</v>
+        <v>0.002303048045947718</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02733190898542648</v>
+        <v>0.0262293322751908</v>
       </c>
       <c r="P82" t="n">
-        <v>0.07376980932612187</v>
+        <v>0.07072076104924255</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07628483936506442</v>
+        <v>0.07842561745778689</v>
       </c>
       <c r="R82" t="n">
-        <v>0.04767256011246134</v>
+        <v>0.07099668913626771</v>
       </c>
       <c r="S82" t="n">
-        <v>0.05459827244646063</v>
+        <v>0.01923667478585177</v>
       </c>
       <c r="T82" t="n">
-        <v>0.01233538390548496</v>
+        <v>0.06175538564146955</v>
       </c>
       <c r="U82" t="n">
-        <v>0.06469863376219098</v>
+        <v>0.07788774482164863</v>
       </c>
       <c r="V82" t="n">
-        <v>0.01344777467755226</v>
+        <v>0.01474111148168321</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07065614784680284</v>
+        <v>0.05307855319590944</v>
       </c>
       <c r="X82" t="n">
-        <v>0.009685166771027509</v>
+        <v>0.01288611111358113</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.06872364204593043</v>
+        <v>0.001477329076457646</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.04562670037014681</v>
+        <v>0.06611707808997609</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.05812244426161794</v>
+        <v>0.07138866065076961</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.02909142768593236</v>
+        <v>0.0164355685246764</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1646192689749741</v>
+        <v>0.1582784798529606</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2468049043465874</v>
+        <v>0.2080703525711282</v>
       </c>
       <c r="F83" t="n">
-        <v>0.098309188182792</v>
+        <v>0.0812386676626773</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05896230723682521</v>
+        <v>0.001950322649360983</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01779078996706085</v>
+        <v>0.006186971529602838</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02190499241778934</v>
+        <v>0.04999974640888846</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01099583698989903</v>
+        <v>0.02906857260206521</v>
       </c>
       <c r="K83" t="n">
-        <v>0.001908679911766352</v>
+        <v>0.005095102588156346</v>
       </c>
       <c r="L83" t="n">
-        <v>0.02402351170411046</v>
+        <v>0.001557877065951745</v>
       </c>
       <c r="M83" t="n">
-        <v>0.07823581315555746</v>
+        <v>0.1013979500278344</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0250974464674733</v>
+        <v>0.05222677945253994</v>
       </c>
       <c r="O83" t="n">
-        <v>0.08856602819907411</v>
+        <v>0.003628952891899919</v>
       </c>
       <c r="P83" t="n">
-        <v>0.00831427635088133</v>
+        <v>0.01800522462966698</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.08329625105573654</v>
+        <v>0.09678477487158464</v>
       </c>
       <c r="R83" t="n">
-        <v>0.05244187933476204</v>
+        <v>0.08805141552290113</v>
       </c>
       <c r="S83" t="n">
-        <v>0.06656817794425969</v>
+        <v>0.003387479444594116</v>
       </c>
       <c r="T83" t="n">
-        <v>0.009327493083259938</v>
+        <v>0.08248224146302777</v>
       </c>
       <c r="U83" t="n">
-        <v>0.01251322093582488</v>
+        <v>0.05218194329585689</v>
       </c>
       <c r="V83" t="n">
-        <v>0.0344273682112176</v>
+        <v>0.0279628605288993</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02315981258903871</v>
+        <v>0.01406647620809558</v>
       </c>
       <c r="X83" t="n">
-        <v>0.07333073857546707</v>
+        <v>0.04194478439025334</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.09677126536396428</v>
+        <v>0.0731951264988461</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.07991197600212849</v>
+        <v>0.08941931655667472</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.01479756867805125</v>
+        <v>0.004725744535769837</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.01934537764306019</v>
+        <v>0.07544166917485239</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.1963759967136812</v>
+        <v>0.1679382879561334</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2283642924015785</v>
+        <v>0.2301679101676561</v>
       </c>
       <c r="F84" t="n">
-        <v>0.06588609400967781</v>
+        <v>0.05496484464562961</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04657732616738519</v>
+        <v>0.02324078594805479</v>
       </c>
       <c r="H84" t="n">
-        <v>0.02180997101067712</v>
+        <v>0.01930642470017317</v>
       </c>
       <c r="I84" t="n">
-        <v>0.07966710897010948</v>
+        <v>0.03328025337197486</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0153126291057074</v>
+        <v>0.02707901968774829</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01426069358468427</v>
+        <v>0.07263263632692933</v>
       </c>
       <c r="L84" t="n">
-        <v>0.01673835770314222</v>
+        <v>0.005051580379607084</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03588161228297201</v>
+        <v>0.05763635107017698</v>
       </c>
       <c r="N84" t="n">
-        <v>0.009879830022961104</v>
+        <v>0.05881285168115293</v>
       </c>
       <c r="O84" t="n">
-        <v>0.007748752689333992</v>
+        <v>0.07272244504436834</v>
       </c>
       <c r="P84" t="n">
-        <v>0.06787472027443149</v>
+        <v>0.07544417928873665</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.08414223051063972</v>
+        <v>0.1077499269258673</v>
       </c>
       <c r="R84" t="n">
-        <v>0.08122674510027497</v>
+        <v>0.07541633790079214</v>
       </c>
       <c r="S84" t="n">
-        <v>0.0004267584811627022</v>
+        <v>0.07331019949711659</v>
       </c>
       <c r="T84" t="n">
-        <v>0.0430540281232796</v>
+        <v>0.001753271131458379</v>
       </c>
       <c r="U84" t="n">
-        <v>0.07520857879766212</v>
+        <v>0.04228283463898058</v>
       </c>
       <c r="V84" t="n">
-        <v>0.02446005975730857</v>
+        <v>0.005519097219916342</v>
       </c>
       <c r="W84" t="n">
-        <v>0.08173980386441734</v>
+        <v>0.09479167185267885</v>
       </c>
       <c r="X84" t="n">
-        <v>0.05214368309308457</v>
+        <v>0.003108728356716618</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.04034167625417131</v>
+        <v>0.01864496313949425</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.00397819613304132</v>
+        <v>0.009471909166968275</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.07615231872548453</v>
+        <v>0.003724062568557578</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.05548882533839107</v>
+        <v>0.06405562545690095</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.04961789110650389</v>
+        <v>0.05923203964613118</v>
       </c>
     </row>
     <row r="85">
@@ -8476,79 +8476,79 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.312240877841822</v>
+        <v>0.2585018585545091</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09606450294605708</v>
+        <v>0.09042123543058735</v>
       </c>
       <c r="G85" t="n">
-        <v>0.004656398559415235</v>
+        <v>0.02956440019292753</v>
       </c>
       <c r="H85" t="n">
-        <v>0.004278174680678119</v>
+        <v>0.05318786852252136</v>
       </c>
       <c r="I85" t="n">
-        <v>0.04095081793713788</v>
+        <v>0.08119434469936544</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03564837649159578</v>
+        <v>0.02247613258387959</v>
       </c>
       <c r="K85" t="n">
-        <v>0.002021664299659527</v>
+        <v>0.001254933433205894</v>
       </c>
       <c r="L85" t="n">
-        <v>0.004381600398956388</v>
+        <v>0.001306536706583773</v>
       </c>
       <c r="M85" t="n">
-        <v>0.06600552097367421</v>
+        <v>0.01035205969999453</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05835473280733654</v>
+        <v>0.02612255964348506</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0003377405329563967</v>
+        <v>0.08593605273651844</v>
       </c>
       <c r="P85" t="n">
-        <v>0.005255681819160194</v>
+        <v>0.01958821959896597</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.06684797265534781</v>
+        <v>0.02969909515784752</v>
       </c>
       <c r="R85" t="n">
-        <v>0.0831543620159082</v>
+        <v>0.08158072998781866</v>
       </c>
       <c r="S85" t="n">
-        <v>0.02566761105859656</v>
+        <v>0.03796803350278133</v>
       </c>
       <c r="T85" t="n">
-        <v>0.01808694324693017</v>
+        <v>0.006514035453841479</v>
       </c>
       <c r="U85" t="n">
-        <v>0.06518008070865948</v>
+        <v>0.03941460642980964</v>
       </c>
       <c r="V85" t="n">
-        <v>0.1103707397587956</v>
+        <v>0.08450348477964302</v>
       </c>
       <c r="W85" t="n">
-        <v>0.06868221623897176</v>
+        <v>0.09787913820192252</v>
       </c>
       <c r="X85" t="n">
-        <v>0.07145351396417959</v>
+        <v>0.03557784351467382</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.111925182112494</v>
+        <v>0.09152496582648784</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.05863745105879508</v>
+        <v>0.01289738605133678</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.001323259190787136</v>
+        <v>0.04505971737685503</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.0007154565439074804</v>
+        <v>0.01597662046894742</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.05145844148789707</v>
+        <v>0.07409200862656834</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.123448692129632</v>
+        <v>0.1245707743868393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08751446486861349</v>
+        <v>0.05794890021228385</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004652525466471164</v>
+        <v>0.0320932904545263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003093147569012825</v>
+        <v>0.0177388393194833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0470902414585436</v>
+        <v>0.07395570257060941</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07670982230847119</v>
+        <v>0.08723806909318461</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00959919151293015</v>
+        <v>0.02160855220444284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0540765943437163</v>
+        <v>0.004414380177648247</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03791435988477868</v>
+        <v>0.03023327748730259</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01285406175836858</v>
+        <v>0.02288693541204247</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06692324063353865</v>
+        <v>0.0901798697988118</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08724184304971623</v>
+        <v>0.0382149149252206</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.007515510448272666</v>
+        <v>0.0547157552332885</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01221195755153985</v>
+        <v>0.06119767847900701</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06981592446230556</v>
+        <v>0.03419785212837735</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0008833760022103855</v>
+        <v>0.004292428766827045</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08019992411454671</v>
+        <v>0.0604821520769524</v>
       </c>
       <c r="V2" t="n">
-        <v>0.005027534915224428</v>
+        <v>0.01150864282883778</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0643157422705499</v>
+        <v>0.09226543026319851</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05364265937784645</v>
+        <v>0.003869486931683702</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.05201421529994168</v>
+        <v>0.06614797839369677</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08276538485474522</v>
+        <v>0.08045545610572291</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04585125885414529</v>
+        <v>0.03571906533233421</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03808701899451104</v>
+        <v>0.01863534180451786</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.08308931005344787</v>
+        <v>0.08115769241758861</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1363350920057368</v>
+        <v>0.136471281696222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02615272952840963</v>
+        <v>0.0288516353726182</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006344543616290905</v>
+        <v>0.01687277491372145</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05675243903254144</v>
+        <v>0.02074194076424227</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09331375578266154</v>
+        <v>0.09107865207046062</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02205429204751442</v>
+        <v>0.04387925266964161</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03465448175136532</v>
+        <v>0.03875149602526061</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01135212393573424</v>
+        <v>0.01694297339917124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07873087668012883</v>
+        <v>0.08685857403907998</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06664025993673796</v>
+        <v>0.06544250642784176</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0009213121628117728</v>
+        <v>0.006523822129154459</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08316369119215886</v>
+        <v>0.01459948608820391</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01683726983824743</v>
+        <v>0.01689427068117508</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00181306828867989</v>
+        <v>0.08289883972924722</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06536204964598213</v>
+        <v>0.0236466457869178</v>
       </c>
       <c r="T3" t="n">
-        <v>0.009024790566806672</v>
+        <v>0.005669850510015101</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08343753271584722</v>
+        <v>0.07148492918369341</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06908294317121021</v>
+        <v>0.06195441327181447</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03378623580881027</v>
+        <v>0.09642018224598614</v>
       </c>
       <c r="X3" t="n">
-        <v>0.009659466904175937</v>
+        <v>0.01309545153119274</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0678302799064415</v>
+        <v>0.05678585918955161</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06718063068747734</v>
+        <v>0.03907232976068967</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.002406821377941489</v>
+        <v>0.01206147058892969</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.09349840542202521</v>
+        <v>0.08947264362139104</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09721960756864051</v>
+        <v>0.117034059137713</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1602111655266611</v>
+        <v>0.1588836979298545</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04077985496349695</v>
+        <v>0.003762807718070356</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04632161258475825</v>
+        <v>0.02425368161836821</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0899656394087083</v>
+        <v>0.0727226861393479</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07793370824486402</v>
+        <v>0.04082520888046862</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09947768358728191</v>
+        <v>0.08875351879230094</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02102583884550493</v>
+        <v>0.009806922208739336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01156118739474813</v>
+        <v>0.001044453062870332</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005791689742136211</v>
+        <v>0.01134399155526241</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01763441720776846</v>
+        <v>0.05774226598932994</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01625314886333221</v>
+        <v>0.03940547965432548</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09659753647435022</v>
+        <v>0.05113626965186576</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04611447667250282</v>
+        <v>0.04138412646194148</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02705931433750339</v>
+        <v>0.02052430284627872</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02531570009581259</v>
+        <v>0.03600777841031152</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06117356212929221</v>
+        <v>0.0726513790875734</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03096923527660542</v>
+        <v>0.02319023026544135</v>
       </c>
       <c r="V4" t="n">
-        <v>0.00747627052878226</v>
+        <v>0.04616143962100563</v>
       </c>
       <c r="W4" t="n">
-        <v>0.07895085711191645</v>
+        <v>0.05554963150882603</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06958425076767313</v>
+        <v>0.09156369024553064</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05581425468393308</v>
+        <v>0.04001874470242505</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03778858237553267</v>
+        <v>0.08293062518357394</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03157804765479222</v>
+        <v>0.08783936043618081</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.004833131048704223</v>
+        <v>0.001381405959962149</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0004402103815455225</v>
+        <v>-0.02036349073736977</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1735914890151523</v>
+        <v>0.1936731607751423</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02416778909884498</v>
+        <v>0.004807059784186</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03254527601363502</v>
+        <v>0.0139786663541389</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05721490435245885</v>
+        <v>0.06309256106624335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08717088160959689</v>
+        <v>0.1232769617415067</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08793164901908027</v>
+        <v>0.05174558979196522</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005912876818299278</v>
+        <v>0.01707729074045713</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004847530938949141</v>
+        <v>0.005717661071081161</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03015418688782998</v>
+        <v>0.0757013842731428</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09157610690172176</v>
+        <v>0.1235731793590381</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02794802446794357</v>
+        <v>0.07169492348308609</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0116928826046797</v>
+        <v>0.004744020500377385</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05889544581391909</v>
+        <v>0.07893837371449275</v>
       </c>
       <c r="R5" t="n">
-        <v>0.003466218464586445</v>
+        <v>0.01659363138009528</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06550026009340952</v>
+        <v>0.01158425953708981</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05543396563336413</v>
+        <v>0.06229721098435172</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06578166891922918</v>
+        <v>0.09793039504604745</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06736148423175251</v>
+        <v>0.04351374683699076</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02350081557824223</v>
+        <v>0.01017040332500456</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0137541276335261</v>
+        <v>0.04490157972839804</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07085220225084526</v>
+        <v>0.03318841096731405</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.06608087088194421</v>
+        <v>0.02399307665766897</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03449364808331536</v>
+        <v>0.001607378425769586</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01371718370282646</v>
+        <v>0.01987223523155393</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.03320425156192901</v>
+        <v>-0.07276019025014524</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.130656995617989</v>
+        <v>0.1321214834805425</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08744609723016637</v>
+        <v>0.08587521316591738</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01674810913583056</v>
+        <v>0.01562592313957956</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001343428781765717</v>
+        <v>0.03205575401362556</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001837253706709587</v>
+        <v>0.008393850067332431</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08789239387659045</v>
+        <v>0.03729433032905224</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01109664765681627</v>
+        <v>0.01549371195960627</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04056388492966657</v>
+        <v>0.0008463738755288323</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01059959902496891</v>
+        <v>0.002147478676293907</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01149444700221015</v>
+        <v>0.03601435288118564</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08234456994542959</v>
+        <v>0.06739385282737663</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04062726753921967</v>
+        <v>0.06578363844798918</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04648529199651948</v>
+        <v>0.06332316563657923</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08860744348693166</v>
+        <v>0.07048572992842665</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04914449796288929</v>
+        <v>0.07120224025780204</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003794957589452064</v>
+        <v>0.071651745466949</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09113338650450052</v>
+        <v>0.0410367906445579</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03107740953294046</v>
+        <v>0.02232061826628486</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04073014340106519</v>
+        <v>0.05354927949940293</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09466486568547397</v>
+        <v>0.03074454107683563</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.06199628693904009</v>
+        <v>0.07889101105213688</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.075781691645863</v>
+        <v>0.03305598182955709</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02068788795750257</v>
+        <v>0.06117599923147385</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.003902438468447791</v>
+        <v>0.03563841772650623</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0359111949920837</v>
+        <v>0.05313627488391683</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1455654914616717</v>
+        <v>0.1491575445679984</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09303849431140251</v>
+        <v>0.001244146486589172</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02843700399250035</v>
+        <v>0.00971128518146862</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02951013728996283</v>
+        <v>0.0753624591392074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06154292088642281</v>
+        <v>0.01050063193189064</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0255126933524296</v>
+        <v>0.01730578556183849</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03887300694284884</v>
+        <v>0.01391369694163926</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03851797877523783</v>
+        <v>0.09651787547785355</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01077169645475289</v>
+        <v>0.008054774234293753</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01237909025999534</v>
+        <v>0.03378215414750086</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01245963238450343</v>
+        <v>0.05132848271339222</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01659651160487376</v>
+        <v>0.01777325016099945</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09977734722992028</v>
+        <v>0.08794034556230496</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02748491808238069</v>
+        <v>0.08009367244621686</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06137150850930526</v>
+        <v>0.09833687317295112</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05599287758183599</v>
+        <v>0.007780374399876654</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04848340893238324</v>
+        <v>0.05577760254671764</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04487021904105806</v>
+        <v>0.06207522767438294</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07022008047044093</v>
+        <v>0.05514461198608457</v>
       </c>
       <c r="X7" t="n">
-        <v>0.005080595815045568</v>
+        <v>0.007808232444156105</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06311750580834724</v>
+        <v>0.01551314676043772</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01034786617511116</v>
+        <v>0.03907898926785568</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03028957236607438</v>
+        <v>0.04965851200917126</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.115324933733167</v>
+        <v>0.1052978697531712</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.04482208599052571</v>
+        <v>0.02226126798619579</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1354745275212708</v>
+        <v>0.1358015995216365</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06039440692224905</v>
+        <v>0.0691678206821419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06844799791904869</v>
+        <v>0.03360367663297199</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001383681869377105</v>
+        <v>0.02676964231298613</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0697309507069903</v>
+        <v>0.0553357499394418</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08028713440084893</v>
+        <v>0.1105129769382776</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00247233578030694</v>
+        <v>0.003340150729172434</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005530375778174089</v>
+        <v>0.006427731152988061</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0172822363092613</v>
+        <v>0.01162425516670889</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0564918953294933</v>
+        <v>0.02055255134381402</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07460379611419607</v>
+        <v>0.08166240378067208</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07801012614779157</v>
+        <v>0.09603852303133144</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.009028352459775407</v>
+        <v>0.005340362989936309</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06828437553201176</v>
+        <v>0.02459580494273603</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07042280140510537</v>
+        <v>0.0318985778393224</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03839985007954657</v>
+        <v>0.04148863249558288</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06162171813307803</v>
+        <v>0.07449906546403635</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03712737450274477</v>
+        <v>0.07507143791186867</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05833271491358852</v>
+        <v>0.0300236439440405</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01542910160731314</v>
+        <v>0.001790701216276003</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03644060638243604</v>
+        <v>0.02244224241370547</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.07109756621497211</v>
+        <v>0.08118659178178998</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00150372618736257</v>
+        <v>0.02368162490561547</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0176768753043284</v>
+        <v>0.07294583238458352</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.1377560757929763</v>
+        <v>-0.1548435155927191</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1563514796770494</v>
+        <v>0.161125769010768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04189208082029667</v>
+        <v>0.03623320263436983</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01273781347188668</v>
+        <v>0.02648712916743433</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005649155975422791</v>
+        <v>0.04760174989525904</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1141897023306971</v>
+        <v>0.088878739523454</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04848963036122906</v>
+        <v>0.01020408263634429</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02415873652699151</v>
+        <v>0.01066700587157455</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003389158251855815</v>
+        <v>0.02894546691294028</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001350250429406602</v>
+        <v>0.06547808027121471</v>
       </c>
       <c r="N9" t="n">
-        <v>0.06026869355926517</v>
+        <v>0.002593015932417875</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0200317974727369</v>
+        <v>0.01538936541027305</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04138359345357705</v>
+        <v>0.02796802776361359</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07771484661466718</v>
+        <v>0.02348598243863509</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1039660582992056</v>
+        <v>0.01373053517273217</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05420025986968039</v>
+        <v>0.0404372403590548</v>
       </c>
       <c r="T9" t="n">
-        <v>0.003487848338628113</v>
+        <v>0.1013860669107695</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04608383840524697</v>
+        <v>0.07945199381348719</v>
       </c>
       <c r="V9" t="n">
-        <v>0.006424697892209994</v>
+        <v>0.03231286125563357</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05034685632158404</v>
+        <v>0.08027042601317086</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01786262132240836</v>
+        <v>0.04913097482271373</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04067569048143402</v>
+        <v>0.01752898519975224</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01501823612250149</v>
+        <v>0.002437563774737939</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.09746788247499762</v>
+        <v>0.1020809075356229</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1132105512040709</v>
+        <v>0.09730059668479439</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1290507309984819</v>
+        <v>-0.1355902049952745</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1593166819107719</v>
+        <v>0.1621975945493736</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06303242957826591</v>
+        <v>0.01285208389581597</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03991383112543787</v>
+        <v>0.003039287384241658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06931534376523672</v>
+        <v>0.1148173520382509</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06458026807844558</v>
+        <v>0.03502434456635967</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001142044173067225</v>
+        <v>0.014437507421749</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01548546416902844</v>
+        <v>0.01869535283190817</v>
       </c>
       <c r="L10" t="n">
-        <v>0.009438316276753716</v>
+        <v>0.01565628909988767</v>
       </c>
       <c r="M10" t="n">
-        <v>5.94050921474781e-05</v>
+        <v>0.0004832241840373623</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001839922180290207</v>
+        <v>0.002292933266051339</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09665775384053824</v>
+        <v>0.1083152176639378</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08279798798086839</v>
+        <v>0.05224359078364875</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02456178830967027</v>
+        <v>0.02791358634522127</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0695280922825631</v>
+        <v>0.09844290823797314</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03010677321752079</v>
+        <v>0.003073223733892203</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03961349687340378</v>
+        <v>0.02245669756325996</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01827794319596453</v>
+        <v>0.0613769135230891</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01832401949041501</v>
+        <v>0.05955698648519431</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07620909968212689</v>
+        <v>0.01343590641434793</v>
       </c>
       <c r="X10" t="n">
-        <v>0.07248014138110695</v>
+        <v>0.05283029705001503</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.009212736126733562</v>
+        <v>0.06241887137091277</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07898492255304743</v>
+        <v>0.07271090684390707</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02746486453968123</v>
+        <v>0.0631176162882874</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.09097335608768649</v>
+        <v>0.08480890300801171</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.07074049593626225</v>
+        <v>-0.06593626870677871</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1788269966531702</v>
+        <v>0.1736101575097944</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0469369822965927</v>
+        <v>0.1046912353887977</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02584929636213803</v>
+        <v>0.007012604457317567</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09850191199985159</v>
+        <v>0.09820848359559953</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0926167124636544</v>
+        <v>0.09427237110228034</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0330003713205228</v>
+        <v>0.03002393968205085</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01973958394106704</v>
+        <v>0.0399420566775482</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02519537894383969</v>
+        <v>0.006269899608431576</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03387293106636892</v>
+        <v>0.01073697756210119</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01395531633266575</v>
+        <v>0.01773832324902771</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02964987952248433</v>
+        <v>0.005150350774929716</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03795025128283625</v>
+        <v>0.0917953962247914</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005809702238233841</v>
+        <v>0.02974992288066245</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07326186640008223</v>
+        <v>0.07647318889975689</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07965776333190926</v>
+        <v>0.02394689616799158</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02239918784499887</v>
+        <v>0.05526361318919314</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01137605102436102</v>
+        <v>0.06350704041107989</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0112146091410431</v>
+        <v>0.0007403371615434369</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03542026157257203</v>
+        <v>0.05523264659900196</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03010096310129558</v>
+        <v>0.007236023272943396</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.08310745848559863</v>
+        <v>0.002484947323985979</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.002896357301072482</v>
+        <v>0.03619143829026747</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.09203315908837052</v>
+        <v>0.07131020903401082</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.09545400493844092</v>
+        <v>0.07202209844668711</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.07748507297376546</v>
+        <v>-0.06650545617957808</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1751164027660095</v>
+        <v>0.1789395343643473</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02726057000800464</v>
+        <v>0.0130548229727576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01302736527522379</v>
+        <v>0.0002585376255555418</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08710274778653759</v>
+        <v>0.07352175796538792</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01032644665772754</v>
+        <v>0.08735519537917322</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02226262263122838</v>
+        <v>0.04778289750303605</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01586504553778837</v>
+        <v>0.02859353970542107</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05091114376732027</v>
+        <v>0.02901133675722651</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005852169642552509</v>
+        <v>0.0472259688225347</v>
       </c>
       <c r="N12" t="n">
-        <v>0.002884003104645061</v>
+        <v>0.00706298133515617</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02047565435400859</v>
+        <v>0.005749096411465615</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05443195900234531</v>
+        <v>0.08394697710415136</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004969590944336027</v>
+        <v>0.003284547569611708</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09289027422399011</v>
+        <v>0.08281464309704853</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09876247863098313</v>
+        <v>0.06607129018690622</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04457299101275949</v>
+        <v>0.07439153787674031</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05333461765900828</v>
+        <v>0.06140447047688098</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00160552722849711</v>
+        <v>0.006024542802354366</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0854074092275129</v>
+        <v>0.08876309744614647</v>
       </c>
       <c r="X12" t="n">
-        <v>0.03507198641448147</v>
+        <v>0.08364050556054745</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0955084538735219</v>
+        <v>0.01227093484661252</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1007472735151259</v>
+        <v>0.07684911619604863</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03664662923766428</v>
+        <v>0.00982134427597197</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.04008304026473732</v>
+        <v>0.01110085808326523</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.334566248127576</v>
+        <v>-0.3161817590787152</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2359255370148459</v>
+        <v>0.2297448572715543</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06926385743632912</v>
+        <v>0.08792960208497812</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02571506231787062</v>
+        <v>0.1010323510947951</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08100628060207772</v>
+        <v>0.09554269237187588</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05185668723242279</v>
+        <v>0.1040164501555667</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02703959246437744</v>
+        <v>0.006934214132657787</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03628100517461474</v>
+        <v>0.0002767413336060812</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08631331351031192</v>
+        <v>0.08720376225534097</v>
       </c>
       <c r="M13" t="n">
-        <v>0.05399763518001483</v>
+        <v>0.05098168947858706</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00677252024500858</v>
+        <v>0.005502075680554515</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0002614713126297925</v>
+        <v>0.003447513281632392</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07064839343800831</v>
+        <v>0.0007227133842367906</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06100748027194867</v>
+        <v>0.07576074147655242</v>
       </c>
       <c r="R13" t="n">
-        <v>0.07579527834141424</v>
+        <v>0.1110181228996001</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01613191471585682</v>
+        <v>0.003398244792062344</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01654920798081209</v>
+        <v>0.00245823597017778</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004498908747906172</v>
+        <v>0.01140466372969784</v>
       </c>
       <c r="V13" t="n">
-        <v>0.002948008021527247</v>
+        <v>0.008978827900429184</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01175618021490644</v>
+        <v>0.02842274499567274</v>
       </c>
       <c r="X13" t="n">
-        <v>0.05772714376616208</v>
+        <v>0.04248085573836174</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01301991479079656</v>
+        <v>0.03042890758644235</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06196140240012617</v>
+        <v>0.0633871536397877</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.07937527715736854</v>
+        <v>0.002649291151089112</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09007346467750919</v>
+        <v>0.07602240486629518</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3830627980425494</v>
+        <v>-0.3663680869026293</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2580810880096887</v>
+        <v>0.2548412792272471</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03532732014958035</v>
+        <v>0.007236631450024893</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008392305442473618</v>
+        <v>0.008633743605045461</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07332587459773419</v>
+        <v>0.06057545637070059</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01487093639780537</v>
+        <v>0.04282556043055836</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08814005438585468</v>
+        <v>0.05750021466331041</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05127940113879807</v>
+        <v>0.02089937377112223</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04636579642233234</v>
+        <v>0.004996675223994627</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01237576000985039</v>
+        <v>0.01596313008645541</v>
       </c>
       <c r="N14" t="n">
-        <v>0.004277224393016366</v>
+        <v>0.005900184013902132</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05579037669782791</v>
+        <v>0.03055954906438167</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0701116026187788</v>
+        <v>0.04247824956002844</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01555250815011342</v>
+        <v>0.01328466316908748</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07599401459863132</v>
+        <v>0.08319057721893605</v>
       </c>
       <c r="S14" t="n">
-        <v>0.04565748469404527</v>
+        <v>0.08210096971093232</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02878132468010005</v>
+        <v>0.04581187954581921</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07277798067201348</v>
+        <v>0.07484917142250209</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001161694261369625</v>
+        <v>0.0100412211168328</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08628167478280295</v>
+        <v>0.08405418818039144</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07453503670209738</v>
+        <v>0.05921840728115135</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02184078111691318</v>
+        <v>0.06778683010736053</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06941407266605276</v>
+        <v>0.06913197259373856</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004847611516823381</v>
+        <v>0.03698176847020078</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.04289916390498506</v>
+        <v>0.0759795829435231</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.05920624720701838</v>
+        <v>-0.04651163650635912</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3559173815401072</v>
+        <v>0.3098195957457295</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01729870863407824</v>
+        <v>0.0008745597987612766</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03656974788621755</v>
+        <v>0.01095110752207514</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08005552884513116</v>
+        <v>0.03520199329398113</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04076529501763883</v>
+        <v>0.03322507025545423</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0958690734243044</v>
+        <v>0.1018283480743774</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01540014191886933</v>
+        <v>0.02141739724422538</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06157149645907325</v>
+        <v>0.105537693149838</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07233793225921421</v>
+        <v>0.03423895969296879</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02911805143471498</v>
+        <v>0.08580949572181813</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01696503956260292</v>
+        <v>0.007719254493556598</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0105762715143181</v>
+        <v>0.06345383318255801</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02423859892871726</v>
+        <v>0.009657857057327052</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0974604870727228</v>
+        <v>0.08784591505156528</v>
       </c>
       <c r="S15" t="n">
-        <v>0.009144615964907661</v>
+        <v>0.004054932194254797</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002116180871538825</v>
+        <v>0.004258901319743578</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01374526538920659</v>
+        <v>0.003134166145992587</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1134586011544551</v>
+        <v>0.04184478132240969</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01020105231260757</v>
+        <v>0.1109738485072325</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01527672742112836</v>
+        <v>0.04766545976200925</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01635001090603445</v>
+        <v>0.02544375020030576</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04824173757143578</v>
+        <v>0.06852201163390738</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.08447223807556083</v>
+        <v>0.05552548136200763</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.08876719737552208</v>
+        <v>0.04081518301363054</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.07339804979268105</v>
+        <v>0.03494418024063498</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2787510452212245</v>
+        <v>0.2816016446853108</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0328764614890598</v>
+        <v>0.06258019169849333</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07044868908042631</v>
+        <v>0.008584516680558854</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05348577623402808</v>
+        <v>0.04859764679305904</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07458040244338282</v>
+        <v>0.03858582780103562</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01301851481547867</v>
+        <v>0.01934158055075204</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02741057802369658</v>
+        <v>0.04082812499297876</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002301562327832673</v>
+        <v>0.0239608912318529</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03369234197250463</v>
+        <v>0.02165587691929407</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01524545172864375</v>
+        <v>0.02968930242796068</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06460067704035831</v>
+        <v>0.04803623193686737</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06232688942028099</v>
+        <v>0.06887043088557074</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001586411459592696</v>
+        <v>0.04115362628671268</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08208547444817402</v>
+        <v>0.06244355355051223</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07339886152176615</v>
+        <v>0.09307530505132543</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02561472037929271</v>
+        <v>0.03936238672678605</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06571757201999419</v>
+        <v>0.1004412853584389</v>
       </c>
       <c r="V16" t="n">
-        <v>0.005734506646370659</v>
+        <v>0.00331158373526342</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03153149015329411</v>
+        <v>0.08200471755558757</v>
       </c>
       <c r="X16" t="n">
-        <v>0.07680055071585193</v>
+        <v>0.05933196070777873</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.08052453877083507</v>
+        <v>0.05120794264107123</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08208239373004741</v>
+        <v>0.04680672713933118</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.002639482974252242</v>
+        <v>0.007115210211256173</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.02229665260483612</v>
+        <v>0.003015079117512938</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.110920695791647</v>
+        <v>0.1003747225743274</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.4288232680960488</v>
+        <v>0.4023426551618502</v>
       </c>
       <c r="F17" t="n">
-        <v>0.006785018881978507</v>
+        <v>0.006693288812106137</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0420369744565644</v>
+        <v>0.09656869669975747</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07473575160804925</v>
+        <v>0.01753111180314273</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06574395868402286</v>
+        <v>0.002801890619010615</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03551441485020637</v>
+        <v>0.05807508747251822</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0651531568482687</v>
+        <v>0.09495522114764543</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1196118027312491</v>
+        <v>0.07263185409016013</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01827340291331079</v>
+        <v>0.0137152896892482</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01311283481738217</v>
+        <v>0.04706241164866173</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006777247165617158</v>
+        <v>0.02621697458240844</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03526842059048958</v>
+        <v>0.000777101914636304</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04816731481768054</v>
+        <v>0.01215126429918549</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01749630627227771</v>
+        <v>0.08889273250859571</v>
       </c>
       <c r="S17" t="n">
-        <v>0.006308003462826725</v>
+        <v>0.00712958605177689</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01575738088418764</v>
+        <v>0.02190328423264136</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0191150185997391</v>
+        <v>0.01752980932383944</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1430872233604738</v>
+        <v>0.1083519544962266</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1089819326976312</v>
+        <v>0.03006162515967346</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01366388860849322</v>
+        <v>0.05399307762165575</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01608011623767159</v>
+        <v>0.02226219536472826</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.07120839740378533</v>
+        <v>0.105966415276208</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.002166083170020578</v>
+        <v>0.01399107161695623</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.05495535093807373</v>
+        <v>0.08073805556921768</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1817090918880243</v>
+        <v>0.1838908558506729</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2924518397716784</v>
+        <v>0.3030496737403252</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04288396138848768</v>
+        <v>0.04096096735367317</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0219090408479078</v>
+        <v>0.0268909333170597</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02526876353493039</v>
+        <v>0.08067697303344443</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07128745310296432</v>
+        <v>0.0415533387355906</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02374823074751455</v>
+        <v>0.03120114953725012</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01109586434990883</v>
+        <v>0.03018275164554092</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03322815688336458</v>
+        <v>0.02619563605169336</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0196997887013728</v>
+        <v>0.009094404873024497</v>
       </c>
       <c r="N18" t="n">
-        <v>0.007916493675182648</v>
+        <v>0.005397051140774938</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0006808947627578169</v>
+        <v>0.0690402342362309</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07781043873931952</v>
+        <v>0.09583466622867784</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005154351717988899</v>
+        <v>0.008166423616139009</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1246725813243776</v>
+        <v>0.0783600025745317</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01063578426849983</v>
+        <v>0.04592314833290514</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07304681349248736</v>
+        <v>0.01253414637914313</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0091542711009158</v>
+        <v>0.04192774572074288</v>
       </c>
       <c r="V18" t="n">
-        <v>0.007455336504298974</v>
+        <v>0.01844522025684362</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1218450561333999</v>
+        <v>0.04010312991417466</v>
       </c>
       <c r="X18" t="n">
-        <v>0.07935520049498587</v>
+        <v>0.08847921520416302</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.04572171269500362</v>
+        <v>0.06135118575189931</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1012477297551028</v>
+        <v>0.1068098632076522</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.04738887689722495</v>
+        <v>0.005734491446066788</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.03879319888200375</v>
+        <v>0.03513732144277817</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1224566233151485</v>
+        <v>0.1296040433581075</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.4293983595388382</v>
+        <v>0.3958720690024767</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03361950236280278</v>
+        <v>0.05465477559720187</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03619998581872899</v>
+        <v>0.036542506758994</v>
       </c>
       <c r="H19" t="n">
-        <v>0.009554819953189728</v>
+        <v>0.01730049176405187</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03302707404750483</v>
+        <v>0.03930012023508192</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06436824209883768</v>
+        <v>0.04536269326162612</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01880636909950248</v>
+        <v>0.03370134866291175</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02370344228565501</v>
+        <v>0.006615099386541016</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0105839232917372</v>
+        <v>0.03882147826826073</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09413760194299385</v>
+        <v>0.03520773490882434</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06433645548725264</v>
+        <v>0.03265133621643313</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0289930690413763</v>
+        <v>0.01990958607934321</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0277281450341086</v>
+        <v>0.02389445841869328</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06321613038580143</v>
+        <v>0.01055594407740149</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0119433198427021</v>
+        <v>0.07141900960056929</v>
       </c>
       <c r="T19" t="n">
-        <v>0.03096451706941193</v>
+        <v>0.04411174108512956</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03868266225555039</v>
+        <v>0.07721147861456593</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1326194686010531</v>
+        <v>0.1140386699552148</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01356998136443427</v>
+        <v>0.01037792118440553</v>
       </c>
       <c r="X19" t="n">
-        <v>0.09667056186551676</v>
+        <v>0.1110109857336631</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.03206649116800803</v>
+        <v>0.02385627007091038</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.09449217399271388</v>
+        <v>0.0631692767480475</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01827517849005313</v>
+        <v>0.004461388864674987</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02244088450106508</v>
+        <v>0.08582568450745404</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1094309667565323</v>
+        <v>0.1287065971766345</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2799060044202127</v>
+        <v>0.2692090507106271</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04067433320850857</v>
+        <v>0.01558258022371523</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02621642085586877</v>
+        <v>0.008479477977950792</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02444988270509257</v>
+        <v>0.06315046064127484</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06919993943546821</v>
+        <v>0.05486586491946181</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02814127565371709</v>
+        <v>0.01068952363330377</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001894432273566482</v>
+        <v>0.002884249635338856</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01695347502698894</v>
+        <v>0.01152800281809104</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0006126349994440787</v>
+        <v>0.01007803293163459</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02895212782639974</v>
+        <v>0.009072674273300066</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007085955570323031</v>
+        <v>0.01531471111505711</v>
       </c>
       <c r="P20" t="n">
-        <v>0.07449739609391633</v>
+        <v>0.00124495797574622</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09822478926889579</v>
+        <v>0.07073151112704874</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08372688184723109</v>
+        <v>0.09440796411376096</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05757119585226169</v>
+        <v>0.07110932000277499</v>
       </c>
       <c r="T20" t="n">
-        <v>0.009354304689823855</v>
+        <v>0.04263993618352391</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06544913429133865</v>
+        <v>0.1044557855053967</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01591475583573037</v>
+        <v>0.01289087735185947</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07294310962764608</v>
+        <v>0.1095016714000942</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05286790397082027</v>
+        <v>0.03288809676845186</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02529269375142562</v>
+        <v>0.02815521182583426</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.03670056602311848</v>
+        <v>0.0995276312773329</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0718021336265921</v>
+        <v>0.06037664922138235</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0914746575658221</v>
+        <v>0.07042480907766532</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.02966964178956582</v>
+        <v>0.03553634587461138</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3513800216762443</v>
+        <v>0.3610035853913848</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02387398445225085</v>
+        <v>0.05675030148923332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02242592084739186</v>
+        <v>0.0254239879566159</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1233887651080953</v>
+        <v>0.05909067221502477</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08039566879418103</v>
+        <v>0.009201791052192267</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09179579261104136</v>
+        <v>0.01970493088831029</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02490856256745263</v>
+        <v>0.06838408441528643</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005726137078720528</v>
+        <v>0.07494295505627573</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1166314492179119</v>
+        <v>0.04667038579224631</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02125424371749234</v>
+        <v>0.04329626924636026</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003172234416045728</v>
+        <v>0.01061039668720436</v>
       </c>
       <c r="P21" t="n">
-        <v>0.06460067837110388</v>
+        <v>0.01557381765924949</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002061216160262759</v>
+        <v>0.004331923031893057</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0151007306975632</v>
+        <v>0.01169885814540639</v>
       </c>
       <c r="S21" t="n">
-        <v>0.003839488759291634</v>
+        <v>0.0393984941535636</v>
       </c>
       <c r="T21" t="n">
-        <v>0.008109957365587672</v>
+        <v>0.009836506508730908</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03845794944340827</v>
+        <v>0.05084127315484466</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1297665340429766</v>
+        <v>0.1401575308168461</v>
       </c>
       <c r="W21" t="n">
-        <v>0.008087048694055807</v>
+        <v>0.01681850485586129</v>
       </c>
       <c r="X21" t="n">
-        <v>0.08939791458210372</v>
+        <v>0.05710834110459929</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.009326020442606334</v>
+        <v>0.07612176792973648</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01513331758437361</v>
+        <v>0.09935037770391585</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.003913998301206172</v>
+        <v>0.01893406777995097</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.09863238674487675</v>
+        <v>0.04575276235665216</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.04921715202759135</v>
+        <v>0.07429486866570362</v>
       </c>
     </row>
     <row r="22">
@@ -2495,76 +2495,76 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3001210365658845</v>
+        <v>0.3047084446718678</v>
       </c>
       <c r="F22" t="n">
-        <v>0.009363342334488045</v>
+        <v>0.002835850062482144</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05985410539254316</v>
+        <v>0.05314680417060205</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02706051118404968</v>
+        <v>0.02320968159988715</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06811579208057859</v>
+        <v>0.06509662419721866</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05526956675454566</v>
+        <v>0.1028393683860463</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02843522178774662</v>
+        <v>0.02405630026834536</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001817200485681179</v>
+        <v>0.02837663376192546</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02593435483343851</v>
+        <v>0.007287836391507975</v>
       </c>
       <c r="N22" t="n">
-        <v>0.007704082734337119</v>
+        <v>0.01265640337630549</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04504369357493301</v>
+        <v>0.01285420116677335</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07000266890158849</v>
+        <v>0.06391887614612049</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07331315670997142</v>
+        <v>0.02398335874290254</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1078448876243338</v>
+        <v>0.09841412023050693</v>
       </c>
       <c r="S22" t="n">
-        <v>0.07027324162927956</v>
+        <v>0.1046326170449796</v>
       </c>
       <c r="T22" t="n">
-        <v>0.06618996903580589</v>
+        <v>0.01922077162608133</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1019697615479512</v>
+        <v>0.08791428587953755</v>
       </c>
       <c r="V22" t="n">
-        <v>0.02781925539699406</v>
+        <v>0.01940221074559252</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01396611007091368</v>
+        <v>0.1062347187330549</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06343771652215793</v>
+        <v>0.008393610641364244</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03475106685138967</v>
+        <v>0.0199940710405456</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.02182022159226641</v>
+        <v>0.01233414497904557</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01841142082883011</v>
+        <v>0.04482445211668153</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.001602652126176044</v>
+        <v>0.05837305869249327</v>
       </c>
       <c r="AC22" t="inlineStr"/>
     </row>
@@ -2588,76 +2588,76 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3846809181616228</v>
+        <v>0.3789221260089721</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0106083954701015</v>
+        <v>0.02632176801054002</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01979908046065095</v>
+        <v>0.02430357407721897</v>
       </c>
       <c r="H23" t="n">
-        <v>0.005213801816348577</v>
+        <v>0.01181396026929381</v>
       </c>
       <c r="I23" t="n">
-        <v>0.05922755370535023</v>
+        <v>0.05900045052932451</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01479481065551428</v>
+        <v>0.0449959255239716</v>
       </c>
       <c r="K23" t="n">
-        <v>0.004894322720673357</v>
+        <v>0.03315950430223368</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02020480818720588</v>
+        <v>0.03440754694520227</v>
       </c>
       <c r="M23" t="n">
-        <v>2.028387691114426e-05</v>
+        <v>0.01473505196790224</v>
       </c>
       <c r="N23" t="n">
-        <v>0.07838422259839463</v>
+        <v>0.07323765275575921</v>
       </c>
       <c r="O23" t="n">
-        <v>0.08263118571712952</v>
+        <v>0.006292009003061906</v>
       </c>
       <c r="P23" t="n">
-        <v>0.04640052745091788</v>
+        <v>0.002382214845521885</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02212365729060066</v>
+        <v>0.09033759955465771</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04560527658674324</v>
+        <v>0.04040552552597644</v>
       </c>
       <c r="S23" t="n">
-        <v>0.002027620818705518</v>
+        <v>0.03434955603977698</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1125109285005925</v>
+        <v>0.0430021715558155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0922270006337193</v>
+        <v>0.09750304451652049</v>
       </c>
       <c r="V23" t="n">
-        <v>0.1074797030282278</v>
+        <v>0.1012547555853176</v>
       </c>
       <c r="W23" t="n">
-        <v>0.004896040993521959</v>
+        <v>0.01844575233221194</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01905252348265804</v>
+        <v>0.02916337254682274</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.05282971475265428</v>
+        <v>0.04758748933121527</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.07816680184752239</v>
+        <v>0.07823724379588248</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.04340555084541928</v>
+        <v>0.01951280680423312</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0774961885604372</v>
+        <v>0.06955102418153948</v>
       </c>
       <c r="AC23" t="inlineStr"/>
     </row>
@@ -2681,79 +2681,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2742290971310604</v>
+        <v>0.2762765707289308</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007714749246762326</v>
+        <v>0.04833233816587072</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0384724708497765</v>
+        <v>0.03131346021366557</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01963967003296755</v>
+        <v>0.002939104494288817</v>
       </c>
       <c r="I24" t="n">
-        <v>0.08625567626761665</v>
+        <v>0.07769794384605039</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00906608815758269</v>
+        <v>0.06496516419468172</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02782044001895078</v>
+        <v>0.03359382518563499</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01581531946326324</v>
+        <v>0.02559054425461374</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01800101699692802</v>
+        <v>0.02500424207759924</v>
       </c>
       <c r="N24" t="n">
-        <v>0.005201148623505719</v>
+        <v>0.01141833784465232</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008784632383158662</v>
+        <v>0.01275352827271582</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08708053547845838</v>
+        <v>0.08986557731957444</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03316156289860878</v>
+        <v>0.003566814033189947</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02933994647259965</v>
+        <v>0.1099063120305966</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04217089007659008</v>
+        <v>0.04518899129485079</v>
       </c>
       <c r="T24" t="n">
-        <v>0.002577818094560088</v>
+        <v>0.002748981793175908</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1176537861377804</v>
+        <v>0.002518454422790319</v>
       </c>
       <c r="V24" t="n">
-        <v>0.003958639949685866</v>
+        <v>0.00956253052101896</v>
       </c>
       <c r="W24" t="n">
-        <v>0.08308143139229221</v>
+        <v>0.07479276572132916</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04983440706139753</v>
+        <v>0.05611417694821419</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0717294696897274</v>
+        <v>0.1233651174610235</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06748299237192505</v>
+        <v>0.05940600136834099</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.07730888876822534</v>
+        <v>0.02817443608479046</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.09784841956763714</v>
+        <v>0.06118135245133104</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1051369062798152</v>
+        <v>0.07360093579903874</v>
       </c>
     </row>
     <row r="25">
@@ -2776,79 +2776,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.3336828487448932</v>
+        <v>0.3516264606005503</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00294780694995873</v>
+        <v>0.005054462527810145</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01618274319122271</v>
+        <v>0.02164724595721186</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05608666950508368</v>
+        <v>0.009571164213545792</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04575819008865686</v>
+        <v>0.06621753997085036</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03386104713283333</v>
+        <v>0.1109476635680493</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07671134272956873</v>
+        <v>0.0420018793808714</v>
       </c>
       <c r="L25" t="n">
-        <v>0.05451139666326558</v>
+        <v>0.02103700516766634</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05061025523364351</v>
+        <v>0.05362287294007802</v>
       </c>
       <c r="N25" t="n">
-        <v>0.007614396008213466</v>
+        <v>0.06660677646181988</v>
       </c>
       <c r="O25" t="n">
-        <v>0.04380010726068737</v>
+        <v>0.08309143728046003</v>
       </c>
       <c r="P25" t="n">
-        <v>0.05489157943954405</v>
+        <v>0.09076272605594178</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01012700812758908</v>
+        <v>0.01191806380598859</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0833783371602856</v>
+        <v>0.0122848912557821</v>
       </c>
       <c r="S25" t="n">
-        <v>0.03027224948717105</v>
+        <v>0.03866702185464443</v>
       </c>
       <c r="T25" t="n">
-        <v>0.04838839097677866</v>
+        <v>0.02752604198804771</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1029358311100026</v>
+        <v>0.004512080706359396</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1194756090295328</v>
+        <v>0.1124591309772098</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01040504021559086</v>
+        <v>0.007503093609501565</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0127533751051586</v>
+        <v>0.01436909123911573</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01270135279918026</v>
+        <v>0.001872145471983072</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.06608578782686078</v>
+        <v>0.09158823380518061</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0006366791340917517</v>
+        <v>0.00323026768724344</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.05986480482507985</v>
+        <v>0.1035091640746386</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1715619139815756</v>
+        <v>0.151198295228831</v>
       </c>
     </row>
     <row r="26">
@@ -2871,79 +2871,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1991284261676724</v>
+        <v>0.2012376925790239</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01162791439010515</v>
+        <v>0.05492062202418396</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08942905915575802</v>
+        <v>0.0001970255592083484</v>
       </c>
       <c r="H26" t="n">
-        <v>0.036252232706668</v>
+        <v>0.0665926360535979</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04828665010153017</v>
+        <v>0.06798126058303375</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02880637691208533</v>
+        <v>0.04709964696829135</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01070289580095295</v>
+        <v>0.001944327670219408</v>
       </c>
       <c r="L26" t="n">
-        <v>0.043380603271768</v>
+        <v>0.01422718167413609</v>
       </c>
       <c r="M26" t="n">
-        <v>0.03367546419238684</v>
+        <v>0.07128866959578418</v>
       </c>
       <c r="N26" t="n">
-        <v>0.006402964280374915</v>
+        <v>0.01197781679398523</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01339145060914565</v>
+        <v>0.04573410183930311</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07703871751301646</v>
+        <v>0.04111819999282672</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.05515619438431747</v>
+        <v>0.07260057033009881</v>
       </c>
       <c r="R26" t="n">
-        <v>0.05914043902402176</v>
+        <v>0.07358099111731331</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06000163180959612</v>
+        <v>0.07776911966741891</v>
       </c>
       <c r="T26" t="n">
-        <v>0.009095697336447913</v>
+        <v>0.01976441138905302</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0632472287619042</v>
+        <v>0.04926733485152618</v>
       </c>
       <c r="V26" t="n">
-        <v>0.006143147443050155</v>
+        <v>0.008349878006662615</v>
       </c>
       <c r="W26" t="n">
-        <v>0.09183446792872435</v>
+        <v>0.08040393324089354</v>
       </c>
       <c r="X26" t="n">
-        <v>0.06203640372917095</v>
+        <v>0.05869649802330378</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04687082372521553</v>
+        <v>0.03709488474352925</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07655669997693416</v>
+        <v>0.02691448025494417</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0271332121544085</v>
+        <v>0.01956402404503816</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.04378972479241752</v>
+        <v>0.05291238557564829</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.08305732824973198</v>
+        <v>0.07258594491379972</v>
       </c>
     </row>
     <row r="27">
@@ -2966,79 +2966,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2485845629825574</v>
+        <v>0.2626950883123093</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04790270886462467</v>
+        <v>0.06404804230340022</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07868961492489265</v>
+        <v>0.03816173999990579</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05998602037143331</v>
+        <v>0.02097223453417718</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03800354347055279</v>
+        <v>0.006425838992323187</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09377313118887486</v>
+        <v>0.08807050682039758</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01944321347323627</v>
+        <v>0.07179827340448365</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03597187603700757</v>
+        <v>0.05633992462953832</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05049519318277509</v>
+        <v>0.03987924649819721</v>
       </c>
       <c r="N27" t="n">
-        <v>0.004063887998456705</v>
+        <v>0.01036724356310544</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02060113365169169</v>
+        <v>0.01329423903927716</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02210005712761238</v>
+        <v>0.06650367742263062</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02542360493532653</v>
+        <v>0.0006396965588691544</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07227537867632571</v>
+        <v>0.08399127434553968</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07464296712600453</v>
+        <v>0.07370582356777378</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02561786788136631</v>
+        <v>0.02678483003513123</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03134473818247725</v>
+        <v>0.06614313159257031</v>
       </c>
       <c r="V27" t="n">
-        <v>0.05050124997481288</v>
+        <v>0.05604078295411859</v>
       </c>
       <c r="W27" t="n">
-        <v>0.001410987871283158</v>
+        <v>0.03137662008030028</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02978827026498158</v>
+        <v>0.005178293686940612</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.001988013194087325</v>
+        <v>0.003421072512791049</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07155750262268454</v>
+        <v>0.04754182049745908</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.06037807500965661</v>
+        <v>0.05968664165558238</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.08404096396983546</v>
+        <v>0.06962904530548758</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.08376346503756751</v>
+        <v>0.08625796586418241</v>
       </c>
     </row>
     <row r="28">
@@ -3061,79 +3061,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1670394486488656</v>
+        <v>0.1642002315288517</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03389162870254497</v>
+        <v>0.05981873855980872</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01189865064773891</v>
+        <v>0.05633926295927134</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0009464106413833204</v>
+        <v>0.02523581689023563</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01421579948097894</v>
+        <v>0.03183127505322762</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02693103436123213</v>
+        <v>0.0260090896618861</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02090009687676304</v>
+        <v>0.004042086997884835</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02102112051350666</v>
+        <v>0.01050538924563537</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0315848849363787</v>
+        <v>0.04078793843055973</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02717318561478451</v>
+        <v>0.03592231149129387</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03722621649603635</v>
+        <v>0.008104205045342792</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08749189932685021</v>
+        <v>0.01949938305010179</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03788744520179324</v>
+        <v>0.06396208675504331</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06742537510671311</v>
+        <v>0.09474142383553756</v>
       </c>
       <c r="S28" t="n">
-        <v>0.07415752883766734</v>
+        <v>0.09310269444066294</v>
       </c>
       <c r="T28" t="n">
-        <v>0.003657233124462085</v>
+        <v>0.02934142182540613</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06506332492358993</v>
+        <v>0.09540634738027848</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05409686007339055</v>
+        <v>0.003510618780861543</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05394674157548402</v>
+        <v>0.08228137311598584</v>
       </c>
       <c r="X28" t="n">
-        <v>0.09192300561555172</v>
+        <v>0.01008112280357453</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1080428477522747</v>
+        <v>0.09690622138579709</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.08044404593892139</v>
+        <v>0.06980856592603742</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.02611159646107238</v>
+        <v>0.03744535413223481</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02396306779088178</v>
+        <v>0.005317272233332577</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.233730528774444</v>
+        <v>-0.239281318743601</v>
       </c>
     </row>
     <row r="29">
@@ -3156,79 +3156,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1803847434662617</v>
+        <v>0.214492191462687</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05289299748497351</v>
+        <v>0.07192075391100985</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005505261667513972</v>
+        <v>0.09465565999317607</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02549417732569847</v>
+        <v>0.08347257765399407</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05253668302524917</v>
+        <v>0.02333208997737485</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09416101124463555</v>
+        <v>0.05677653124685877</v>
       </c>
       <c r="K29" t="n">
-        <v>0.004885411386799809</v>
+        <v>0.01345526777247175</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03709625447446702</v>
+        <v>0.09452427652272857</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04208201262049735</v>
+        <v>0.02041814903895076</v>
       </c>
       <c r="N29" t="n">
-        <v>0.00348922091581913</v>
+        <v>0.006795998595122413</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01860379512344855</v>
+        <v>0.03193139553306485</v>
       </c>
       <c r="P29" t="n">
-        <v>0.05095257995747285</v>
+        <v>3.732642666599535e-06</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.009506676928216709</v>
+        <v>0.02476266384178156</v>
       </c>
       <c r="R29" t="n">
-        <v>0.08606940676492277</v>
+        <v>0.01718901270611632</v>
       </c>
       <c r="S29" t="n">
-        <v>0.09788097468186459</v>
+        <v>0.09334996654826468</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03748514455533125</v>
+        <v>0.006131758977593036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0992787956866578</v>
+        <v>0.05644693856087281</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1004937715792454</v>
+        <v>0.1011305041969198</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03260657781793443</v>
+        <v>0.01961461428545345</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01930660267052262</v>
+        <v>0.001240694147468395</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03533949881929056</v>
+        <v>0.01516268384510619</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.07564583751970475</v>
+        <v>0.07177741890653681</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.007039776584317079</v>
+        <v>0.05075949416221996</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01164753116541658</v>
+        <v>0.04514781693424842</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.1971505117558983</v>
+        <v>-0.2308367661083208</v>
       </c>
     </row>
     <row r="30">
@@ -3251,79 +3251,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1983118739310271</v>
+        <v>0.1988890530282236</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07819282161786145</v>
+        <v>0.08246886799317463</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01724444328948766</v>
+        <v>0.04459048044585719</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03524783631081607</v>
+        <v>0.02023753056097045</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002332933309363968</v>
+        <v>0.06986173145668079</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0300967895833389</v>
+        <v>0.04276080663967498</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03926704738489104</v>
+        <v>0.01382526045808262</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02340583516560816</v>
+        <v>0.01328440554086537</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01736265319720904</v>
+        <v>0.01162368025547287</v>
       </c>
       <c r="N30" t="n">
-        <v>0.08977722842549332</v>
+        <v>0.02068009666050059</v>
       </c>
       <c r="O30" t="n">
-        <v>0.07052190421436663</v>
+        <v>0.08219647358097432</v>
       </c>
       <c r="P30" t="n">
-        <v>0.08702769524891873</v>
+        <v>0.0868987116805203</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.06390996082343509</v>
+        <v>0.08060873311301819</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06555989137539331</v>
+        <v>0.01128517310267293</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03445176228120068</v>
+        <v>0.01680238184792785</v>
       </c>
       <c r="T30" t="n">
-        <v>0.001415266343951849</v>
+        <v>0.03989166565123004</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05097395802253327</v>
+        <v>0.03522313558614552</v>
       </c>
       <c r="V30" t="n">
-        <v>0.00827428795708662</v>
+        <v>0.0008685640723062996</v>
       </c>
       <c r="W30" t="n">
-        <v>0.08555477213593787</v>
+        <v>0.08746643548744937</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01293284845085982</v>
+        <v>0.08307859760936689</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01689228523051126</v>
+        <v>0.01038871188859883</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.09895142923953093</v>
+        <v>0.07954138007074436</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.001350602211427347</v>
+        <v>0.05047990496429949</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.06925574818077676</v>
+        <v>0.01593727133346609</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0595841106792093</v>
+        <v>0.06680726225209016</v>
       </c>
     </row>
     <row r="31">
@@ -3346,79 +3346,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2529694451394082</v>
+        <v>0.263732541649041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02084824778946602</v>
+        <v>0.005100978612938341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05600827709336122</v>
+        <v>0.01415797214630323</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0430214106353849</v>
+        <v>0.06362389548233544</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01442560587704387</v>
+        <v>0.01586955181396991</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09934977716828311</v>
+        <v>0.1200445087749732</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06228265810613771</v>
+        <v>0.1072494050223133</v>
       </c>
       <c r="L31" t="n">
-        <v>0.04093993053199451</v>
+        <v>0.04492884576331942</v>
       </c>
       <c r="M31" t="n">
-        <v>0.006884276785022242</v>
+        <v>0.03085083460883338</v>
       </c>
       <c r="N31" t="n">
-        <v>0.03077785608849354</v>
+        <v>0.005087237774196316</v>
       </c>
       <c r="O31" t="n">
-        <v>0.000246330771345096</v>
+        <v>0.04932022347627531</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02326672648991743</v>
+        <v>0.01093597206816064</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01062307567722025</v>
+        <v>0.007303041263368015</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01587534825214221</v>
+        <v>0.04945142963830692</v>
       </c>
       <c r="S31" t="n">
-        <v>0.03850553213997012</v>
+        <v>0.1163262592441637</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01011010622768978</v>
+        <v>0.01806032703384699</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04925745310495402</v>
+        <v>0.0267775781440806</v>
       </c>
       <c r="V31" t="n">
-        <v>0.08281063222131657</v>
+        <v>0.05220905427297558</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07101982319555122</v>
+        <v>0.01000740666340574</v>
       </c>
       <c r="X31" t="n">
-        <v>0.02171730831117368</v>
+        <v>0.0136993248695532</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.03318608271823677</v>
+        <v>0.05463956089947359</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.08405542060032063</v>
+        <v>0.0311285741989477</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.08476280088305531</v>
+        <v>0.05801020524969455</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.1000253193319196</v>
+        <v>0.09521781297856488</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.02919475751384818</v>
+        <v>0.01369019412764048</v>
       </c>
     </row>
     <row r="32">
@@ -3441,79 +3441,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1967067754074104</v>
+        <v>0.196808640596961</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06076338168506245</v>
+        <v>0.06410806624438729</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08104366468005732</v>
+        <v>0.03093351047122475</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01249567184845931</v>
+        <v>0.03338534861848483</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0766649281095486</v>
+        <v>0.05893080737900235</v>
       </c>
       <c r="J32" t="n">
-        <v>0.008817452891941245</v>
+        <v>0.01175338531297301</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001534678002583946</v>
+        <v>0.02858441686902544</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00497761082855409</v>
+        <v>0.03672194650384368</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01888168118324991</v>
+        <v>0.0600177069413745</v>
       </c>
       <c r="N32" t="n">
-        <v>0.00496598808635039</v>
+        <v>0.005365140356462565</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05950345205529144</v>
+        <v>0.01147031028641783</v>
       </c>
       <c r="P32" t="n">
-        <v>0.03299163245154089</v>
+        <v>0.09782452795857895</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.05073341591219064</v>
+        <v>0.01267751626586064</v>
       </c>
       <c r="R32" t="n">
-        <v>0.02021192506939376</v>
+        <v>0.04269226044270035</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08867945930813922</v>
+        <v>0.07125618688644009</v>
       </c>
       <c r="T32" t="n">
-        <v>0.002628070694694707</v>
+        <v>0.01800463696998497</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08429980528918053</v>
+        <v>0.05694655594602244</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01981603306043524</v>
+        <v>0.02437222971531174</v>
       </c>
       <c r="W32" t="n">
-        <v>0.08890757209430349</v>
+        <v>0.04271509140027906</v>
       </c>
       <c r="X32" t="n">
-        <v>0.08152718940324295</v>
+        <v>0.08214445566234836</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07439860953872773</v>
+        <v>0.03087411555642218</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.07988999975859443</v>
+        <v>0.08816971372165973</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.02333139164780371</v>
+        <v>0.0813159946380772</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.02293638640065397</v>
+        <v>0.00973607585311821</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.1019404045227539</v>
+        <v>0.09331645183010881</v>
       </c>
     </row>
     <row r="33">
@@ -3536,79 +3536,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2192328127869305</v>
+        <v>0.2052067453662599</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02548813495477657</v>
+        <v>0.07425667782712815</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05270664939982855</v>
+        <v>0.02670439145527405</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02895197772354265</v>
+        <v>0.08188528611507857</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04653405386831744</v>
+        <v>0.004116895016929467</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003211191687057355</v>
+        <v>0.0008040685212771822</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08777143557338406</v>
+        <v>0.06237644061087534</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01854280457095118</v>
+        <v>0.02016081329307753</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01476725338640805</v>
+        <v>0.04771256173529823</v>
       </c>
       <c r="N33" t="n">
-        <v>0.08073186023097227</v>
+        <v>0.00688472104996763</v>
       </c>
       <c r="O33" t="n">
-        <v>0.07981144427143813</v>
+        <v>0.03598490578072292</v>
       </c>
       <c r="P33" t="n">
-        <v>0.06800222937378024</v>
+        <v>0.002001928933052836</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.003743630815532315</v>
+        <v>0.005887525616233859</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01169719840126425</v>
+        <v>0.06367827240516249</v>
       </c>
       <c r="S33" t="n">
-        <v>0.04103989319599463</v>
+        <v>0.1058813463092707</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0009313936120060163</v>
+        <v>0.02800390939123354</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08587156384583117</v>
+        <v>0.0891473355290571</v>
       </c>
       <c r="V33" t="n">
-        <v>0.005675229604763242</v>
+        <v>0.02343217717918632</v>
       </c>
       <c r="W33" t="n">
-        <v>0.07647571376709998</v>
+        <v>0.0845700192746431</v>
       </c>
       <c r="X33" t="n">
-        <v>0.003326285618614412</v>
+        <v>0.005268220940564785</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04989834273466351</v>
+        <v>0.06081856084724012</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0918122963005182</v>
+        <v>0.08910969033998593</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.05886039778359387</v>
+        <v>0.01080822407831452</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.06414901927966218</v>
+        <v>0.07050602775042561</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.1220068671131412</v>
+        <v>0.1379215833466158</v>
       </c>
     </row>
     <row r="34">
@@ -3631,79 +3631,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2019045864311294</v>
+        <v>0.2053586518048341</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04816466046332432</v>
+        <v>0.08427683231613418</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03106396374006088</v>
+        <v>0.004726364224860571</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01110881058810894</v>
+        <v>0.01494865507245658</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04442432810154121</v>
+        <v>0.08325748971101736</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05950945649081599</v>
+        <v>0.03148470182369188</v>
       </c>
       <c r="K34" t="n">
-        <v>0.007865992868217557</v>
+        <v>0.01334230203477105</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03137680307585212</v>
+        <v>0.03995238345765069</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06076146552599162</v>
+        <v>0.02646821201758173</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01621277785355939</v>
+        <v>0.003543753012587556</v>
       </c>
       <c r="O34" t="n">
-        <v>0.05390998790364795</v>
+        <v>0.05016111191202069</v>
       </c>
       <c r="P34" t="n">
-        <v>0.09430263318400847</v>
+        <v>0.05042954473161159</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.06703532738626251</v>
+        <v>0.08756007685335268</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1091793594178301</v>
+        <v>0.06326467474910492</v>
       </c>
       <c r="S34" t="n">
-        <v>0.09802636044897901</v>
+        <v>0.06146644713210894</v>
       </c>
       <c r="T34" t="n">
-        <v>0.008496151077090487</v>
+        <v>0.01157036719474985</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02752640372424223</v>
+        <v>0.04014986083848529</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01691004612523015</v>
+        <v>0.01312761020461608</v>
       </c>
       <c r="W34" t="n">
-        <v>0.08807002122150258</v>
+        <v>0.09046571657253798</v>
       </c>
       <c r="X34" t="n">
-        <v>0.03699693137698636</v>
+        <v>0.09233192008940642</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.01315025683097038</v>
+        <v>0.01404564027724771</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.04539658481345634</v>
+        <v>0.08468135188065977</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.02728820446037721</v>
+        <v>0.03617197180487728</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.003223473321944124</v>
+        <v>0.002573012088469334</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.03202622149736225</v>
+        <v>0.04742064126246821</v>
       </c>
     </row>
     <row r="35">
@@ -3726,79 +3726,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2449809106487154</v>
+        <v>0.2475493487952468</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09468036919743711</v>
+        <v>0.06879898656259507</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01366865635048327</v>
+        <v>0.08751895078300397</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07766461456906908</v>
+        <v>0.08451053329157755</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06030867764012894</v>
+        <v>0.0045826297871021</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04258052027361158</v>
+        <v>0.08878968237958443</v>
       </c>
       <c r="K35" t="n">
-        <v>0.09200174037641387</v>
+        <v>0.1121378615757637</v>
       </c>
       <c r="L35" t="n">
-        <v>0.008853748307023217</v>
+        <v>0.006677306882128267</v>
       </c>
       <c r="M35" t="n">
-        <v>0.009752490088308051</v>
+        <v>0.01835789051190514</v>
       </c>
       <c r="N35" t="n">
-        <v>0.003374522513196914</v>
+        <v>0.0071553436824484</v>
       </c>
       <c r="O35" t="n">
-        <v>0.0034888545426853</v>
+        <v>0.03640481063340107</v>
       </c>
       <c r="P35" t="n">
-        <v>0.02551415367145</v>
+        <v>0.003229348360355211</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01923607412475661</v>
+        <v>0.02236351391667863</v>
       </c>
       <c r="R35" t="n">
-        <v>0.07220639993289209</v>
+        <v>0.06977205492783134</v>
       </c>
       <c r="S35" t="n">
-        <v>0.06046463678429687</v>
+        <v>0.06086996535771234</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03927555668683014</v>
+        <v>0.01502847891267538</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1178257893307816</v>
+        <v>0.09548456887498817</v>
       </c>
       <c r="V35" t="n">
-        <v>0.06186848241899524</v>
+        <v>0.04766846891791532</v>
       </c>
       <c r="W35" t="n">
-        <v>0.06309695735782737</v>
+        <v>0.05773215723351231</v>
       </c>
       <c r="X35" t="n">
-        <v>0.09841456771125193</v>
+        <v>0.006113007944843893</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01774168543053417</v>
+        <v>0.02193337800139946</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.0002715159497033213</v>
+        <v>0.03263092847271778</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.001589631087055135</v>
+        <v>0.003406582529507575</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01612035565526793</v>
+        <v>0.04883355046035284</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01875051956423416</v>
+        <v>0.001307587305217545</v>
       </c>
     </row>
     <row r="36">
@@ -3821,79 +3821,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2060446967519287</v>
+        <v>0.2012506835856942</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04227241264039135</v>
+        <v>0.0406522585094544</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05906766758194824</v>
+        <v>0.02657865510682183</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06274272265417517</v>
+        <v>0.004850200593531937</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004105002661182572</v>
+        <v>0.03710850922305026</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001310438345336565</v>
+        <v>0.01108509467271597</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02938234631372799</v>
+        <v>0.0168534738212469</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01036842478916429</v>
+        <v>0.02275668672890496</v>
       </c>
       <c r="M36" t="n">
-        <v>0.09080703822332671</v>
+        <v>0.09277169893001411</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03483668062782627</v>
+        <v>0.05294072439949913</v>
       </c>
       <c r="O36" t="n">
-        <v>0.08415895363910576</v>
+        <v>0.0879546570222321</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03917355056786644</v>
+        <v>0.08317136786049108</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.07977749904295693</v>
+        <v>0.008682646606314961</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09060341862271247</v>
+        <v>0.1004433865137595</v>
       </c>
       <c r="S36" t="n">
-        <v>0.09396404865363527</v>
+        <v>0.1012309890398186</v>
       </c>
       <c r="T36" t="n">
-        <v>0.003577491019039263</v>
+        <v>0.01158697027571123</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03124207466497381</v>
+        <v>0.03464121348134362</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02860874268411286</v>
+        <v>0.002450332150973501</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02121158127344063</v>
+        <v>0.07853952308758495</v>
       </c>
       <c r="X36" t="n">
-        <v>0.06330215705384123</v>
+        <v>0.0201297263818185</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02847619008602057</v>
+        <v>0.02588340593385671</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.005326213737401784</v>
+        <v>0.04143257042216849</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0784457026146748</v>
+        <v>0.08919452227046425</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01723964250313923</v>
+        <v>0.009061386968223175</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.03583629231362796</v>
+        <v>0.04654054422263969</v>
       </c>
     </row>
     <row r="37">
@@ -3916,79 +3916,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2352737120253012</v>
+        <v>0.2333554197902122</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02066674669628924</v>
+        <v>0.08872001895364913</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0002271830654591006</v>
+        <v>0.06979888586939709</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03571042720939954</v>
+        <v>0.04441416493475166</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01865072546826127</v>
+        <v>0.05446512197248456</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02227127257925268</v>
+        <v>0.001276670190570743</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1015164666016678</v>
+        <v>0.100950764833695</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0141181793896661</v>
+        <v>0.02643565930433028</v>
       </c>
       <c r="M37" t="n">
-        <v>0.001770852672289669</v>
+        <v>0.03778137570824947</v>
       </c>
       <c r="N37" t="n">
-        <v>0.001953119449134216</v>
+        <v>0.00434796229675073</v>
       </c>
       <c r="O37" t="n">
-        <v>0.05985893733512018</v>
+        <v>0.08346270499628974</v>
       </c>
       <c r="P37" t="n">
-        <v>0.006219518365345375</v>
+        <v>0.0539184488023387</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02080317923575193</v>
+        <v>0.00316145545790228</v>
       </c>
       <c r="R37" t="n">
-        <v>0.05058429054583678</v>
+        <v>0.05200794921729651</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1061635699699317</v>
+        <v>0.01626223539933467</v>
       </c>
       <c r="T37" t="n">
-        <v>0.07618836788274662</v>
+        <v>0.02184743673185433</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02938964629694591</v>
+        <v>0.09411088052367961</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1164703591728726</v>
+        <v>0.02327718566593003</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1093537742021918</v>
+        <v>0.04083697752567127</v>
       </c>
       <c r="X37" t="n">
-        <v>0.05824240376920325</v>
+        <v>0.03362484150520405</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01372858681577048</v>
+        <v>0.02367888445339562</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.08420419391701818</v>
+        <v>0.101648164981997</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.009775029730262353</v>
+        <v>0.01468818154891398</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.04213316962958299</v>
+        <v>0.009284029126313716</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.0796809695944509</v>
+        <v>0.0721150862937399</v>
       </c>
     </row>
     <row r="38">
@@ -4011,79 +4011,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2087359147706264</v>
+        <v>0.2119028514775964</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06135527428623283</v>
+        <v>0.0256043040290732</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01282893437236167</v>
+        <v>0.05144868679645268</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01422181273871151</v>
+        <v>0.02065007256885716</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04825163085276361</v>
+        <v>0.02030730515359981</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06194181365593619</v>
+        <v>0.02559288990347078</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03854804495832533</v>
+        <v>0.03828558559039693</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02865438878407592</v>
+        <v>0.05074297661364244</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05020898209158842</v>
+        <v>0.009441308619326686</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01248167940143777</v>
+        <v>0.02280101373308755</v>
       </c>
       <c r="O38" t="n">
-        <v>0.001071389350279141</v>
+        <v>0.03102644547707057</v>
       </c>
       <c r="P38" t="n">
-        <v>0.08928797671199011</v>
+        <v>0.0744920866838107</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.06009013934186747</v>
+        <v>0.0993950578831882</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1042179099633476</v>
+        <v>0.08828974344598084</v>
       </c>
       <c r="S38" t="n">
-        <v>0.0847207039963284</v>
+        <v>0.1049481895996395</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01880559056604324</v>
+        <v>0.02411953441130961</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04511931094437328</v>
+        <v>0.06538148623440418</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02734695573252755</v>
+        <v>0.03912543869471739</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01542053799813334</v>
+        <v>0.05297540420240887</v>
       </c>
       <c r="X38" t="n">
-        <v>0.05460834394573656</v>
+        <v>0.05716534909238322</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.03197687294206585</v>
+        <v>0.0183925127998941</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.04551241505741974</v>
+        <v>0.005058918727723141</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.08249057914478919</v>
+        <v>0.06825110301144367</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01083871316366521</v>
+        <v>0.006504586728118798</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.01947192313576913</v>
+        <v>0.02837899317752992</v>
       </c>
     </row>
     <row r="39">
@@ -4106,79 +4106,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2426275393755239</v>
+        <v>0.23613017001922</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1020877620076879</v>
+        <v>0.1060835874309818</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02084235005717125</v>
+        <v>0.002425360288622271</v>
       </c>
       <c r="H39" t="n">
-        <v>0.003154103262851195</v>
+        <v>0.1082122072211801</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01848241705067244</v>
+        <v>0.07985583736355133</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0936399201983428</v>
+        <v>0.04726192342084491</v>
       </c>
       <c r="K39" t="n">
-        <v>0.08470381785022352</v>
+        <v>0.08213023823395356</v>
       </c>
       <c r="L39" t="n">
-        <v>0.07524578760511542</v>
+        <v>0.03608483454160169</v>
       </c>
       <c r="M39" t="n">
-        <v>0.004554485619927084</v>
+        <v>0.03920707978703142</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01665384726429385</v>
+        <v>0.001083252969919342</v>
       </c>
       <c r="O39" t="n">
-        <v>0.003878376522073427</v>
+        <v>0.04406013145605712</v>
       </c>
       <c r="P39" t="n">
-        <v>0.06344605168524943</v>
+        <v>0.003495731565653948</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.003250026236865459</v>
+        <v>0.03368471850387914</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02540433220781236</v>
+        <v>0.05060096234523879</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08611535721813948</v>
+        <v>0.05445239767576569</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04183157640249561</v>
+        <v>0.0263169250434589</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08374303455693972</v>
+        <v>0.1058646820308042</v>
       </c>
       <c r="V39" t="n">
-        <v>0.0009739635768841079</v>
+        <v>0.04663699593018431</v>
       </c>
       <c r="W39" t="n">
-        <v>0.1000776252785274</v>
+        <v>0.03074411769254064</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02368590388581468</v>
+        <v>0.04769736507282382</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0354044834279145</v>
+        <v>0.01673879917349835</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.06521102920961989</v>
+        <v>0.03626969681129255</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.02966816827839073</v>
+        <v>0.0002066689633016121</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01794558059698771</v>
+        <v>0.0008864864778147003</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.04145177265878834</v>
+        <v>0.0436362556584001</v>
       </c>
     </row>
     <row r="40">
@@ -4201,79 +4201,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2036865783685637</v>
+        <v>0.2030701847880927</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05404961249407365</v>
+        <v>0.06614075404589159</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02386954297095572</v>
+        <v>0.0008459012633036484</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007288427592884676</v>
+        <v>0.05226552127308839</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01735121148908539</v>
+        <v>0.07087474110295418</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0003981107300421691</v>
+        <v>0.05982739528963638</v>
       </c>
       <c r="K40" t="n">
-        <v>0.00902517625743687</v>
+        <v>0.006179424955320212</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02581282578284987</v>
+        <v>0.03040555377674794</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07552279649196061</v>
+        <v>0.05961488411812154</v>
       </c>
       <c r="N40" t="n">
-        <v>0.02231406587013828</v>
+        <v>0.00689836481136894</v>
       </c>
       <c r="O40" t="n">
-        <v>0.08331808072553588</v>
+        <v>0.0607536702884124</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01902108310973255</v>
+        <v>0.03359304203907031</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.07197265080124368</v>
+        <v>0.07318248533111182</v>
       </c>
       <c r="R40" t="n">
-        <v>0.07917896144104183</v>
+        <v>0.09637582165457202</v>
       </c>
       <c r="S40" t="n">
-        <v>0.09539952499702604</v>
+        <v>0.08230004454891823</v>
       </c>
       <c r="T40" t="n">
-        <v>0.02768122793898101</v>
+        <v>0.01021058241013383</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03370692224039647</v>
+        <v>0.02006581953191361</v>
       </c>
       <c r="V40" t="n">
-        <v>0.004688216186483335</v>
+        <v>0.002796975487539907</v>
       </c>
       <c r="W40" t="n">
-        <v>0.08537570701760104</v>
+        <v>0.0515309436669926</v>
       </c>
       <c r="X40" t="n">
-        <v>0.01275076391997338</v>
+        <v>0.01324195112805259</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.04659982508098428</v>
+        <v>0.03386010338482544</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0750320863515587</v>
+        <v>0.08108760920599713</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.07475204528576701</v>
+        <v>0.04559158617095211</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.05489113522424754</v>
+        <v>0.04235682451507501</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.001528791498733965</v>
+        <v>-0.001190059719832217</v>
       </c>
     </row>
     <row r="41">
@@ -4296,79 +4296,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2613083359980815</v>
+        <v>0.2194834745705194</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02913489016594172</v>
+        <v>0.04206952614552317</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004865041253842056</v>
+        <v>0.01716265057196145</v>
       </c>
       <c r="H41" t="n">
-        <v>0.007752829272101453</v>
+        <v>0.09373100652782829</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08492446697783848</v>
+        <v>0.09032901167132751</v>
       </c>
       <c r="J41" t="n">
-        <v>0.07233899225991748</v>
+        <v>0.07589212650763573</v>
       </c>
       <c r="K41" t="n">
-        <v>0.06188553122303486</v>
+        <v>0.006181031010039677</v>
       </c>
       <c r="L41" t="n">
-        <v>0.08447867168450941</v>
+        <v>0.0409589932520834</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01952201857672104</v>
+        <v>0.03982703559933153</v>
       </c>
       <c r="N41" t="n">
-        <v>0.004825341079089948</v>
+        <v>0.02475955306731726</v>
       </c>
       <c r="O41" t="n">
-        <v>0.07606513484006229</v>
+        <v>0.09085566147212319</v>
       </c>
       <c r="P41" t="n">
-        <v>0.04012224642810525</v>
+        <v>0.009190735300059696</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.008146762045248579</v>
+        <v>0.002984814607168655</v>
       </c>
       <c r="R41" t="n">
-        <v>0.02154983804417757</v>
+        <v>0.01613205997770203</v>
       </c>
       <c r="S41" t="n">
-        <v>0.06893469713963511</v>
+        <v>0.08780672285716958</v>
       </c>
       <c r="T41" t="n">
-        <v>0.07208331766146243</v>
+        <v>0.01769884364271658</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08858564297260442</v>
+        <v>0.05596709736051707</v>
       </c>
       <c r="V41" t="n">
-        <v>0.008510333932284739</v>
+        <v>0.001385308101840525</v>
       </c>
       <c r="W41" t="n">
-        <v>0.09333244802372206</v>
+        <v>0.07697095023129458</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01643324989242883</v>
+        <v>0.03168662788336783</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.01403435080862574</v>
+        <v>0.02336445472511149</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04047498030986831</v>
+        <v>0.07103697520763054</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.07997619984474183</v>
+        <v>0.06019445701765447</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.002023015564036384</v>
+        <v>0.0238143572625957</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.04397859405781077</v>
+        <v>0.01253345651831934</v>
       </c>
     </row>
     <row r="42">
@@ -4391,79 +4391,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1833322861526108</v>
+        <v>0.190278716891657</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06322961261800399</v>
+        <v>0.02111028853721597</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0103791369302163</v>
+        <v>0.02066906077575565</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06549262241584712</v>
+        <v>0.0909051420876697</v>
       </c>
       <c r="I42" t="n">
-        <v>0.04477822470542434</v>
+        <v>0.03688267094687658</v>
       </c>
       <c r="J42" t="n">
-        <v>0.02554192547613153</v>
+        <v>0.02767906519268539</v>
       </c>
       <c r="K42" t="n">
-        <v>0.006733095066052405</v>
+        <v>0.002692373888052376</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02455533908492045</v>
+        <v>0.001625291607462777</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04113330936939209</v>
+        <v>0.03436938212740542</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02150003510722808</v>
+        <v>0.02184597883313863</v>
       </c>
       <c r="O42" t="n">
-        <v>0.06591665382994458</v>
+        <v>0.0822233587570579</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09416380226816866</v>
+        <v>0.1010834685687052</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07045179493329669</v>
+        <v>0.02837901337829203</v>
       </c>
       <c r="R42" t="n">
-        <v>0.08994876318750696</v>
+        <v>0.05522131050593736</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07083394192029328</v>
+        <v>0.07301298450403391</v>
       </c>
       <c r="T42" t="n">
-        <v>0.006353822671694046</v>
+        <v>0.01590600887064229</v>
       </c>
       <c r="U42" t="n">
-        <v>0.008804332442348847</v>
+        <v>0.05321444669584013</v>
       </c>
       <c r="V42" t="n">
-        <v>0.04341324536718379</v>
+        <v>0.007443822340712255</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07973041000236558</v>
+        <v>0.08276024277118363</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0188009777771708</v>
+        <v>0.03694233954011029</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0003669028952272336</v>
+        <v>0.04930850787277594</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0765266713645482</v>
+        <v>0.04598045804226681</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.07129449705208842</v>
+        <v>0.0469738423518214</v>
       </c>
       <c r="AB42" t="n">
-        <v>5.088351494653253e-05</v>
+        <v>0.06377094180435856</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.1393982780589933</v>
+        <v>0.1490893523402751</v>
       </c>
     </row>
     <row r="43">
@@ -4486,79 +4486,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2325914311150186</v>
+        <v>0.2045421237922059</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01119288982759285</v>
+        <v>0.04256483716332666</v>
       </c>
       <c r="G43" t="n">
-        <v>0.007562039909575752</v>
+        <v>0.03816917549255851</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03237278869232517</v>
+        <v>0.04910202821792115</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1042066637091948</v>
+        <v>0.05950742057388006</v>
       </c>
       <c r="J43" t="n">
-        <v>0.02925433774742738</v>
+        <v>0.02072606485671526</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0745575581612655</v>
+        <v>0.03482267488762752</v>
       </c>
       <c r="L43" t="n">
-        <v>0.1052118629191703</v>
+        <v>0.06607139559455581</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02250943668251355</v>
+        <v>0.04064406183060169</v>
       </c>
       <c r="N43" t="n">
-        <v>0.007750719169069211</v>
+        <v>0.007820350967475171</v>
       </c>
       <c r="O43" t="n">
-        <v>0.1053510989705793</v>
+        <v>0.08292316772862952</v>
       </c>
       <c r="P43" t="n">
-        <v>0.03327255311118668</v>
+        <v>0.01339754096815841</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02137496024029436</v>
+        <v>0.01759157165656598</v>
       </c>
       <c r="R43" t="n">
-        <v>0.04350679568433241</v>
+        <v>0.02674476049209063</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06037300150527796</v>
+        <v>0.08482566240443074</v>
       </c>
       <c r="T43" t="n">
-        <v>0.03992268207897513</v>
+        <v>0.04002292032091435</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03808122062562372</v>
+        <v>0.06623099723009117</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0003369815915030044</v>
+        <v>0.005281953888329463</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0141589215405542</v>
+        <v>0.07352994962936195</v>
       </c>
       <c r="X43" t="n">
-        <v>0.07448630493331186</v>
+        <v>0.01501254704517548</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.00585071166433545</v>
+        <v>0.02486180926104652</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.08322646613851968</v>
+        <v>0.05117022884085894</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.01557312447916855</v>
+        <v>0.06316441576873057</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.06986688061820323</v>
+        <v>0.07581446518095442</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.155103938355132</v>
+        <v>0.1496959682699459</v>
       </c>
     </row>
     <row r="44">
@@ -4581,79 +4581,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.151616611355456</v>
+        <v>0.1528441812272067</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02011184423932017</v>
+        <v>0.03352694733870635</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008717617498781013</v>
+        <v>0.008628326966171962</v>
       </c>
       <c r="H44" t="n">
-        <v>0.09141451359748443</v>
+        <v>0.03986008818345298</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01360945312404259</v>
+        <v>0.0008771818697495907</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04022151974558907</v>
+        <v>0.07452738260527506</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01714493508631862</v>
+        <v>0.01478619705758568</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0002505984070831035</v>
+        <v>0.07997493950556651</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06607631671655215</v>
+        <v>0.07000247916061987</v>
       </c>
       <c r="N44" t="n">
-        <v>0.03251558010959584</v>
+        <v>0.0145832150728912</v>
       </c>
       <c r="O44" t="n">
-        <v>0.06153263392222728</v>
+        <v>0.04592723472977975</v>
       </c>
       <c r="P44" t="n">
-        <v>0.05257705429617583</v>
+        <v>0.09465955733887708</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.08630295431403469</v>
+        <v>0.02971752980976491</v>
       </c>
       <c r="R44" t="n">
-        <v>0.08356385071988964</v>
+        <v>0.1298635233549552</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06092527203964736</v>
+        <v>0.04177323070077166</v>
       </c>
       <c r="T44" t="n">
-        <v>0.006205809122002037</v>
+        <v>0.01881096917557339</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07972800797185584</v>
+        <v>0.0952765122868591</v>
       </c>
       <c r="V44" t="n">
-        <v>0.04673687037465936</v>
+        <v>0.01331065486767799</v>
       </c>
       <c r="W44" t="n">
-        <v>0.07413296778139065</v>
+        <v>0.01437994925382651</v>
       </c>
       <c r="X44" t="n">
-        <v>0.002836349696080826</v>
+        <v>0.01317312933169363</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.04781705847542548</v>
+        <v>0.01900557622598593</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.05837378941037732</v>
+        <v>0.04657242344034718</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.04569567862520924</v>
+        <v>0.04284991167398462</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.003509324726257641</v>
+        <v>0.0579130400498838</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.001080474771814749</v>
+        <v>-0.003716466556209904</v>
       </c>
     </row>
     <row r="45">
@@ -4676,79 +4676,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1739025188074419</v>
+        <v>0.1855690034573779</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01974104776042775</v>
+        <v>0.03392135085813451</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04626795426065794</v>
+        <v>0.01306555297617896</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0442295150902312</v>
+        <v>0.05870131679888355</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02091190384851223</v>
+        <v>0.06623375555056889</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03416885854256657</v>
+        <v>0.1164081208471332</v>
       </c>
       <c r="K45" t="n">
-        <v>0.04335623924071896</v>
+        <v>0.0465722735953604</v>
       </c>
       <c r="L45" t="n">
-        <v>0.09727957511326962</v>
+        <v>0.09641927997183102</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02539171025252531</v>
+        <v>0.05599795409616053</v>
       </c>
       <c r="N45" t="n">
-        <v>0.02010467619021675</v>
+        <v>0.02545745373378621</v>
       </c>
       <c r="O45" t="n">
-        <v>0.05713112564450752</v>
+        <v>0.09875941037734909</v>
       </c>
       <c r="P45" t="n">
-        <v>0.09396294848063637</v>
+        <v>0.07388656306183695</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.00485527232481885</v>
+        <v>0.004782819138988832</v>
       </c>
       <c r="R45" t="n">
-        <v>0.007715502406415809</v>
+        <v>0.008414347734609969</v>
       </c>
       <c r="S45" t="n">
-        <v>0.09409097228481225</v>
+        <v>0.0453740811299503</v>
       </c>
       <c r="T45" t="n">
-        <v>0.07994370473043225</v>
+        <v>0.007340136691942873</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04758102758576281</v>
+        <v>0.1220800776644958</v>
       </c>
       <c r="V45" t="n">
-        <v>0.06395444244332904</v>
+        <v>0.05617622411723659</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02961778667559851</v>
+        <v>0.02892928506504109</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01312995313534655</v>
+        <v>0.01582101282286742</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.01934856949977434</v>
+        <v>0.0001956672762189148</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.04731324983703893</v>
+        <v>0.01363120328255036</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.08768351437086104</v>
+        <v>0.004512415005806489</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.002220450281539221</v>
+        <v>0.007319698203067896</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.01716171329284391</v>
+        <v>0.01396031570668361</v>
       </c>
     </row>
     <row r="46">
@@ -4771,79 +4771,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1409672569271837</v>
+        <v>0.1422143676032023</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03152509376413184</v>
+        <v>0.06583135597650368</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02037809930900325</v>
+        <v>0.05892068292903465</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04116424624540357</v>
+        <v>0.003253229287007308</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01098564054205344</v>
+        <v>0.04485377190120485</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0022363942655932</v>
+        <v>0.009977175268059506</v>
       </c>
       <c r="K46" t="n">
-        <v>0.009528264697473322</v>
+        <v>0.009482349135598424</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0098741670442061</v>
+        <v>0.001904238239876751</v>
       </c>
       <c r="M46" t="n">
-        <v>0.08708843029015853</v>
+        <v>0.04518584915943923</v>
       </c>
       <c r="N46" t="n">
-        <v>0.01237595796711422</v>
+        <v>0.01515338538807579</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0720010770985304</v>
+        <v>0.06137817201504718</v>
       </c>
       <c r="P46" t="n">
-        <v>0.06399930280712354</v>
+        <v>0.01341540235796765</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.04479156602515413</v>
+        <v>0.08537881006143547</v>
       </c>
       <c r="R46" t="n">
-        <v>0.0873850581984682</v>
+        <v>0.07988292623271818</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08206957945474265</v>
+        <v>0.08505654410533525</v>
       </c>
       <c r="T46" t="n">
-        <v>0.03137509143489469</v>
+        <v>0.007168778960617914</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0613176636972329</v>
+        <v>0.05478486410879678</v>
       </c>
       <c r="V46" t="n">
-        <v>0.003282621561045621</v>
+        <v>0.01475912215829983</v>
       </c>
       <c r="W46" t="n">
-        <v>0.001610504100258179</v>
+        <v>0.02381479645936591</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0315812075632394</v>
+        <v>0.06547900070887358</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.09424795149083554</v>
+        <v>0.04611742630536252</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.1013385762369453</v>
+        <v>0.08666713467549936</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06842281519001468</v>
+        <v>0.07182541813184778</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.03142069101637734</v>
+        <v>0.04970956643403236</v>
       </c>
       <c r="AC46" t="n">
-        <v>-4.895700407074686e-05</v>
+        <v>-0.002975050573741749</v>
       </c>
     </row>
     <row r="47">
@@ -4866,79 +4866,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.175476733511765</v>
+        <v>0.1907243545345529</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02467209697953948</v>
+        <v>0.008450825535852614</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07201264157865882</v>
+        <v>0.04457561198113202</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01400704958085261</v>
+        <v>0.02692766980732692</v>
       </c>
       <c r="I47" t="n">
-        <v>0.07311648694029059</v>
+        <v>0.004961263227388036</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03535544647810927</v>
+        <v>0.007641317064750968</v>
       </c>
       <c r="K47" t="n">
-        <v>0.03222260082431328</v>
+        <v>0.07569542241267885</v>
       </c>
       <c r="L47" t="n">
-        <v>0.08867987768219812</v>
+        <v>0.1113429337185677</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08903433755851968</v>
+        <v>0.01761251943113326</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02223158814278554</v>
+        <v>0.02265847385925785</v>
       </c>
       <c r="O47" t="n">
-        <v>0.06251399872530633</v>
+        <v>0.09509724288194164</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0712786706307707</v>
+        <v>0.03368030065771242</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.005208160814690387</v>
+        <v>0.009828249571984467</v>
       </c>
       <c r="R47" t="n">
-        <v>0.002457918481653992</v>
+        <v>0.01352144484776084</v>
       </c>
       <c r="S47" t="n">
-        <v>0.07653699983868317</v>
+        <v>0.1094610876275082</v>
       </c>
       <c r="T47" t="n">
-        <v>0.04055608089155746</v>
+        <v>0.02100495658584444</v>
       </c>
       <c r="U47" t="n">
-        <v>0.05443043826420507</v>
+        <v>0.02381318293601046</v>
       </c>
       <c r="V47" t="n">
-        <v>0.03110831897548701</v>
+        <v>0.09706629291985344</v>
       </c>
       <c r="W47" t="n">
-        <v>0.08279414519224891</v>
+        <v>0.05100155966031129</v>
       </c>
       <c r="X47" t="n">
-        <v>0.04951059195895088</v>
+        <v>0.0742045320493801</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.03762915909460754</v>
+        <v>0.04300898219463151</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.002738105800073594</v>
+        <v>0.01535421843343205</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.0239462310201466</v>
+        <v>0.07694689071135259</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.007959054546351025</v>
+        <v>0.0161450218841885</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.007454725501208303</v>
+        <v>-0.005447829636818419</v>
       </c>
     </row>
     <row r="48">
@@ -4961,79 +4961,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.127824218684534</v>
+        <v>0.127348538740132</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0280301324951801</v>
+        <v>0.02813220738078607</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07565280045451392</v>
+        <v>0.00566024896562451</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0005448422234265464</v>
+        <v>0.002062176159388297</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02018692187092979</v>
+        <v>0.006541189977366653</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01264430120713731</v>
+        <v>0.003756830870261612</v>
       </c>
       <c r="K48" t="n">
-        <v>0.005620164569405128</v>
+        <v>0.007468084769828755</v>
       </c>
       <c r="L48" t="n">
-        <v>0.07873221522893947</v>
+        <v>0.0008616182009439009</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0383410234001796</v>
+        <v>0.02051986976487987</v>
       </c>
       <c r="N48" t="n">
-        <v>0.009255405102949033</v>
+        <v>0.07286189220610732</v>
       </c>
       <c r="O48" t="n">
-        <v>0.003057004568368512</v>
+        <v>0.01137343758436946</v>
       </c>
       <c r="P48" t="n">
-        <v>0.04487509681393371</v>
+        <v>0.07089813509780712</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.08996346311650782</v>
+        <v>0.100575448767275</v>
       </c>
       <c r="R48" t="n">
-        <v>0.08449759647699749</v>
+        <v>0.09687266878494934</v>
       </c>
       <c r="S48" t="n">
-        <v>0.05865308712353414</v>
+        <v>0.04213208438040912</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01668413084584295</v>
+        <v>0.04700268585060504</v>
       </c>
       <c r="U48" t="n">
-        <v>0.08091810646822624</v>
+        <v>0.07315022148009978</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0199528185190946</v>
+        <v>0.01546347764531321</v>
       </c>
       <c r="W48" t="n">
-        <v>0.06621119160833647</v>
+        <v>0.06884928095163505</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0876882523126198</v>
+        <v>0.06627749584609023</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0444610022746656</v>
+        <v>0.005071235747501577</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.07683473966947453</v>
+        <v>0.1056427605642755</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.04890727235480528</v>
+        <v>0.09566387158402304</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.008288431294932072</v>
+        <v>0.05316307742045959</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.06560275335127853</v>
+        <v>0.05920818471777103</v>
       </c>
     </row>
     <row r="49">
@@ -5056,79 +5056,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1586906658794719</v>
+        <v>0.1763799046865598</v>
       </c>
       <c r="F49" t="n">
-        <v>0.002163014607644018</v>
+        <v>0.02076464108893107</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07262737636594717</v>
+        <v>0.02489108917777099</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02129687620470927</v>
+        <v>0.01598414069765225</v>
       </c>
       <c r="I49" t="n">
-        <v>0.06913292786394405</v>
+        <v>0.01472535582442338</v>
       </c>
       <c r="J49" t="n">
-        <v>0.02138689782945195</v>
+        <v>0.01926182957089631</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04345164422710687</v>
+        <v>0.1005372124699161</v>
       </c>
       <c r="L49" t="n">
-        <v>0.07550372186750197</v>
+        <v>0.08217485679453004</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0851228620414697</v>
+        <v>0.0339323359183328</v>
       </c>
       <c r="N49" t="n">
-        <v>0.001284349762864483</v>
+        <v>0.01864829288122348</v>
       </c>
       <c r="O49" t="n">
-        <v>0.08875007887010321</v>
+        <v>0.09217876971823062</v>
       </c>
       <c r="P49" t="n">
-        <v>0.06631536477506313</v>
+        <v>0.0908076542391919</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01341781330878012</v>
+        <v>0.01729675856029016</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01776065145631333</v>
+        <v>0.003523168755728431</v>
       </c>
       <c r="S49" t="n">
-        <v>0.07516959015636737</v>
+        <v>0.02013739449228973</v>
       </c>
       <c r="T49" t="n">
-        <v>0.03410384162350415</v>
+        <v>0.05607448940673437</v>
       </c>
       <c r="U49" t="n">
-        <v>0.04197330630481092</v>
+        <v>0.1023800210655495</v>
       </c>
       <c r="V49" t="n">
-        <v>0.02439323867352354</v>
+        <v>0.05477703682486024</v>
       </c>
       <c r="W49" t="n">
-        <v>0.05722525711333109</v>
+        <v>0.04842071628294672</v>
       </c>
       <c r="X49" t="n">
-        <v>0.01988746694179698</v>
+        <v>0.07355655514089418</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.02245500433881611</v>
+        <v>0.0481200028081227</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.02997635232106301</v>
+        <v>0.02575196038278736</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.07523081121438306</v>
+        <v>0.01985227022024397</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.04137155213150434</v>
+        <v>0.01620344767845356</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.07225207098022501</v>
+        <v>0.06499854662549265</v>
       </c>
     </row>
     <row r="50">
@@ -5151,79 +5151,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1385229462022051</v>
+        <v>0.1378436595841608</v>
       </c>
       <c r="F50" t="n">
-        <v>0.05410790441989226</v>
+        <v>0.007979416419705761</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07648799229846064</v>
+        <v>0.04094076697797688</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03262269175198403</v>
+        <v>0.00421961488876907</v>
       </c>
       <c r="I50" t="n">
-        <v>0.002858649315069294</v>
+        <v>0.003651129085023563</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05092417935822029</v>
+        <v>0.0270000351738744</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01446793077250182</v>
+        <v>0.0308696029143266</v>
       </c>
       <c r="L50" t="n">
-        <v>0.01521856828057879</v>
+        <v>0.03299070510001929</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06680359376663823</v>
+        <v>0.05203433852311899</v>
       </c>
       <c r="N50" t="n">
-        <v>0.02955164712394146</v>
+        <v>0.03987334785433106</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0407879109670567</v>
+        <v>0.00808580360956576</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0708641464223608</v>
+        <v>0.005583654205341806</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0664642294738995</v>
+        <v>0.05114311140401161</v>
       </c>
       <c r="R50" t="n">
-        <v>0.04736294701995536</v>
+        <v>0.06300288667511462</v>
       </c>
       <c r="S50" t="n">
-        <v>0.07585966698282108</v>
+        <v>0.09353364316671826</v>
       </c>
       <c r="T50" t="n">
-        <v>0.04777203947960222</v>
+        <v>0.02282223388605275</v>
       </c>
       <c r="U50" t="n">
-        <v>0.07496250249956746</v>
+        <v>0.09373135078208981</v>
       </c>
       <c r="V50" t="n">
-        <v>0.007836818437876545</v>
+        <v>0.004808559327593628</v>
       </c>
       <c r="W50" t="n">
-        <v>0.02511041299714352</v>
+        <v>0.04079812952111649</v>
       </c>
       <c r="X50" t="n">
-        <v>0.03778077551658093</v>
+        <v>0.06779924963894839</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.03631419577475143</v>
+        <v>0.1072762418801132</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.06168460910191613</v>
+        <v>0.08511264386858572</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.06326351508746868</v>
+        <v>0.02145110939976523</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.0008930731517129037</v>
+        <v>0.09529242569783719</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1491166654601824</v>
+        <v>0.1349993904718859</v>
       </c>
     </row>
     <row r="51">
@@ -5246,79 +5246,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.150083680708969</v>
+        <v>0.1451620131114008</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00612115147393762</v>
+        <v>0.00965790214869381</v>
       </c>
       <c r="G51" t="n">
-        <v>0.06315052729475967</v>
+        <v>0.06875369959395738</v>
       </c>
       <c r="H51" t="n">
-        <v>0.007614444008458197</v>
+        <v>0.01012895602839489</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02174946794154418</v>
+        <v>0.01258538391925024</v>
       </c>
       <c r="J51" t="n">
-        <v>0.08957317452227602</v>
+        <v>0.01448978326452303</v>
       </c>
       <c r="K51" t="n">
-        <v>0.08951243928989623</v>
+        <v>0.04129330905669988</v>
       </c>
       <c r="L51" t="n">
-        <v>0.06765914363141624</v>
+        <v>0.05954590240683952</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04954658545234306</v>
+        <v>0.002727334744385522</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01880289136826494</v>
+        <v>0.008042633932151662</v>
       </c>
       <c r="O51" t="n">
-        <v>0.06254966185907739</v>
+        <v>0.04151098397394481</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01719740271016321</v>
+        <v>0.09029485147169797</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.07489787488063904</v>
+        <v>0.002403483476910587</v>
       </c>
       <c r="R51" t="n">
-        <v>0.04914686811562177</v>
+        <v>0.08861539574734802</v>
       </c>
       <c r="S51" t="n">
-        <v>0.09238088631603757</v>
+        <v>0.08783978116122387</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04190356974675747</v>
+        <v>0.06630177314318624</v>
       </c>
       <c r="U51" t="n">
-        <v>0.05140620391920604</v>
+        <v>0.03962631900778176</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02886129192932087</v>
+        <v>0.08339939081737281</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0809928193143768</v>
+        <v>0.05746663828840944</v>
       </c>
       <c r="X51" t="n">
-        <v>0.01226684999818736</v>
+        <v>0.04432922178659406</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.04050269996202282</v>
+        <v>0.05285227928905389</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.0130481693461307</v>
+        <v>0.04449899051314483</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.02021441479694633</v>
+        <v>0.02358461831061805</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0009014621226163935</v>
+        <v>0.05005136791781761</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1543562298775933</v>
+        <v>0.1629246195032314</v>
       </c>
     </row>
     <row r="52">
@@ -5341,79 +5341,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1513952638954733</v>
+        <v>0.150480975042884</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08620429307669708</v>
+        <v>0.08425378316726143</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06711958745047032</v>
+        <v>0.08099002400192892</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00153837984594518</v>
+        <v>0.01482961218390158</v>
       </c>
       <c r="I52" t="n">
-        <v>0.004571862044044872</v>
+        <v>0.009573948237870913</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05113761036077985</v>
+        <v>0.03796545274335192</v>
       </c>
       <c r="K52" t="n">
-        <v>0.04006151276838644</v>
+        <v>0.007139139864591181</v>
       </c>
       <c r="L52" t="n">
-        <v>0.04019677363528727</v>
+        <v>0.01371337307289215</v>
       </c>
       <c r="M52" t="n">
-        <v>0.06532290390032322</v>
+        <v>0.08596751237798873</v>
       </c>
       <c r="N52" t="n">
-        <v>0.03553193163607671</v>
+        <v>0.04097326731399462</v>
       </c>
       <c r="O52" t="n">
-        <v>0.07162145015024697</v>
+        <v>0.05212908843309034</v>
       </c>
       <c r="P52" t="n">
-        <v>0.02367621411349711</v>
+        <v>0.0294845262128059</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08082024177923412</v>
+        <v>0.08081499904107256</v>
       </c>
       <c r="R52" t="n">
-        <v>0.07584939186764517</v>
+        <v>0.08945341648630931</v>
       </c>
       <c r="S52" t="n">
-        <v>0.07807009880410995</v>
+        <v>0.004425491417745577</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04498900067573061</v>
+        <v>0.03326125787678662</v>
       </c>
       <c r="U52" t="n">
-        <v>0.07940797965732521</v>
+        <v>0.07399986227762839</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0153007893896789</v>
+        <v>0.0009688439145442071</v>
       </c>
       <c r="W52" t="n">
-        <v>0.009981455442503673</v>
+        <v>0.03579152979751388</v>
       </c>
       <c r="X52" t="n">
-        <v>0.01893029510101888</v>
+        <v>0.05544482490303126</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.02862568350189084</v>
+        <v>0.06908778590581087</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.0113867616156974</v>
+        <v>0.0002724324651249562</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.04994461077127172</v>
+        <v>0.06298901990477319</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.01971117241213862</v>
+        <v>0.03647080839998154</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.1509688960628118</v>
+        <v>-0.1796242364698385</v>
       </c>
     </row>
     <row r="53">
@@ -5436,79 +5436,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1693393841152943</v>
+        <v>0.1816709024632535</v>
       </c>
       <c r="F53" t="n">
-        <v>0.005470414243363884</v>
+        <v>0.003947839740783999</v>
       </c>
       <c r="G53" t="n">
-        <v>0.004557610573257501</v>
+        <v>0.008850418650942873</v>
       </c>
       <c r="H53" t="n">
-        <v>0.05485705863636776</v>
+        <v>0.09048111359195325</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06656724991948422</v>
+        <v>0.02046183189692413</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02110862898737696</v>
+        <v>0.007929221611294446</v>
       </c>
       <c r="K53" t="n">
-        <v>0.02446441445265216</v>
+        <v>0.07370410543978662</v>
       </c>
       <c r="L53" t="n">
-        <v>0.05962768206090487</v>
+        <v>0.08414107898604635</v>
       </c>
       <c r="M53" t="n">
-        <v>0.09140439027278005</v>
+        <v>0.04009935708638266</v>
       </c>
       <c r="N53" t="n">
-        <v>0.00393111914680605</v>
+        <v>0.03954417131408895</v>
       </c>
       <c r="O53" t="n">
-        <v>0.06809230239952652</v>
+        <v>0.002261016908209118</v>
       </c>
       <c r="P53" t="n">
-        <v>0.04998270341690147</v>
+        <v>0.08509215278580526</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01573536651505886</v>
+        <v>0.004474238869069567</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08174170854368953</v>
+        <v>0.1182517560686187</v>
       </c>
       <c r="S53" t="n">
-        <v>0.02758060214740584</v>
+        <v>0.0203908340845017</v>
       </c>
       <c r="T53" t="n">
-        <v>0.04570188305100426</v>
+        <v>0.1150139186465894</v>
       </c>
       <c r="U53" t="n">
-        <v>0.08421322133369748</v>
+        <v>0.02670256970754602</v>
       </c>
       <c r="V53" t="n">
-        <v>0.08035789703677428</v>
+        <v>0.1119135834858332</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0414193599128703</v>
+        <v>0.008644883625602406</v>
       </c>
       <c r="X53" t="n">
-        <v>0.06475477480424359</v>
+        <v>0.03748594376495458</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.016748701031213</v>
+        <v>0.02402414546014438</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.00800992269704558</v>
+        <v>0.03385015406348064</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.03221536575892871</v>
+        <v>0.006135388024929516</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0514576230586473</v>
+        <v>0.03660027618651208</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.1483788605184203</v>
+        <v>-0.1521467331565825</v>
       </c>
     </row>
     <row r="54">
@@ -5531,79 +5531,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1725241709439152</v>
+        <v>0.1725591437307601</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08628456101124779</v>
+        <v>0.08125208814110428</v>
       </c>
       <c r="G54" t="n">
-        <v>0.09744107649280567</v>
+        <v>0.06601209499212334</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01951859289814591</v>
+        <v>0.03044727686025566</v>
       </c>
       <c r="I54" t="n">
-        <v>0.03761410798062581</v>
+        <v>0.006069808378705174</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0149202826200532</v>
+        <v>0.02209170509210183</v>
       </c>
       <c r="K54" t="n">
-        <v>0.05535851205549303</v>
+        <v>0.005195227646482897</v>
       </c>
       <c r="L54" t="n">
-        <v>0.005203233933583394</v>
+        <v>0.06498360173247425</v>
       </c>
       <c r="M54" t="n">
-        <v>0.01147908420861081</v>
+        <v>0.06048545173192314</v>
       </c>
       <c r="N54" t="n">
-        <v>0.06793846696499831</v>
+        <v>0.07544381865145994</v>
       </c>
       <c r="O54" t="n">
-        <v>0.02471628477652155</v>
+        <v>0.02605441057220264</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0145170709503157</v>
+        <v>0.01119471983814501</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02998496955372357</v>
+        <v>0.01641619563199631</v>
       </c>
       <c r="R54" t="n">
-        <v>0.04770056413241816</v>
+        <v>0.04986845058373388</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0937584607560184</v>
+        <v>0.08199064593209707</v>
       </c>
       <c r="T54" t="n">
-        <v>0.002967513540238505</v>
+        <v>0.03102217160901014</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06214967252716334</v>
+        <v>0.08727814822310907</v>
       </c>
       <c r="V54" t="n">
-        <v>0.001847039266294422</v>
+        <v>0.03005071581180475</v>
       </c>
       <c r="W54" t="n">
-        <v>0.03925837478988634</v>
+        <v>0.08576482827997288</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04167928123832193</v>
+        <v>0.03383233503296303</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.03242077366400525</v>
+        <v>0.01992970061873759</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.06834610632313862</v>
+        <v>0.03377909734799248</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.04653278362342061</v>
+        <v>0.07201283891278348</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.09836318669296987</v>
+        <v>0.008824668378821279</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.07250486921533379</v>
+        <v>0.09887457216937237</v>
       </c>
     </row>
     <row r="55">
@@ -5626,79 +5626,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1994180069142301</v>
+        <v>0.1927252563780289</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07454133471794153</v>
+        <v>0.01066259788546294</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0474092922332151</v>
+        <v>0.04208395595512956</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03133190819392803</v>
+        <v>0.01345740633545571</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0836768555865646</v>
+        <v>0.01653150104226981</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04891080910240806</v>
+        <v>0.01740006309142031</v>
       </c>
       <c r="K55" t="n">
-        <v>0.07745286486011363</v>
+        <v>0.05856130349147061</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01416822915642858</v>
+        <v>0.02956693224444566</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01967818936264612</v>
+        <v>0.09577264413870742</v>
       </c>
       <c r="N55" t="n">
-        <v>0.02689716947493727</v>
+        <v>0.04280188658942947</v>
       </c>
       <c r="O55" t="n">
-        <v>0.04024900883850407</v>
+        <v>0.03543608361645832</v>
       </c>
       <c r="P55" t="n">
-        <v>0.01037691694544685</v>
+        <v>0.03472460497765006</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.005705461627699498</v>
+        <v>0.01099071318680515</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08085722904061704</v>
+        <v>0.04356406941367669</v>
       </c>
       <c r="S55" t="n">
-        <v>0.07659644591811147</v>
+        <v>0.0688103961476095</v>
       </c>
       <c r="T55" t="n">
-        <v>0.06260224735498082</v>
+        <v>0.05551446420390826</v>
       </c>
       <c r="U55" t="n">
-        <v>0.07066203701125971</v>
+        <v>0.0913040907063888</v>
       </c>
       <c r="V55" t="n">
-        <v>0.04804200180788933</v>
+        <v>0.08174946404383272</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07485946306309949</v>
+        <v>0.08076284526900702</v>
       </c>
       <c r="X55" t="n">
-        <v>0.08415576112294013</v>
+        <v>0.09300414288445792</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0005937194528867217</v>
+        <v>0.010830635728073</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.001047743926580536</v>
+        <v>0.04270660015805103</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01177428954601983</v>
+        <v>0.01734764506171383</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.008411021655781581</v>
+        <v>0.006415953828576069</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.1247223725649556</v>
+        <v>0.1169786815214399</v>
       </c>
     </row>
     <row r="56">
@@ -5721,79 +5721,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.18201487839506</v>
+        <v>0.1828211402451204</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02080763898408539</v>
+        <v>0.01608321563498554</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07958267944156645</v>
+        <v>0.0905608833616318</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04807651769153539</v>
+        <v>0.08490888137512871</v>
       </c>
       <c r="I56" t="n">
-        <v>0.03282440124284882</v>
+        <v>0.008336941121069252</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01530894633526666</v>
+        <v>0.01121748196550723</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0213536242150988</v>
+        <v>0.07092134251219434</v>
       </c>
       <c r="L56" t="n">
-        <v>0.005244178136023326</v>
+        <v>0.01385815397989596</v>
       </c>
       <c r="M56" t="n">
-        <v>0.07922319115207256</v>
+        <v>0.05743867502912918</v>
       </c>
       <c r="N56" t="n">
-        <v>0.05378325807567295</v>
+        <v>0.006931186198939716</v>
       </c>
       <c r="O56" t="n">
-        <v>0.07808078243988051</v>
+        <v>0.03358713928964038</v>
       </c>
       <c r="P56" t="n">
-        <v>0.04584446886648805</v>
+        <v>0.02756979893336571</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.0242570238560984</v>
+        <v>0.0001374522480733612</v>
       </c>
       <c r="R56" t="n">
-        <v>0.01072537282185349</v>
+        <v>0.04045797503308118</v>
       </c>
       <c r="S56" t="n">
-        <v>0.02111219055872182</v>
+        <v>0.02104965441198287</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03271327992834829</v>
+        <v>0.0407041314456141</v>
       </c>
       <c r="U56" t="n">
-        <v>0.05520048962044553</v>
+        <v>0.0687301502441663</v>
       </c>
       <c r="V56" t="n">
-        <v>0.03513986297772097</v>
+        <v>0.01891649136328495</v>
       </c>
       <c r="W56" t="n">
-        <v>0.08060987095671206</v>
+        <v>0.0911727027194803</v>
       </c>
       <c r="X56" t="n">
-        <v>0.07581600839573492</v>
+        <v>0.07096279741455556</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.04074579883062598</v>
+        <v>0.003584701239328312</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.06623066858260712</v>
+        <v>0.08650807349465527</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.05325147339875717</v>
+        <v>0.04971229730084414</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.02406827349183515</v>
+        <v>0.08664987368344587</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.02662127725650913</v>
+        <v>-0.02364835448933883</v>
       </c>
     </row>
     <row r="57">
@@ -5816,79 +5816,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2048327562800995</v>
+        <v>0.1996244225600028</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08838306371538085</v>
+        <v>0.07662847654247025</v>
       </c>
       <c r="G57" t="n">
-        <v>0.002508583138352578</v>
+        <v>0.05998403784135007</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02962465250883542</v>
+        <v>0.002207567776382968</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0801618796061032</v>
+        <v>0.07306037621023917</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0427312811461994</v>
+        <v>0.01845962947289</v>
       </c>
       <c r="K57" t="n">
-        <v>0.09752701718152376</v>
+        <v>0.009008835668972493</v>
       </c>
       <c r="L57" t="n">
-        <v>0.006171914933355196</v>
+        <v>0.01862692596739548</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09212745769295502</v>
+        <v>0.06059631881538267</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01451442688593524</v>
+        <v>0.04037276630315014</v>
       </c>
       <c r="O57" t="n">
-        <v>0.003981361042883299</v>
+        <v>0.01638124433129883</v>
       </c>
       <c r="P57" t="n">
-        <v>0.09279230447160965</v>
+        <v>0.08733257664010478</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02430772953732359</v>
+        <v>0.01055752406429162</v>
       </c>
       <c r="R57" t="n">
-        <v>0.05413313025122558</v>
+        <v>0.09356339450523361</v>
       </c>
       <c r="S57" t="n">
-        <v>0.06267493840172084</v>
+        <v>0.1051783331666631</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0313077757228397</v>
+        <v>0.05966993169240833</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03941851508883444</v>
+        <v>0.05690058626743041</v>
       </c>
       <c r="V57" t="n">
-        <v>0.09857762915004943</v>
+        <v>0.04594806059790624</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01237832127652614</v>
+        <v>0.0288667194952575</v>
       </c>
       <c r="X57" t="n">
-        <v>0.001002911061975395</v>
+        <v>0.06725487810543657</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.01932294924109591</v>
+        <v>0.01703831840971487</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.07714526311519471</v>
+        <v>0.004879838081463656</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.00351094720203731</v>
+        <v>0.03347403688278462</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.02569594762804349</v>
+        <v>0.01400962316177241</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.01757826866368061</v>
+        <v>-0.0159995907739671</v>
       </c>
     </row>
     <row r="58">
@@ -5911,79 +5911,79 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.1857800302122416</v>
+        <v>0.1902574859073612</v>
       </c>
       <c r="F58" t="n">
-        <v>0.06027255493004617</v>
+        <v>0.02314827330367196</v>
       </c>
       <c r="G58" t="n">
-        <v>0.08858026491886904</v>
+        <v>0.08554601571666752</v>
       </c>
       <c r="H58" t="n">
-        <v>0.003649903106684323</v>
+        <v>0.001563975858578822</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01944631374687132</v>
+        <v>0.0243687543634827</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0006497162105423351</v>
+        <v>0.03449289474913147</v>
       </c>
       <c r="K58" t="n">
-        <v>0.03799564109075258</v>
+        <v>0.008507729898438836</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01884209884456434</v>
+        <v>0.07135012415046658</v>
       </c>
       <c r="M58" t="n">
-        <v>0.04987786088601401</v>
+        <v>0.06164291897115794</v>
       </c>
       <c r="N58" t="n">
-        <v>0.01508468991976842</v>
+        <v>0.009821761033914236</v>
       </c>
       <c r="O58" t="n">
-        <v>0.06243483990028539</v>
+        <v>0.07367696141920659</v>
       </c>
       <c r="P58" t="n">
-        <v>0.02516935488911719</v>
+        <v>0.02293267910879289</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.003646764894004912</v>
+        <v>0.02607719483661496</v>
       </c>
       <c r="R58" t="n">
-        <v>0.04573373821342094</v>
+        <v>0.08687083654249651</v>
       </c>
       <c r="S58" t="n">
-        <v>0.04139928989626042</v>
+        <v>0.05923531254794805</v>
       </c>
       <c r="T58" t="n">
-        <v>0.08135359581459918</v>
+        <v>0.05447460286240297</v>
       </c>
       <c r="U58" t="n">
-        <v>0.0903227213790837</v>
+        <v>0.09760146433305694</v>
       </c>
       <c r="V58" t="n">
-        <v>0.01146361946041482</v>
+        <v>0.05029444083363341</v>
       </c>
       <c r="W58" t="n">
-        <v>0.08941455066360664</v>
+        <v>0.07100584286229616</v>
       </c>
       <c r="X58" t="n">
-        <v>0.1002470185968785</v>
+        <v>0.07760681322969767</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.02150556965428887</v>
+        <v>0.01157641581691964</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.06352177460298093</v>
+        <v>0.04055419728850874</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.06821680006315395</v>
+        <v>0.002514986552727013</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.001171318317792008</v>
+        <v>0.005135803720188492</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.05956295177973664</v>
+        <v>0.03886477168281564</v>
       </c>
     </row>
     <row r="59">
@@ -6006,79 +6006,79 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1982963610530919</v>
+        <v>0.2027977083666231</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08336619097581301</v>
+        <v>0.08594568757287291</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0103115630254094</v>
+        <v>0.02079040340566127</v>
       </c>
       <c r="H59" t="n">
-        <v>0.003078739964462784</v>
+        <v>0.02756451429004765</v>
       </c>
       <c r="I59" t="n">
-        <v>0.01244550575668338</v>
+        <v>0.01902172853812864</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0154572569666124</v>
+        <v>0.01233536008540557</v>
       </c>
       <c r="K59" t="n">
-        <v>0.03711507047232322</v>
+        <v>0.05682835078380299</v>
       </c>
       <c r="L59" t="n">
-        <v>0.07896592751893231</v>
+        <v>0.06323298763082744</v>
       </c>
       <c r="M59" t="n">
-        <v>0.05843449788764406</v>
+        <v>0.02457628162047613</v>
       </c>
       <c r="N59" t="n">
-        <v>0.01243924352407689</v>
+        <v>0.006489564180941094</v>
       </c>
       <c r="O59" t="n">
-        <v>0.02258003877732088</v>
+        <v>0.01237506963516967</v>
       </c>
       <c r="P59" t="n">
-        <v>0.03121835656536984</v>
+        <v>0.118562598202634</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.03400250993917809</v>
+        <v>0.01248382052055092</v>
       </c>
       <c r="R59" t="n">
-        <v>0.02963567123118468</v>
+        <v>0.05135670281749427</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1005887802738972</v>
+        <v>0.1007312478506411</v>
       </c>
       <c r="T59" t="n">
-        <v>0.08676484836465301</v>
+        <v>0.07968431613984554</v>
       </c>
       <c r="U59" t="n">
-        <v>0.06001678849494005</v>
+        <v>0.06454754412140642</v>
       </c>
       <c r="V59" t="n">
-        <v>0.1024436848779371</v>
+        <v>0.06627336535177715</v>
       </c>
       <c r="W59" t="n">
-        <v>0.08095597861917296</v>
+        <v>0.0408687178421096</v>
       </c>
       <c r="X59" t="n">
-        <v>0.01811062757449943</v>
+        <v>0.03614736395498241</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.0008865091301437321</v>
+        <v>0.01533160958316301</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.06779433770281536</v>
+        <v>0.05448053434258457</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.03188455763772791</v>
+        <v>0.0294905677891447</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.02150331471920246</v>
+        <v>0.0008816637403327649</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.07195277985126823</v>
+        <v>0.05891662056366272</v>
       </c>
     </row>
     <row r="60">
@@ -6101,79 +6101,79 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2065891966505045</v>
+        <v>0.2067008081105214</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03855352391158599</v>
+        <v>0.05684255788972366</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0702902965859433</v>
+        <v>0.05671595763731371</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0147438617657524</v>
+        <v>0.008676057711024558</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04295072158922781</v>
+        <v>0.07569449121131451</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0151733945348553</v>
+        <v>0.02734328809342238</v>
       </c>
       <c r="K60" t="n">
-        <v>0.01368819821544157</v>
+        <v>0.07483186237208123</v>
       </c>
       <c r="L60" t="n">
-        <v>0.02893682842016359</v>
+        <v>0.02394823924283164</v>
       </c>
       <c r="M60" t="n">
-        <v>0.06201028533188701</v>
+        <v>0.07993787975103586</v>
       </c>
       <c r="N60" t="n">
-        <v>0.01736702923838618</v>
+        <v>0.01056100563861013</v>
       </c>
       <c r="O60" t="n">
-        <v>0.01889430209646189</v>
+        <v>0.07474689698472373</v>
       </c>
       <c r="P60" t="n">
-        <v>0.06191301678779659</v>
+        <v>0.01748502164962807</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.06146546041779465</v>
+        <v>0.05830899712845124</v>
       </c>
       <c r="R60" t="n">
-        <v>0.05896316633787294</v>
+        <v>0.08230424291245493</v>
       </c>
       <c r="S60" t="n">
-        <v>0.06038872490934895</v>
+        <v>0.0590969072579763</v>
       </c>
       <c r="T60" t="n">
-        <v>0.02635583971583496</v>
+        <v>0.01784579172667444</v>
       </c>
       <c r="U60" t="n">
-        <v>0.08336335089367279</v>
+        <v>0.07196430208768027</v>
       </c>
       <c r="V60" t="n">
-        <v>0.008420602507013089</v>
+        <v>0.004473105108675637</v>
       </c>
       <c r="W60" t="n">
-        <v>0.08302901087836409</v>
+        <v>0.03265675772140104</v>
       </c>
       <c r="X60" t="n">
-        <v>0.08303462757271972</v>
+        <v>0.08380035204498686</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.04398554625302932</v>
+        <v>0.01285106253357757</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.05165550453362804</v>
+        <v>0.03398146863606125</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.02796471368389726</v>
+        <v>0.0110199425620524</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.02685199381932253</v>
+        <v>0.02491381209829854</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.05707781072202085</v>
+        <v>0.05481226376046851</v>
       </c>
     </row>
     <row r="61">
@@ -6196,79 +6196,79 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.225898832366339</v>
+        <v>0.2130956704566322</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1126597383688319</v>
+        <v>0.08649848093706805</v>
       </c>
       <c r="G61" t="n">
-        <v>0.06767739155868562</v>
+        <v>0.06282422808710188</v>
       </c>
       <c r="H61" t="n">
-        <v>0.04314086091745006</v>
+        <v>0.0001134278910675347</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06174726775774142</v>
+        <v>0.005499682177869685</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01609113076061691</v>
+        <v>0.05788451949928358</v>
       </c>
       <c r="K61" t="n">
-        <v>0.04051326186745778</v>
+        <v>0.004869361860379304</v>
       </c>
       <c r="L61" t="n">
-        <v>0.02771917236901475</v>
+        <v>0.00373811748279079</v>
       </c>
       <c r="M61" t="n">
-        <v>0.09565496196688089</v>
+        <v>0.01140849672735811</v>
       </c>
       <c r="N61" t="n">
-        <v>0.03719780567304499</v>
+        <v>0.004083539594480586</v>
       </c>
       <c r="O61" t="n">
-        <v>0.004929305504401066</v>
+        <v>0.03167984643232816</v>
       </c>
       <c r="P61" t="n">
-        <v>0.01442534640738502</v>
+        <v>0.04104949152941228</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.0153682022416203</v>
+        <v>0.006138745802213103</v>
       </c>
       <c r="R61" t="n">
-        <v>0.009867953803667682</v>
+        <v>0.06038004759662721</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1082271410259763</v>
+        <v>0.08540432601959827</v>
       </c>
       <c r="T61" t="n">
-        <v>0.06044152372576255</v>
+        <v>0.03532422764646639</v>
       </c>
       <c r="U61" t="n">
-        <v>0.05437482722634822</v>
+        <v>0.08650259769924197</v>
       </c>
       <c r="V61" t="n">
-        <v>0.04925815286754395</v>
+        <v>0.04781818944328482</v>
       </c>
       <c r="W61" t="n">
-        <v>0.02161719956662812</v>
+        <v>0.04583648478693756</v>
       </c>
       <c r="X61" t="n">
-        <v>0.005402821307027974</v>
+        <v>0.09656870612968274</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.0174093915024211</v>
+        <v>0.005207410136264553</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.03421821012760737</v>
+        <v>0.07276726506893022</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.07862999563610637</v>
+        <v>0.09691886521276789</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.02342833781777976</v>
+        <v>0.05148394223884544</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.07656541886714123</v>
+        <v>0.07507534644010314</v>
       </c>
     </row>
     <row r="62">
@@ -6291,79 +6291,79 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.203573621554149</v>
+        <v>0.2024297874895608</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03523875027076441</v>
+        <v>0.06224423465422404</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05512253735320945</v>
+        <v>0.05872767023367875</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08478894286398991</v>
+        <v>0.05993699564751038</v>
       </c>
       <c r="I62" t="n">
-        <v>0.009760892425074011</v>
+        <v>0.0389709648879117</v>
       </c>
       <c r="J62" t="n">
-        <v>0.003864063056634044</v>
+        <v>0.005286237035469396</v>
       </c>
       <c r="K62" t="n">
-        <v>0.06140176681944977</v>
+        <v>0.07439513398254176</v>
       </c>
       <c r="L62" t="n">
-        <v>0.02285657114193539</v>
+        <v>0.01932276245805453</v>
       </c>
       <c r="M62" t="n">
-        <v>0.0833329229768749</v>
+        <v>0.07180897325646296</v>
       </c>
       <c r="N62" t="n">
-        <v>0.00438357500270981</v>
+        <v>0.004049324838498445</v>
       </c>
       <c r="O62" t="n">
-        <v>0.03229126547186456</v>
+        <v>0.04324485479051258</v>
       </c>
       <c r="P62" t="n">
-        <v>0.01132847578289332</v>
+        <v>0.03728906331152212</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.003724942228812729</v>
+        <v>0.007303151413054794</v>
       </c>
       <c r="R62" t="n">
-        <v>0.03270660362093102</v>
+        <v>0.004960240582999304</v>
       </c>
       <c r="S62" t="n">
-        <v>0.071407796375195</v>
+        <v>0.07345793837564785</v>
       </c>
       <c r="T62" t="n">
-        <v>0.04995525213881193</v>
+        <v>0.06254130968913385</v>
       </c>
       <c r="U62" t="n">
-        <v>0.06980482038008512</v>
+        <v>0.08889697085070707</v>
       </c>
       <c r="V62" t="n">
-        <v>0.03690335470136535</v>
+        <v>0.01441146581631272</v>
       </c>
       <c r="W62" t="n">
-        <v>0.07725262781822778</v>
+        <v>0.03535059291246287</v>
       </c>
       <c r="X62" t="n">
-        <v>0.08497505712435327</v>
+        <v>0.08375040160863725</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.008774866721855731</v>
+        <v>0.01945500522023846</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.07103510072500419</v>
+        <v>0.03362253245768205</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.0594208160375746</v>
+        <v>0.06680103510479471</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.02966899896238361</v>
+        <v>0.03417314087194254</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.0617214268314288</v>
+        <v>0.06589821670159328</v>
       </c>
     </row>
     <row r="63">
@@ -6386,79 +6386,79 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2103781818570098</v>
+        <v>0.2092346052888995</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08498060185846019</v>
+        <v>0.08720842460736541</v>
       </c>
       <c r="G63" t="n">
-        <v>0.002615350325760843</v>
+        <v>0.01924041490584617</v>
       </c>
       <c r="H63" t="n">
-        <v>0.06736319365824762</v>
+        <v>0.07348640689226821</v>
       </c>
       <c r="I63" t="n">
-        <v>0.04541187783487534</v>
+        <v>0.002144775838637036</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01427244270446693</v>
+        <v>0.0198335273685795</v>
       </c>
       <c r="K63" t="n">
-        <v>0.03186381985087623</v>
+        <v>0.08826505869204554</v>
       </c>
       <c r="L63" t="n">
-        <v>0.01663507334579283</v>
+        <v>0.06133570524115116</v>
       </c>
       <c r="M63" t="n">
-        <v>0.07825922474741219</v>
+        <v>0.02223946367001895</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0008173480001509058</v>
+        <v>0.01750362805329896</v>
       </c>
       <c r="O63" t="n">
-        <v>0.003969015772367056</v>
+        <v>0.04724037709164389</v>
       </c>
       <c r="P63" t="n">
-        <v>0.04283981045565895</v>
+        <v>0.03165458842389673</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01346221659618812</v>
+        <v>0.01116195505519958</v>
       </c>
       <c r="R63" t="n">
-        <v>0.01154003659704112</v>
+        <v>0.01163819886117584</v>
       </c>
       <c r="S63" t="n">
-        <v>0.05759520279098227</v>
+        <v>0.04801388082442273</v>
       </c>
       <c r="T63" t="n">
-        <v>0.06073745478722026</v>
+        <v>0.001290514155768177</v>
       </c>
       <c r="U63" t="n">
-        <v>0.04278187907689559</v>
+        <v>0.09864565956762419</v>
       </c>
       <c r="V63" t="n">
-        <v>0.03743428359969603</v>
+        <v>0.005308669054988735</v>
       </c>
       <c r="W63" t="n">
-        <v>0.008045641170064786</v>
+        <v>0.04046924876150811</v>
       </c>
       <c r="X63" t="n">
-        <v>0.07631116955009533</v>
+        <v>0.05204782752892173</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.09744292585817715</v>
+        <v>0.03606092965375632</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.09227393963460913</v>
+        <v>0.09944750022571627</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.08992311547645475</v>
+        <v>0.09498541545014169</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.02342437630850631</v>
+        <v>0.03077783007602514</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.0836561780572119</v>
+        <v>0.07190248407717978</v>
       </c>
     </row>
     <row r="64">
@@ -6481,79 +6481,79 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.1954226310661108</v>
+        <v>0.1937902728709532</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07149066138949838</v>
+        <v>0.1117849559480939</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01109526161464159</v>
+        <v>0.03087694412074206</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04056489205605716</v>
+        <v>0.02787174506230259</v>
       </c>
       <c r="I64" t="n">
-        <v>0.08761258389858097</v>
+        <v>0.044753868721263</v>
       </c>
       <c r="J64" t="n">
-        <v>0.03009324479926058</v>
+        <v>0.006763449845594162</v>
       </c>
       <c r="K64" t="n">
-        <v>0.08715305936358107</v>
+        <v>0.001410766143234475</v>
       </c>
       <c r="L64" t="n">
-        <v>0.01221725902961472</v>
+        <v>0.06119903942023735</v>
       </c>
       <c r="M64" t="n">
-        <v>0.05688047867059122</v>
+        <v>0.08291980933056552</v>
       </c>
       <c r="N64" t="n">
-        <v>0.02413707774242087</v>
+        <v>0.01822665025025697</v>
       </c>
       <c r="O64" t="n">
-        <v>0.03480749408838817</v>
+        <v>0.02267513682721504</v>
       </c>
       <c r="P64" t="n">
-        <v>0.02659444236973224</v>
+        <v>0.03786955993818801</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.05735390506487806</v>
+        <v>0.09932012722892951</v>
       </c>
       <c r="R64" t="n">
-        <v>0.02423016258060161</v>
+        <v>0.1073714759439215</v>
       </c>
       <c r="S64" t="n">
-        <v>0.06480682607064503</v>
+        <v>0.0770173942752319</v>
       </c>
       <c r="T64" t="n">
-        <v>0.06785819354951107</v>
+        <v>0.009343196245635425</v>
       </c>
       <c r="U64" t="n">
-        <v>0.07870087832115427</v>
+        <v>0.08786810472816864</v>
       </c>
       <c r="V64" t="n">
-        <v>0.01456294935768021</v>
+        <v>0.004910527842442483</v>
       </c>
       <c r="W64" t="n">
-        <v>0.09364428120680354</v>
+        <v>0.03557639475914837</v>
       </c>
       <c r="X64" t="n">
-        <v>0.08786786483409621</v>
+        <v>0.06503062575509715</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.005605174374370544</v>
+        <v>0.02043142621365779</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.0005315514628745382</v>
+        <v>0.01884473445855259</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.01835868141305425</v>
+        <v>0.0237596537254282</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.00383307674196375</v>
+        <v>0.004174413216093401</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.03516173844187129</v>
+        <v>-0.007012464004576278</v>
       </c>
     </row>
     <row r="65">
@@ -6576,79 +6576,79 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2215112983058938</v>
+        <v>0.2019320866950298</v>
       </c>
       <c r="F65" t="n">
-        <v>0.07587743204024751</v>
+        <v>0.1246436229122834</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07163857063388984</v>
+        <v>0.07195950953708377</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03722289867150916</v>
+        <v>0.003507198495738712</v>
       </c>
       <c r="I65" t="n">
-        <v>0.002659285959132</v>
+        <v>0.02987016312685739</v>
       </c>
       <c r="J65" t="n">
-        <v>0.03432665041524762</v>
+        <v>0.03552958756870171</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01940550586059016</v>
+        <v>0.005297920319979652</v>
       </c>
       <c r="L65" t="n">
-        <v>0.008162422251137934</v>
+        <v>0.048465732429836</v>
       </c>
       <c r="M65" t="n">
-        <v>0.003145726075497827</v>
+        <v>0.1300723166893845</v>
       </c>
       <c r="N65" t="n">
-        <v>0.01533040410497535</v>
+        <v>0.009856476005668224</v>
       </c>
       <c r="O65" t="n">
-        <v>0.09390878851454229</v>
+        <v>0.05153034908267437</v>
       </c>
       <c r="P65" t="n">
-        <v>0.005599149720867272</v>
+        <v>0.01260231968393132</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.03484820849998489</v>
+        <v>0.0004070233854094325</v>
       </c>
       <c r="R65" t="n">
-        <v>0.05918308582026641</v>
+        <v>0.05027786080535562</v>
       </c>
       <c r="S65" t="n">
-        <v>0.01065263514385025</v>
+        <v>0.03854468492685384</v>
       </c>
       <c r="T65" t="n">
-        <v>0.00721949448521379</v>
+        <v>0.03869749500181518</v>
       </c>
       <c r="U65" t="n">
-        <v>0.08673024908894872</v>
+        <v>0.003782002744463899</v>
       </c>
       <c r="V65" t="n">
-        <v>0.0843301975264589</v>
+        <v>0.04929785959286447</v>
       </c>
       <c r="W65" t="n">
-        <v>0.05702129135057694</v>
+        <v>0.05929689840546806</v>
       </c>
       <c r="X65" t="n">
-        <v>0.03043106545977122</v>
+        <v>0.06186470784193359</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.1067859621793238</v>
+        <v>0.06004399360271326</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.08899534248792959</v>
+        <v>0.004188775294633843</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.01837396213835103</v>
+        <v>0.1053895288644679</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.04815167157168752</v>
+        <v>0.004873973681881776</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.01207258244740115</v>
+        <v>-0.01909697371153306</v>
       </c>
     </row>
     <row r="66">
@@ -6671,79 +6671,79 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.1737594384900138</v>
+        <v>0.1737514900740625</v>
       </c>
       <c r="F66" t="n">
-        <v>0.008685027425878516</v>
+        <v>0.05660406106315816</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02912504359503853</v>
+        <v>0.06890347247475649</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03154451348674648</v>
+        <v>0.05209239902371858</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1034362904209003</v>
+        <v>0.00174734993795986</v>
       </c>
       <c r="J66" t="n">
-        <v>0.03160114177373462</v>
+        <v>0.01337145029639627</v>
       </c>
       <c r="K66" t="n">
-        <v>0.02873807114109528</v>
+        <v>0.06821764198518751</v>
       </c>
       <c r="L66" t="n">
-        <v>0.03017631575367546</v>
+        <v>0.009283205035254673</v>
       </c>
       <c r="M66" t="n">
-        <v>0.05017952632647445</v>
+        <v>0.04987661960108969</v>
       </c>
       <c r="N66" t="n">
-        <v>0.004074566064974859</v>
+        <v>0.02446730300582621</v>
       </c>
       <c r="O66" t="n">
-        <v>0.01686327817819661</v>
+        <v>0.01953649819405565</v>
       </c>
       <c r="P66" t="n">
-        <v>0.100972628128136</v>
+        <v>0.06324367328243694</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.003590319000664033</v>
+        <v>0.01625811026989903</v>
       </c>
       <c r="R66" t="n">
-        <v>0.03155386101560528</v>
+        <v>0.07081240941425432</v>
       </c>
       <c r="S66" t="n">
-        <v>0.05096022698432558</v>
+        <v>0.0679905393171758</v>
       </c>
       <c r="T66" t="n">
-        <v>0.04780771310695532</v>
+        <v>0.01623121697372238</v>
       </c>
       <c r="U66" t="n">
-        <v>0.04297159229895756</v>
+        <v>0.04282518954108724</v>
       </c>
       <c r="V66" t="n">
-        <v>0.04078021405440998</v>
+        <v>0.05415908601712117</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1208347182518982</v>
+        <v>0.07130782944980775</v>
       </c>
       <c r="X66" t="n">
-        <v>0.01695726049793013</v>
+        <v>0.073540842895082</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.01108920945958085</v>
+        <v>0.01301098878345642</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.1196521687587585</v>
+        <v>0.06470660627411658</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.06143419314794744</v>
+        <v>0.0592477485941309</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.01697212112811604</v>
+        <v>0.02256575857030646</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.03227019044896895</v>
+        <v>0.04328298747059912</v>
       </c>
     </row>
     <row r="67">
@@ -6766,79 +6766,79 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.1960488020331074</v>
+        <v>0.1907502549211142</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04874039882544439</v>
+        <v>0.06177093232478098</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0566165263384062</v>
+        <v>0.07115123777298019</v>
       </c>
       <c r="H67" t="n">
-        <v>0.09570995967053451</v>
+        <v>0.07157950256693063</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01079848035747576</v>
+        <v>0.01825285384791872</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0082862293952562</v>
+        <v>0.00764394157381017</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0140053186785291</v>
+        <v>0.02808644023080168</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0455361440959982</v>
+        <v>0.001158337217648952</v>
       </c>
       <c r="M67" t="n">
-        <v>0.02410438163827225</v>
+        <v>0.01006819209349215</v>
       </c>
       <c r="N67" t="n">
-        <v>0.002851041784196266</v>
+        <v>0.005449140295609926</v>
       </c>
       <c r="O67" t="n">
-        <v>0.02170950786944104</v>
+        <v>0.06214065262395925</v>
       </c>
       <c r="P67" t="n">
-        <v>0.09894024438573805</v>
+        <v>0.001123542657201876</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.04925966314074631</v>
+        <v>0.06026265770924594</v>
       </c>
       <c r="R67" t="n">
-        <v>0.108527440366681</v>
+        <v>0.07956289887520031</v>
       </c>
       <c r="S67" t="n">
-        <v>0.01650139047362298</v>
+        <v>0.05698743134464262</v>
       </c>
       <c r="T67" t="n">
-        <v>0.04128148602233755</v>
+        <v>0.03567641015292608</v>
       </c>
       <c r="U67" t="n">
-        <v>0.01113838708002483</v>
+        <v>0.01794230257993568</v>
       </c>
       <c r="V67" t="n">
-        <v>0.1075760044654011</v>
+        <v>0.06240422185683487</v>
       </c>
       <c r="W67" t="n">
-        <v>0.00259492127868387</v>
+        <v>0.02757481114491737</v>
       </c>
       <c r="X67" t="n">
-        <v>0.0176541854318152</v>
+        <v>0.01377324658600054</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.1061339561037738</v>
+        <v>0.07979487140387011</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.02195520482881776</v>
+        <v>0.08064659945286638</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.02213443296938539</v>
+        <v>0.07325304778431924</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.06794469479941823</v>
+        <v>0.0736967279041065</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.04354543449811828</v>
+        <v>0.04010988899251833</v>
       </c>
     </row>
     <row r="68">
@@ -6861,79 +6861,79 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.1482469167897835</v>
+        <v>0.1481771038747874</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001670352289191309</v>
+        <v>0.03335913728390164</v>
       </c>
       <c r="G68" t="n">
-        <v>0.006430562144923822</v>
+        <v>0.04347279710291973</v>
       </c>
       <c r="H68" t="n">
-        <v>0.005744343715467498</v>
+        <v>0.04282778662314751</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03847945390620162</v>
+        <v>0.0717012205506522</v>
       </c>
       <c r="J68" t="n">
-        <v>0.01871916781583283</v>
+        <v>0.04342081388651765</v>
       </c>
       <c r="K68" t="n">
-        <v>0.05538051573262319</v>
+        <v>0.01550673509819767</v>
       </c>
       <c r="L68" t="n">
-        <v>0.02595484719894506</v>
+        <v>0.001229583460907589</v>
       </c>
       <c r="M68" t="n">
-        <v>0.08991068775947016</v>
+        <v>0.001451648523589939</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0008767361323668852</v>
+        <v>0.0133984086949889</v>
       </c>
       <c r="O68" t="n">
-        <v>0.00703465112232385</v>
+        <v>0.002619687280053035</v>
       </c>
       <c r="P68" t="n">
-        <v>0.05004787176475999</v>
+        <v>0.07226339339419484</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02056165129760043</v>
+        <v>0.05700606183781005</v>
       </c>
       <c r="R68" t="n">
-        <v>0.05944656992495009</v>
+        <v>0.06058717906805655</v>
       </c>
       <c r="S68" t="n">
-        <v>0.09469479489390992</v>
+        <v>0.08256200359799766</v>
       </c>
       <c r="T68" t="n">
-        <v>0.0891446360474725</v>
+        <v>0.004433847268219001</v>
       </c>
       <c r="U68" t="n">
-        <v>0.07949005800287214</v>
+        <v>0.1094228707366361</v>
       </c>
       <c r="V68" t="n">
-        <v>0.0243032761849994</v>
+        <v>0.02870300832517292</v>
       </c>
       <c r="W68" t="n">
-        <v>0.07087198501662439</v>
+        <v>0.1057104386059349</v>
       </c>
       <c r="X68" t="n">
-        <v>0.08098318857249751</v>
+        <v>0.09887171739509287</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.03094235694974188</v>
+        <v>0.01500060349989387</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.03688447638431495</v>
+        <v>0.07629028196625108</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.0872580303893835</v>
+        <v>0.0132148440371069</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.02516978675352732</v>
+        <v>0.006945931762757354</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.01379107852146539</v>
+        <v>-0.0154335170111205</v>
       </c>
     </row>
     <row r="69">
@@ -6956,79 +6956,79 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1714834623158591</v>
+        <v>0.1718782842294629</v>
       </c>
       <c r="F69" t="n">
-        <v>0.008160276233346066</v>
+        <v>0.0113121906401294</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05728119070298764</v>
+        <v>0.007251750554524333</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1181895264682781</v>
+        <v>0.003245746459204322</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01279581535252076</v>
+        <v>0.004315035290789273</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0142846652103178</v>
+        <v>0.04763983613144151</v>
       </c>
       <c r="K69" t="n">
-        <v>0.09365430439290327</v>
+        <v>0.09010211903903864</v>
       </c>
       <c r="L69" t="n">
-        <v>0.04678132178660516</v>
+        <v>0.002640953581883696</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1080980498805749</v>
+        <v>0.09777001457723249</v>
       </c>
       <c r="N69" t="n">
-        <v>0.006964259475223848</v>
+        <v>0.01795396902594278</v>
       </c>
       <c r="O69" t="n">
-        <v>0.01168329320338313</v>
+        <v>0.00641363019919321</v>
       </c>
       <c r="P69" t="n">
-        <v>0.03008150043749148</v>
+        <v>0.04953500237447277</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.1062752192530029</v>
+        <v>0.07729423148377158</v>
       </c>
       <c r="R69" t="n">
-        <v>0.03217266530520834</v>
+        <v>0.03762117737302789</v>
       </c>
       <c r="S69" t="n">
-        <v>0.02579348718067822</v>
+        <v>0.01000087151029599</v>
       </c>
       <c r="T69" t="n">
-        <v>0.05110900461018864</v>
+        <v>0.01765902939229603</v>
       </c>
       <c r="U69" t="n">
-        <v>0.04008265055411702</v>
+        <v>0.07276401323803486</v>
       </c>
       <c r="V69" t="n">
-        <v>0.04223629583315573</v>
+        <v>0.09238540233150092</v>
       </c>
       <c r="W69" t="n">
-        <v>0.02524994130556304</v>
+        <v>0.00367369692646428</v>
       </c>
       <c r="X69" t="n">
-        <v>0.001224589686511005</v>
+        <v>0.06011668284923195</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.07353043779599551</v>
+        <v>0.0796843484591912</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.03473184529216326</v>
+        <v>0.06175965722562488</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.03377725593507148</v>
+        <v>0.09136782163003668</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.02584240410471268</v>
+        <v>0.0574928197066712</v>
       </c>
       <c r="AC69" t="n">
-        <v>-0.002034783304107808</v>
+        <v>0.005293215960864637</v>
       </c>
     </row>
     <row r="70">
@@ -7051,79 +7051,79 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.1362000789127649</v>
+        <v>0.1371566295165029</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0186767924402502</v>
+        <v>0.009277749633518696</v>
       </c>
       <c r="G70" t="n">
-        <v>0.004452678763514939</v>
+        <v>0.005128318829752909</v>
       </c>
       <c r="H70" t="n">
-        <v>0.008688857113295577</v>
+        <v>0.09577544293782905</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03386666896732785</v>
+        <v>0.006277417959959409</v>
       </c>
       <c r="J70" t="n">
-        <v>0.06160063570244333</v>
+        <v>0.07983540707590493</v>
       </c>
       <c r="K70" t="n">
-        <v>0.06028039277852892</v>
+        <v>0.03444660326521485</v>
       </c>
       <c r="L70" t="n">
-        <v>0.01134426461345714</v>
+        <v>0.03548909384166436</v>
       </c>
       <c r="M70" t="n">
-        <v>0.03434286199046647</v>
+        <v>0.07547771763017481</v>
       </c>
       <c r="N70" t="n">
-        <v>0.01140148720333663</v>
+        <v>0.004074379360181225</v>
       </c>
       <c r="O70" t="n">
-        <v>0.1014588539163681</v>
+        <v>0.06462746866667017</v>
       </c>
       <c r="P70" t="n">
-        <v>0.07521947053863075</v>
+        <v>0.07791355752831032</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.0422759388627605</v>
+        <v>0.04488201163644339</v>
       </c>
       <c r="R70" t="n">
-        <v>0.0512726314987216</v>
+        <v>0.05117194663473051</v>
       </c>
       <c r="S70" t="n">
-        <v>0.0268072264079734</v>
+        <v>0.002412344592456227</v>
       </c>
       <c r="T70" t="n">
-        <v>0.04801050958179992</v>
+        <v>0.04393410278277184</v>
       </c>
       <c r="U70" t="n">
-        <v>0.1054211397826262</v>
+        <v>0.08157261705991181</v>
       </c>
       <c r="V70" t="n">
-        <v>0.044760634707572</v>
+        <v>0.03291457311610461</v>
       </c>
       <c r="W70" t="n">
-        <v>0.09328912472431418</v>
+        <v>0.1003368126503767</v>
       </c>
       <c r="X70" t="n">
-        <v>0.06831428072641538</v>
+        <v>0.01728827585105239</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.04140449987476424</v>
+        <v>0.0127373261621046</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.04228985276173193</v>
+        <v>0.05957287999421589</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.01244794976745345</v>
+        <v>0.06123537515957572</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.002373247276247264</v>
+        <v>0.003618577631075672</v>
       </c>
       <c r="AC70" t="n">
-        <v>-0.04569912583616392</v>
+        <v>-0.03554354903007304</v>
       </c>
     </row>
     <row r="71">
@@ -7146,79 +7146,79 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.1522808884700707</v>
+        <v>0.1568192125651944</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05510598814327787</v>
+        <v>0.03323544354727989</v>
       </c>
       <c r="G71" t="n">
-        <v>0.01778722346571589</v>
+        <v>0.01942552475934692</v>
       </c>
       <c r="H71" t="n">
-        <v>0.01152782904553329</v>
+        <v>0.01888227632901275</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03161263649015821</v>
+        <v>0.05801207517213886</v>
       </c>
       <c r="J71" t="n">
-        <v>0.02131743824402103</v>
+        <v>0.03268878883882923</v>
       </c>
       <c r="K71" t="n">
-        <v>0.07553104671467629</v>
+        <v>0.06717129089021352</v>
       </c>
       <c r="L71" t="n">
-        <v>0.06187519173519528</v>
+        <v>0.02411801094345671</v>
       </c>
       <c r="M71" t="n">
-        <v>0.09468373611156414</v>
+        <v>0.1012600898031689</v>
       </c>
       <c r="N71" t="n">
-        <v>0.009606780162681247</v>
+        <v>0.003534236705087825</v>
       </c>
       <c r="O71" t="n">
-        <v>0.02362938609715982</v>
+        <v>0.002110960187474196</v>
       </c>
       <c r="P71" t="n">
-        <v>0.01984835567433668</v>
+        <v>0.02592170516314806</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.06711451719536264</v>
+        <v>0.1054715323067431</v>
       </c>
       <c r="R71" t="n">
-        <v>0.07421593842980784</v>
+        <v>0.04212301588313069</v>
       </c>
       <c r="S71" t="n">
-        <v>0.004399906676648396</v>
+        <v>0.008312259005415512</v>
       </c>
       <c r="T71" t="n">
-        <v>0.01522233628952292</v>
+        <v>0.005093954126321228</v>
       </c>
       <c r="U71" t="n">
-        <v>0.05836776138447849</v>
+        <v>0.06436003401307792</v>
       </c>
       <c r="V71" t="n">
-        <v>8.990409701525589e-05</v>
+        <v>0.07432240324830555</v>
       </c>
       <c r="W71" t="n">
-        <v>0.004976452883486161</v>
+        <v>0.0540977835135934</v>
       </c>
       <c r="X71" t="n">
-        <v>0.06907043329675241</v>
+        <v>0.08612516668679769</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.09478398727486875</v>
+        <v>0.0547990160564801</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.05426438985956953</v>
+        <v>0.01466811475565844</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.06051699935100738</v>
+        <v>2.398315504097068e-06</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.07445176137716052</v>
+        <v>0.1042639197498151</v>
       </c>
       <c r="AC71" t="n">
-        <v>-0.05436816255833979</v>
+        <v>-0.0597394838831968</v>
       </c>
     </row>
     <row r="72">
@@ -7241,79 +7241,79 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.1149397600928134</v>
+        <v>0.1143895880809059</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01609542597118242</v>
+        <v>0.01099950688616641</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04339745047164375</v>
+        <v>0.04632743295338454</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03896652324169465</v>
+        <v>0.04422810491507839</v>
       </c>
       <c r="I72" t="n">
-        <v>0.08095346552530257</v>
+        <v>0.08324576484024057</v>
       </c>
       <c r="J72" t="n">
-        <v>0.05170998268071253</v>
+        <v>0.07950310888490369</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0391429899244688</v>
+        <v>0.04301339059769946</v>
       </c>
       <c r="L72" t="n">
-        <v>0.08108608001069882</v>
+        <v>0.02484424037481515</v>
       </c>
       <c r="M72" t="n">
-        <v>0.05473402606896004</v>
+        <v>0.0886060540660264</v>
       </c>
       <c r="N72" t="n">
-        <v>0.008805061267858285</v>
+        <v>0.002981010769654421</v>
       </c>
       <c r="O72" t="n">
-        <v>0.03698621454287961</v>
+        <v>0.02082032219096373</v>
       </c>
       <c r="P72" t="n">
-        <v>0.05902189459402538</v>
+        <v>0.09327203718324746</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.02281129659284979</v>
+        <v>0.05606795062769582</v>
       </c>
       <c r="R72" t="n">
-        <v>0.02517593179503384</v>
+        <v>0.0600471752760993</v>
       </c>
       <c r="S72" t="n">
-        <v>0.0001718344416556314</v>
+        <v>0.004546659955385741</v>
       </c>
       <c r="T72" t="n">
-        <v>0.03722473671384315</v>
+        <v>0.07822899879723752</v>
       </c>
       <c r="U72" t="n">
-        <v>0.05426427527122538</v>
+        <v>0.06124798069658446</v>
       </c>
       <c r="V72" t="n">
-        <v>0.008721993835251763</v>
+        <v>0.01142503578976121</v>
       </c>
       <c r="W72" t="n">
-        <v>0.06992590079688568</v>
+        <v>0.07488316787551461</v>
       </c>
       <c r="X72" t="n">
-        <v>0.08421042161775591</v>
+        <v>0.02352832894771849</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.02450238284494914</v>
+        <v>0.009604042729337283</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.07548269764797677</v>
+        <v>0.05013432980252735</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.06515818636330244</v>
+        <v>0.01624300737254915</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.02145122777984347</v>
+        <v>0.01620234846740902</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.1438912651322277</v>
+        <v>-0.155372895282417</v>
       </c>
     </row>
     <row r="73">
@@ -7336,79 +7336,79 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.1308497119412441</v>
+        <v>0.1439315311914955</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05978097977301226</v>
+        <v>0.08855538235418425</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0749225723738248</v>
+        <v>0.09437495828635893</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08781924188375852</v>
+        <v>0.08248253894896326</v>
       </c>
       <c r="I73" t="n">
-        <v>0.001061449690888079</v>
+        <v>0.009241935919671342</v>
       </c>
       <c r="J73" t="n">
-        <v>0.02704753943848002</v>
+        <v>0.03297889665204814</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0032087725949214</v>
+        <v>0.01195816832571926</v>
       </c>
       <c r="L73" t="n">
-        <v>0.03036427639550969</v>
+        <v>0.01743766382646317</v>
       </c>
       <c r="M73" t="n">
-        <v>0.07413545358397784</v>
+        <v>0.0842612696842161</v>
       </c>
       <c r="N73" t="n">
-        <v>0.005750709110048991</v>
+        <v>0.009310483293496744</v>
       </c>
       <c r="O73" t="n">
-        <v>0.006348326930229076</v>
+        <v>0.07584829795681031</v>
       </c>
       <c r="P73" t="n">
-        <v>0.06622391936000208</v>
+        <v>0.007449821879883879</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.06502380096083459</v>
+        <v>0.0802031950029102</v>
       </c>
       <c r="R73" t="n">
-        <v>0.05832467336278006</v>
+        <v>0.04948321673922371</v>
       </c>
       <c r="S73" t="n">
-        <v>0.001068586062808129</v>
+        <v>0.01802409629939347</v>
       </c>
       <c r="T73" t="n">
-        <v>0.005721117442874311</v>
+        <v>0.002827954225887968</v>
       </c>
       <c r="U73" t="n">
-        <v>0.05543164316069353</v>
+        <v>0.04777925189118411</v>
       </c>
       <c r="V73" t="n">
-        <v>0.01661134721578381</v>
+        <v>0.03299283338355793</v>
       </c>
       <c r="W73" t="n">
-        <v>0.05806874813597302</v>
+        <v>0.05606048032084525</v>
       </c>
       <c r="X73" t="n">
-        <v>0.05034805980363545</v>
+        <v>0.003963302381967231</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.09307630717956487</v>
+        <v>0.07474800253310701</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.08183697688060934</v>
+        <v>0.005757357900806085</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.01375772174795205</v>
+        <v>0.01717566285735846</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.06406777691183811</v>
+        <v>0.09708522933594334</v>
       </c>
       <c r="AC73" t="n">
-        <v>-0.1301897856422098</v>
+        <v>-0.1540640149776858</v>
       </c>
     </row>
     <row r="74">
@@ -7431,79 +7431,79 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.1254357689959006</v>
+        <v>0.1269746581909809</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01190368817922041</v>
+        <v>0.07142842767800028</v>
       </c>
       <c r="G74" t="n">
-        <v>0.08003229627750739</v>
+        <v>0.03045926094517758</v>
       </c>
       <c r="H74" t="n">
-        <v>0.008706787162108133</v>
+        <v>0.004120927764167092</v>
       </c>
       <c r="I74" t="n">
-        <v>0.03591320746701038</v>
+        <v>0.0174134350733429</v>
       </c>
       <c r="J74" t="n">
-        <v>0.06950656749992423</v>
+        <v>0.04262897910253102</v>
       </c>
       <c r="K74" t="n">
-        <v>0.005579109322741962</v>
+        <v>0.005974072281794334</v>
       </c>
       <c r="L74" t="n">
-        <v>0.0001535681035367569</v>
+        <v>0.02750587620969028</v>
       </c>
       <c r="M74" t="n">
-        <v>0.07421150765820729</v>
+        <v>0.0680732521516484</v>
       </c>
       <c r="N74" t="n">
-        <v>8.470358298794264e-05</v>
+        <v>0.0023306574097663</v>
       </c>
       <c r="O74" t="n">
-        <v>0.07730268762663921</v>
+        <v>0.06354607424488998</v>
       </c>
       <c r="P74" t="n">
-        <v>0.07544757599615963</v>
+        <v>0.07430207247384944</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.07086166800081507</v>
+        <v>0.04199872792090393</v>
       </c>
       <c r="R74" t="n">
-        <v>0.006092205366309709</v>
+        <v>0.06376938292299571</v>
       </c>
       <c r="S74" t="n">
-        <v>0.02893720420707507</v>
+        <v>0.007108865626914165</v>
       </c>
       <c r="T74" t="n">
-        <v>0.02060436805015083</v>
+        <v>0.06429558320737287</v>
       </c>
       <c r="U74" t="n">
-        <v>0.05602753962049917</v>
+        <v>0.05210296967639914</v>
       </c>
       <c r="V74" t="n">
-        <v>0.02816157484189426</v>
+        <v>0.01982240421738659</v>
       </c>
       <c r="W74" t="n">
-        <v>0.08010955600094322</v>
+        <v>0.0584504572084853</v>
       </c>
       <c r="X74" t="n">
-        <v>0.07421868421670745</v>
+        <v>0.0774295521451626</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.05971401070529406</v>
+        <v>0.05202437181164578</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.0009038863839806294</v>
+        <v>0.05042557692747342</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.07803736114465229</v>
+        <v>0.05164788917985953</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.05749024258563507</v>
+        <v>0.05314118382054342</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.1154120390248443</v>
+        <v>0.149325749823856</v>
       </c>
     </row>
     <row r="75">
@@ -7526,79 +7526,79 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1409958103421459</v>
+        <v>0.1354084641539725</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07608037703617092</v>
+        <v>0.04670012360172318</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04291853226299897</v>
+        <v>0.0026405060810051</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07704384849390943</v>
+        <v>0.08116289781746497</v>
       </c>
       <c r="I75" t="n">
-        <v>0.00969464022931958</v>
+        <v>0.01167290382159754</v>
       </c>
       <c r="J75" t="n">
-        <v>0.009293438240756598</v>
+        <v>0.02672856398180219</v>
       </c>
       <c r="K75" t="n">
-        <v>0.02687037202366499</v>
+        <v>0.03260144097263612</v>
       </c>
       <c r="L75" t="n">
-        <v>0.01064705678840165</v>
+        <v>0.02443590962865983</v>
       </c>
       <c r="M75" t="n">
-        <v>0.06758403108692848</v>
+        <v>0.1211969923880553</v>
       </c>
       <c r="N75" t="n">
-        <v>0.006211454143651747</v>
+        <v>0.001638835610337219</v>
       </c>
       <c r="O75" t="n">
-        <v>0.03058313278007651</v>
+        <v>0.02252739141761414</v>
       </c>
       <c r="P75" t="n">
-        <v>0.03445782081859265</v>
+        <v>0.003273586233025233</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.08051840331384512</v>
+        <v>0.04940348233503547</v>
       </c>
       <c r="R75" t="n">
-        <v>0.04803256532383047</v>
+        <v>0.1142094259424212</v>
       </c>
       <c r="S75" t="n">
-        <v>0.0170808690500389</v>
+        <v>0.005810899384468999</v>
       </c>
       <c r="T75" t="n">
-        <v>0.01326568418246839</v>
+        <v>0.004986595553516825</v>
       </c>
       <c r="U75" t="n">
-        <v>0.01889193227939811</v>
+        <v>0.1241135526460155</v>
       </c>
       <c r="V75" t="n">
-        <v>0.102292185618039</v>
+        <v>0.005275049247724297</v>
       </c>
       <c r="W75" t="n">
-        <v>0.06409664593381947</v>
+        <v>0.05572599274198068</v>
       </c>
       <c r="X75" t="n">
-        <v>0.03082230404330779</v>
+        <v>0.0551859513219758</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.09074808999940487</v>
+        <v>0.1192237739445218</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.01860885316582365</v>
+        <v>0.04969803305486908</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.07854828865686213</v>
+        <v>0.009545091259751809</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.04570947452869056</v>
+        <v>0.03224300101379767</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.1482974668979755</v>
+        <v>0.1403727918048235</v>
       </c>
     </row>
     <row r="76">
@@ -7621,79 +7621,79 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.1255531794197395</v>
+        <v>0.1233747885721943</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07272563792453411</v>
+        <v>0.03411335258813772</v>
       </c>
       <c r="G76" t="n">
-        <v>0.06455738412490677</v>
+        <v>0.09388760280545802</v>
       </c>
       <c r="H76" t="n">
-        <v>0.02590431430991617</v>
+        <v>0.006065362946912786</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02331203137203038</v>
+        <v>0.02777852975782204</v>
       </c>
       <c r="J76" t="n">
-        <v>0.04509773367812427</v>
+        <v>0.001373556606982152</v>
       </c>
       <c r="K76" t="n">
-        <v>0.005805972014729066</v>
+        <v>0.04038334718528214</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0352883869307924</v>
+        <v>0.00514522891504147</v>
       </c>
       <c r="M76" t="n">
-        <v>0.07779608445172255</v>
+        <v>0.09955766533706986</v>
       </c>
       <c r="N76" t="n">
-        <v>0.03866724006893591</v>
+        <v>0.04384196800996331</v>
       </c>
       <c r="O76" t="n">
-        <v>0.0489781385298398</v>
+        <v>0.01746604030055211</v>
       </c>
       <c r="P76" t="n">
-        <v>0.07401042591149647</v>
+        <v>0.09796650928051392</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.05291991557455324</v>
+        <v>0.06493392770312972</v>
       </c>
       <c r="R76" t="n">
-        <v>0.06517308744200641</v>
+        <v>0.007005907993014602</v>
       </c>
       <c r="S76" t="n">
-        <v>0.009362027100497088</v>
+        <v>0.05299625785797477</v>
       </c>
       <c r="T76" t="n">
-        <v>0.01001631138830711</v>
+        <v>0.03672816877704541</v>
       </c>
       <c r="U76" t="n">
-        <v>0.06067243286626666</v>
+        <v>0.0766866352786006</v>
       </c>
       <c r="V76" t="n">
-        <v>0.03141631774557529</v>
+        <v>0.002051400460435917</v>
       </c>
       <c r="W76" t="n">
-        <v>0.07796368245715937</v>
+        <v>0.09715607845100989</v>
       </c>
       <c r="X76" t="n">
-        <v>0.06439521131486621</v>
+        <v>0.09997802198108612</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.02842231339049775</v>
+        <v>0.04774744925224516</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.01104487605293004</v>
+        <v>0.01866498947707579</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.04429536953326554</v>
+        <v>0.007402662286613018</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.03217510581704731</v>
+        <v>0.02106933674803346</v>
       </c>
       <c r="AC76" t="n">
-        <v>-0.04732524988124832</v>
+        <v>-0.01962171400663281</v>
       </c>
     </row>
     <row r="77">
@@ -7716,79 +7716,79 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.1267348232091295</v>
+        <v>0.1348000398877532</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05324962590639257</v>
+        <v>0.1081984710720308</v>
       </c>
       <c r="G77" t="n">
-        <v>0.06163991322491213</v>
+        <v>0.06393700509558012</v>
       </c>
       <c r="H77" t="n">
-        <v>0.00339120308498848</v>
+        <v>0.03385209779003934</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02011762642008013</v>
+        <v>0.0310543882074677</v>
       </c>
       <c r="J77" t="n">
-        <v>0.06583307042155538</v>
+        <v>0.001563281696323857</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009050626425911309</v>
+        <v>0.02617200374715194</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06306278533873413</v>
+        <v>0.01481556784463102</v>
       </c>
       <c r="M77" t="n">
-        <v>0.06998388375915095</v>
+        <v>0.06632926554149443</v>
       </c>
       <c r="N77" t="n">
-        <v>0.007909835693039711</v>
+        <v>0.009855115808339926</v>
       </c>
       <c r="O77" t="n">
-        <v>0.03906958869344494</v>
+        <v>3.492873256165544e-05</v>
       </c>
       <c r="P77" t="n">
-        <v>0.06291425058263127</v>
+        <v>0.08996582185414682</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.06590487897913681</v>
+        <v>0.03619247464420541</v>
       </c>
       <c r="R77" t="n">
-        <v>0.01074224739626779</v>
+        <v>0.08992314167133761</v>
       </c>
       <c r="S77" t="n">
-        <v>0.003282905134050534</v>
+        <v>0.04179350901050612</v>
       </c>
       <c r="T77" t="n">
-        <v>0.05007742937782618</v>
+        <v>0.07142831564587203</v>
       </c>
       <c r="U77" t="n">
-        <v>0.04003836808036901</v>
+        <v>0.001704455358600677</v>
       </c>
       <c r="V77" t="n">
-        <v>0.005463163418854321</v>
+        <v>0.002228846283220525</v>
       </c>
       <c r="W77" t="n">
-        <v>0.03800931382964396</v>
+        <v>0.006340884077089293</v>
       </c>
       <c r="X77" t="n">
-        <v>0.07394346935026809</v>
+        <v>0.05357332028532098</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.07052906543991777</v>
+        <v>0.1099869219207161</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.06753223859621899</v>
+        <v>0.03822511406899022</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.04167963056100672</v>
+        <v>0.02927936839920802</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.07657488028559881</v>
+        <v>0.07354570124516546</v>
       </c>
       <c r="AC77" t="n">
-        <v>-0.04623846173601148</v>
+        <v>-0.02952884765206244</v>
       </c>
     </row>
     <row r="78">
@@ -7811,79 +7811,79 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.1263867477989807</v>
+        <v>0.1254674966176831</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04268823464023048</v>
+        <v>0.03958173696276533</v>
       </c>
       <c r="G78" t="n">
-        <v>0.06726577020590249</v>
+        <v>0.03116198248911335</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0633323485809647</v>
+        <v>0.006859335210541311</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01360513789316089</v>
+        <v>0.02640858996818858</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02562042268182291</v>
+        <v>0.09192155819452957</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01431776713915593</v>
+        <v>0.008708737058034882</v>
       </c>
       <c r="L78" t="n">
-        <v>0.01367623198302366</v>
+        <v>0.005991518513995012</v>
       </c>
       <c r="M78" t="n">
-        <v>0.04360216165060203</v>
+        <v>0.09005509803787447</v>
       </c>
       <c r="N78" t="n">
-        <v>0.003587156506836686</v>
+        <v>0.01016433804926179</v>
       </c>
       <c r="O78" t="n">
-        <v>0.07648337614717891</v>
+        <v>0.0134384685764693</v>
       </c>
       <c r="P78" t="n">
-        <v>0.06956399688925648</v>
+        <v>0.05911471775919928</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.07249291158969455</v>
+        <v>0.09246931586373804</v>
       </c>
       <c r="R78" t="n">
-        <v>0.005877585769647523</v>
+        <v>0.04137177184154262</v>
       </c>
       <c r="S78" t="n">
-        <v>0.02454474307890422</v>
+        <v>0.07629065109959209</v>
       </c>
       <c r="T78" t="n">
-        <v>0.07997085756556065</v>
+        <v>0.01554959497061133</v>
       </c>
       <c r="U78" t="n">
-        <v>0.08118815677792773</v>
+        <v>0.01866329883878459</v>
       </c>
       <c r="V78" t="n">
-        <v>0.02058798014727983</v>
+        <v>0.00194970852535181</v>
       </c>
       <c r="W78" t="n">
-        <v>0.06962502369997475</v>
+        <v>0.1013869237338553</v>
       </c>
       <c r="X78" t="n">
-        <v>0.06856149421773579</v>
+        <v>0.08268932457087738</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.02793500345203197</v>
+        <v>0.0118236934235536</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.03243303040286218</v>
+        <v>0.09013194427473316</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.03626130829713788</v>
+        <v>0.07588423234349319</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.04677930068310775</v>
+        <v>0.008383459693894041</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.09126079131787335</v>
+        <v>0.1055010152631173</v>
       </c>
     </row>
     <row r="79">
@@ -7906,79 +7906,79 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1319522850018807</v>
+        <v>0.1360887257589546</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08302768330451707</v>
+        <v>0.09214146029766786</v>
       </c>
       <c r="G79" t="n">
-        <v>0.07849063574904201</v>
+        <v>0.06927916574458756</v>
       </c>
       <c r="H79" t="n">
-        <v>0.02127753798383764</v>
+        <v>0.01698364894642427</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0319905687217828</v>
+        <v>0.01775466128511537</v>
       </c>
       <c r="J79" t="n">
-        <v>0.008517511570735723</v>
+        <v>0.009926257300070334</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02678946634781719</v>
+        <v>0.009935960119930011</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07107104906135096</v>
+        <v>0.03321789462333268</v>
       </c>
       <c r="M79" t="n">
-        <v>0.09022240551770079</v>
+        <v>0.09307873478113522</v>
       </c>
       <c r="N79" t="n">
-        <v>0.008940351733636153</v>
+        <v>0.01344901046397048</v>
       </c>
       <c r="O79" t="n">
-        <v>0.03540230477465121</v>
+        <v>0.02860072804987342</v>
       </c>
       <c r="P79" t="n">
-        <v>0.07235894456481333</v>
+        <v>0.03723329332376538</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0106605629223326</v>
+        <v>0.0263579557838053</v>
       </c>
       <c r="R79" t="n">
-        <v>0.05205985005192922</v>
+        <v>0.0132798684705047</v>
       </c>
       <c r="S79" t="n">
-        <v>0.04344981580066729</v>
+        <v>0.06367732271677219</v>
       </c>
       <c r="T79" t="n">
-        <v>0.01505005005381614</v>
+        <v>0.002550031550809548</v>
       </c>
       <c r="U79" t="n">
-        <v>0.02248344579341881</v>
+        <v>0.04637416106109875</v>
       </c>
       <c r="V79" t="n">
-        <v>0.01207521064027461</v>
+        <v>0.03494521963308268</v>
       </c>
       <c r="W79" t="n">
-        <v>0.08095354495326688</v>
+        <v>0.02066724418472841</v>
       </c>
       <c r="X79" t="n">
-        <v>0.07881796506976545</v>
+        <v>0.102720869876427</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.0792999188719275</v>
+        <v>0.0445473342672121</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.04508162696033238</v>
+        <v>0.1026475184403093</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.01263195904410209</v>
+        <v>0.04699395650342758</v>
       </c>
       <c r="AB79" t="n">
-        <v>0.01934759050828214</v>
+        <v>0.07363770257594973</v>
       </c>
       <c r="AC79" t="n">
-        <v>0.08140226813580359</v>
+        <v>0.105348857773641</v>
       </c>
     </row>
     <row r="80">
@@ -8001,79 +8001,79 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.1411642021443159</v>
+        <v>0.1420171654963025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.006328818874357441</v>
+        <v>0.003964110539421721</v>
       </c>
       <c r="G80" t="n">
-        <v>0.07923990441265095</v>
+        <v>0.0591222104505469</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0111283741187127</v>
+        <v>0.08648374864650958</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05176809724567887</v>
+        <v>0.01537500034662979</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07455062457722829</v>
+        <v>0.08584322252716328</v>
       </c>
       <c r="K80" t="n">
-        <v>0.04615878968378811</v>
+        <v>0.01650622898533066</v>
       </c>
       <c r="L80" t="n">
-        <v>0.01191431926812017</v>
+        <v>0.01629593283228849</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0003193964486614259</v>
+        <v>0.0002316646755577061</v>
       </c>
       <c r="N80" t="n">
-        <v>0.008551470168725371</v>
+        <v>0.03768216804412475</v>
       </c>
       <c r="O80" t="n">
-        <v>0.07482519233933627</v>
+        <v>0.06099841667310969</v>
       </c>
       <c r="P80" t="n">
-        <v>0.03490247214270672</v>
+        <v>0.07699806618117236</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.0817663886840926</v>
+        <v>0.05234763086352486</v>
       </c>
       <c r="R80" t="n">
-        <v>0.05968885224650267</v>
+        <v>0.06187212330098667</v>
       </c>
       <c r="S80" t="n">
-        <v>0.05044113975997001</v>
+        <v>0.001752811993985767</v>
       </c>
       <c r="T80" t="n">
-        <v>0.07806457410613479</v>
+        <v>0.06347086430360313</v>
       </c>
       <c r="U80" t="n">
-        <v>0.07973689033376831</v>
+        <v>0.02925319954802391</v>
       </c>
       <c r="V80" t="n">
-        <v>0.04327588164450635</v>
+        <v>0.05396015000736062</v>
       </c>
       <c r="W80" t="n">
-        <v>0.0591093873393992</v>
+        <v>0.08464639409478579</v>
       </c>
       <c r="X80" t="n">
-        <v>0.0793672676309764</v>
+        <v>0.05106438286473629</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.02929109969294651</v>
+        <v>0.01608017250152566</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.01077107938011688</v>
+        <v>0.05368775578689731</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.0148394266465304</v>
+        <v>0.0591677291478789</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.01396055325508948</v>
+        <v>0.01319601568483628</v>
       </c>
       <c r="AC80" t="n">
-        <v>-0.2023979000045702</v>
+        <v>-0.202407080733238</v>
       </c>
     </row>
     <row r="81">
@@ -8096,79 +8096,79 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1570531764279238</v>
+        <v>0.1853721062600253</v>
       </c>
       <c r="F81" t="n">
-        <v>0.07683933259039231</v>
+        <v>0.06435147007145949</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01594106875947108</v>
+        <v>0.01550516732281332</v>
       </c>
       <c r="H81" t="n">
-        <v>0.06048294240254423</v>
+        <v>0.00249782483794797</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04149205838908571</v>
+        <v>0.080209668742543</v>
       </c>
       <c r="J81" t="n">
-        <v>0.005378625606465222</v>
+        <v>0.01789334743414406</v>
       </c>
       <c r="K81" t="n">
-        <v>0.003819458464488119</v>
+        <v>0.04246184012093103</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03879527529800212</v>
+        <v>0.09067506629712571</v>
       </c>
       <c r="M81" t="n">
-        <v>0.001901029881551227</v>
+        <v>0.007138710329821595</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07481428534979068</v>
+        <v>0.02088188877292384</v>
       </c>
       <c r="O81" t="n">
-        <v>0.03065542231145445</v>
+        <v>0.07280761274271262</v>
       </c>
       <c r="P81" t="n">
-        <v>0.05711858072168797</v>
+        <v>0.01223100546051653</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02258995322742943</v>
+        <v>0.03871046098356438</v>
       </c>
       <c r="R81" t="n">
-        <v>0.07857156754563167</v>
+        <v>0.06152895718280341</v>
       </c>
       <c r="S81" t="n">
-        <v>0.01102034768078166</v>
+        <v>0.04571146008137533</v>
       </c>
       <c r="T81" t="n">
-        <v>0.06233808401754637</v>
+        <v>0.0590027748541264</v>
       </c>
       <c r="U81" t="n">
-        <v>0.01461692032350873</v>
+        <v>0.006521633099671862</v>
       </c>
       <c r="V81" t="n">
-        <v>0.009182488499493605</v>
+        <v>0.02563857867232456</v>
       </c>
       <c r="W81" t="n">
-        <v>0.08527486357110736</v>
+        <v>0.03096936920453262</v>
       </c>
       <c r="X81" t="n">
-        <v>0.08741167219430665</v>
+        <v>0.09832245228392644</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.0792728225206052</v>
+        <v>0.07875307240497004</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.07637770873974163</v>
+        <v>0.09566588577576918</v>
       </c>
       <c r="AA81" t="n">
-        <v>0.0336853567867518</v>
+        <v>0.0001024022587195563</v>
       </c>
       <c r="AB81" t="n">
-        <v>0.03242013511816274</v>
+        <v>0.03241935106527693</v>
       </c>
       <c r="AC81" t="n">
-        <v>-0.1846293498475134</v>
+        <v>-0.2163432841009074</v>
       </c>
     </row>
     <row r="82">
@@ -8191,79 +8191,79 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.1976333177206726</v>
+        <v>0.2002895078604671</v>
       </c>
       <c r="F82" t="n">
-        <v>0.05733638349225846</v>
+        <v>0.06467551570856273</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04265452885101557</v>
+        <v>0.06966055127126655</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06277172763013301</v>
+        <v>0.0118118216359067</v>
       </c>
       <c r="I82" t="n">
-        <v>0.06022229695387346</v>
+        <v>0.02288494641259235</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03751900962759525</v>
+        <v>0.02114855502247018</v>
       </c>
       <c r="K82" t="n">
-        <v>0.03208613757724658</v>
+        <v>0.03176622568963036</v>
       </c>
       <c r="L82" t="n">
-        <v>0.002210553507439787</v>
+        <v>0.006021628686845087</v>
       </c>
       <c r="M82" t="n">
-        <v>0.06151969701397849</v>
+        <v>0.08973289206441656</v>
       </c>
       <c r="N82" t="n">
-        <v>0.002303048045947718</v>
+        <v>0.03242968009727779</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0262293322751908</v>
+        <v>0.06193280926451223</v>
       </c>
       <c r="P82" t="n">
-        <v>0.07072076104924255</v>
+        <v>0.03007273138676434</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.07842561745778689</v>
+        <v>0.09108018667405672</v>
       </c>
       <c r="R82" t="n">
-        <v>0.07099668913626771</v>
+        <v>0.08006109048625679</v>
       </c>
       <c r="S82" t="n">
-        <v>0.01923667478585177</v>
+        <v>0.03954858202667981</v>
       </c>
       <c r="T82" t="n">
-        <v>0.06175538564146955</v>
+        <v>0.04745310251182668</v>
       </c>
       <c r="U82" t="n">
-        <v>0.07788774482164863</v>
+        <v>0.08015826245797711</v>
       </c>
       <c r="V82" t="n">
-        <v>0.01474111148168321</v>
+        <v>0.00520981055009237</v>
       </c>
       <c r="W82" t="n">
-        <v>0.05307855319590944</v>
+        <v>0.01873342851306913</v>
       </c>
       <c r="X82" t="n">
-        <v>0.01288611111358113</v>
+        <v>0.02577531630083173</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.001477329076457646</v>
+        <v>0.02935174577294642</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.06611707808997609</v>
+        <v>0.08133001062533422</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.07138866065076961</v>
+        <v>0.02517622082920072</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.0164355685246764</v>
+        <v>0.03398488601148347</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.1582784798529606</v>
+        <v>0.1665639310621269</v>
       </c>
     </row>
     <row r="83">
@@ -8286,79 +8286,79 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.2080703525711282</v>
+        <v>0.2086459001652087</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0812386676626773</v>
+        <v>0.07799998168021907</v>
       </c>
       <c r="G83" t="n">
-        <v>0.001950322649360983</v>
+        <v>0.08796216114014783</v>
       </c>
       <c r="H83" t="n">
-        <v>0.006186971529602838</v>
+        <v>0.02505758281690308</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04999974640888846</v>
+        <v>0.03782067096674244</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02906857260206521</v>
+        <v>0.0052749100044788</v>
       </c>
       <c r="K83" t="n">
-        <v>0.005095102588156346</v>
+        <v>0.005912736061776905</v>
       </c>
       <c r="L83" t="n">
-        <v>0.001557877065951745</v>
+        <v>0.0116687714246934</v>
       </c>
       <c r="M83" t="n">
-        <v>0.1013979500278344</v>
+        <v>0.08481389509784375</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05222677945253994</v>
+        <v>0.02038833195056289</v>
       </c>
       <c r="O83" t="n">
-        <v>0.003628952891899919</v>
+        <v>0.0880821911542438</v>
       </c>
       <c r="P83" t="n">
-        <v>0.01800522462966698</v>
+        <v>0.05267991740744935</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.09678477487158464</v>
+        <v>0.07386306211728454</v>
       </c>
       <c r="R83" t="n">
-        <v>0.08805141552290113</v>
+        <v>0.07627475364254736</v>
       </c>
       <c r="S83" t="n">
-        <v>0.003387479444594116</v>
+        <v>0.01172849837832372</v>
       </c>
       <c r="T83" t="n">
-        <v>0.08248224146302777</v>
+        <v>0.01981411780971831</v>
       </c>
       <c r="U83" t="n">
-        <v>0.05218194329585689</v>
+        <v>0.02738483838758861</v>
       </c>
       <c r="V83" t="n">
-        <v>0.0279628605288993</v>
+        <v>0.02090090889814728</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01406647620809558</v>
+        <v>0.08315209339736492</v>
       </c>
       <c r="X83" t="n">
-        <v>0.04194478439025334</v>
+        <v>0.04765416559612706</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.0731951264988461</v>
+        <v>0.06181690853318757</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.08941931655667472</v>
+        <v>0.001450654824931431</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.004725744535769837</v>
+        <v>0.06199159015014838</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.07544166917485239</v>
+        <v>0.01630725855956959</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.1679382879561334</v>
+        <v>0.1812627777629491</v>
       </c>
     </row>
     <row r="84">
@@ -8381,79 +8381,79 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2301679101676561</v>
+        <v>0.2313570237655433</v>
       </c>
       <c r="F84" t="n">
-        <v>0.05496484464562961</v>
+        <v>0.03196377811378431</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02324078594805479</v>
+        <v>0.0277885587079902</v>
       </c>
       <c r="H84" t="n">
-        <v>0.01930642470017317</v>
+        <v>0.03370176699318682</v>
       </c>
       <c r="I84" t="n">
-        <v>0.03328025337197486</v>
+        <v>0.1063708168125237</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02707901968774829</v>
+        <v>0.0431118691220957</v>
       </c>
       <c r="K84" t="n">
-        <v>0.07263263632692933</v>
+        <v>0.02678869351498062</v>
       </c>
       <c r="L84" t="n">
-        <v>0.005051580379607084</v>
+        <v>0.02064483047701226</v>
       </c>
       <c r="M84" t="n">
-        <v>0.05763635107017698</v>
+        <v>0.09998347740080392</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05881285168115293</v>
+        <v>0.002447110557985554</v>
       </c>
       <c r="O84" t="n">
-        <v>0.07272244504436834</v>
+        <v>0.06187221242812548</v>
       </c>
       <c r="P84" t="n">
-        <v>0.07544417928873665</v>
+        <v>0.07202662769095404</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.1077499269258673</v>
+        <v>0.003346763378370943</v>
       </c>
       <c r="R84" t="n">
-        <v>0.07541633790079214</v>
+        <v>0.06179297463978715</v>
       </c>
       <c r="S84" t="n">
-        <v>0.07331019949711659</v>
+        <v>0.07335808448938214</v>
       </c>
       <c r="T84" t="n">
-        <v>0.001753271131458379</v>
+        <v>0.05931305748432224</v>
       </c>
       <c r="U84" t="n">
-        <v>0.04228283463898058</v>
+        <v>0.1044589376036091</v>
       </c>
       <c r="V84" t="n">
-        <v>0.005519097219916342</v>
+        <v>0.009319681002596985</v>
       </c>
       <c r="W84" t="n">
-        <v>0.09479167185267885</v>
+        <v>0.08615158306329405</v>
       </c>
       <c r="X84" t="n">
-        <v>0.003108728356716618</v>
+        <v>0.02609044328820269</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.01864496313949425</v>
+        <v>0.01386423973034063</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.009471909166968275</v>
+        <v>0.0101499155956328</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.003724062568557578</v>
+        <v>0.02064190590437499</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.06405562545690095</v>
+        <v>0.004812672000643572</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.05923203964613118</v>
+        <v>0.04560335558397417</v>
       </c>
     </row>
     <row r="85">
@@ -8476,82 +8476,82 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2585018585545091</v>
+        <v>0.2828519579482628</v>
       </c>
       <c r="F85" t="n">
-        <v>0.09042123543058735</v>
+        <v>0.0611063119620636</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02956440019292753</v>
+        <v>0.07245307830003012</v>
       </c>
       <c r="H85" t="n">
-        <v>0.05318786852252136</v>
+        <v>0.001553622896234484</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08119434469936544</v>
+        <v>0.007716469715244725</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02247613258387959</v>
+        <v>0.05800852644384628</v>
       </c>
       <c r="K85" t="n">
-        <v>0.001254933433205894</v>
+        <v>0.03115054045521869</v>
       </c>
       <c r="L85" t="n">
-        <v>0.001306536706583773</v>
+        <v>0.00677769319586016</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01035205969999453</v>
+        <v>0.1009692303156743</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02612255964348506</v>
+        <v>0.1100327307033152</v>
       </c>
       <c r="O85" t="n">
-        <v>0.08593605273651844</v>
+        <v>0.1170380215751655</v>
       </c>
       <c r="P85" t="n">
-        <v>0.01958821959896597</v>
+        <v>0.04822414559591272</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02969909515784752</v>
+        <v>0.02701839946205604</v>
       </c>
       <c r="R85" t="n">
-        <v>0.08158072998781866</v>
+        <v>0.01545923227595303</v>
       </c>
       <c r="S85" t="n">
-        <v>0.03796803350278133</v>
+        <v>0.003723997571017313</v>
       </c>
       <c r="T85" t="n">
-        <v>0.006514035453841479</v>
+        <v>0.07101970447383874</v>
       </c>
       <c r="U85" t="n">
-        <v>0.03941460642980964</v>
+        <v>0.001848615046472554</v>
       </c>
       <c r="V85" t="n">
-        <v>0.08450348477964302</v>
+        <v>0.07578295835268366</v>
       </c>
       <c r="W85" t="n">
-        <v>0.09787913820192252</v>
+        <v>0.0325663529041356</v>
       </c>
       <c r="X85" t="n">
-        <v>0.03557784351467382</v>
+        <v>0.01733166661757593</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.09152496582648784</v>
+        <v>0.1068450557863279</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.01289738605133678</v>
+        <v>0.01205260057590439</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.04505971737685503</v>
+        <v>0.007036309755529943</v>
       </c>
       <c r="AB85" t="n">
-        <v>0.01597662046894742</v>
+        <v>0.01428473601993912</v>
       </c>
       <c r="AC85" t="n">
-        <v>0.07409200862656834</v>
+        <v>0.08368413833058931</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>